--- a/results.xlsx
+++ b/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/ACNet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EA4674-5717-4145-9DE1-793941BD6790}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F46C8B7-71C7-C14A-A895-29B4F14FBB05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -59,6 +59,33 @@
   </si>
   <si>
     <t>dist_resnet18</t>
+  </si>
+  <si>
+    <t>FP16</t>
+  </si>
+  <si>
+    <t>temp4</t>
+  </si>
+  <si>
+    <t>temp1</t>
+  </si>
+  <si>
+    <t>temp2</t>
+  </si>
+  <si>
+    <t>temp3</t>
+  </si>
+  <si>
+    <t>ac_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>double_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>triple_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>dist_resnet18_FP32</t>
   </si>
 </sst>
 </file>
@@ -94,8 +121,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -432,6 +462,9 @@
       <c r="C1">
         <v>92.722399999999993</v>
       </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
       <c r="F1" t="s">
         <v>9</v>
       </c>
@@ -452,6 +485,12 @@
       <c r="C2">
         <v>93.182000000000002</v>
       </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -463,6 +502,12 @@
       <c r="C3">
         <v>93.1708</v>
       </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -474,6 +519,12 @@
       <c r="C4">
         <v>88.813400000000001</v>
       </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -485,6 +536,12 @@
       <c r="C5">
         <v>89.116299999999995</v>
       </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -519,7 +576,17 @@
         <v>88.687799999999996</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:C10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F46C8B7-71C7-C14A-A895-29B4F14FBB05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762402EF-D3B0-4741-AAFC-D51A3E1C73CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762402EF-D3B0-4741-AAFC-D51A3E1C73CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97404392-1FC9-A444-87B5-9C056D000163}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -508,6 +508,12 @@
       <c r="F3" t="s">
         <v>19</v>
       </c>
+      <c r="G3">
+        <v>70.258700000000005</v>
+      </c>
+      <c r="H3">
+        <v>89.459100000000007</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -524,6 +530,12 @@
       </c>
       <c r="F4" t="s">
         <v>17</v>
+      </c>
+      <c r="G4">
+        <v>70.286600000000007</v>
+      </c>
+      <c r="H4">
+        <v>89.5428</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97404392-1FC9-A444-87B5-9C056D000163}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F19F1EF-8DE0-7F46-A194-7628CADC610E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -86,16 +86,32 @@
   </si>
   <si>
     <t>dist_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>dist6_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>dist7_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>dist8_resnet18_FP32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,11 +137,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,7 +460,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,6 +508,12 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
+      <c r="G2" s="2">
+        <v>70.778899999999993</v>
+      </c>
+      <c r="H2">
+        <v>89.676299999999998</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -554,6 +577,12 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
+      <c r="G5">
+        <v>70.362300000000005</v>
+      </c>
+      <c r="H5">
+        <v>89.459100000000007</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -576,6 +605,18 @@
       <c r="C7">
         <v>88.450699999999998</v>
       </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>70.139099999999999</v>
+      </c>
+      <c r="H7">
+        <v>89.451099999999997</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -586,6 +627,32 @@
       </c>
       <c r="C8">
         <v>88.687799999999996</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>69.997600000000006</v>
+      </c>
+      <c r="H8">
+        <v>89.347499999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9">
+        <v>70.089299999999994</v>
+      </c>
+      <c r="H9">
+        <v>89.522900000000007</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F19F1EF-8DE0-7F46-A194-7628CADC610E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A80D06-B0C1-BF4D-9C3B-3B6159431AA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
+    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13940" activeTab="1" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="variance" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -47,12 +47,6 @@
   </si>
   <si>
     <t>triple_resnet18</t>
-  </si>
-  <si>
-    <t>epoch_2</t>
-  </si>
-  <si>
-    <t>epoch_1</t>
   </si>
   <si>
     <t>old_resnet18_FP32</t>
@@ -96,6 +90,30 @@
   <si>
     <t>dist8_resnet18_FP32</t>
   </si>
+  <si>
+    <t>ResNet50</t>
+  </si>
+  <si>
+    <t>ResNet18</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>MobileNet_v2</t>
+  </si>
+  <si>
+    <t>vgg16</t>
+  </si>
+  <si>
+    <t>densenet121</t>
+  </si>
+  <si>
+    <t>theoretcally</t>
+  </si>
 </sst>
 </file>
 
@@ -125,7 +143,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -133,16 +151,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -158,6 +201,1246 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ResNet50_val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>variance!$A$3:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>8.4967310000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3003769999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0096659E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9680980000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7389873999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6630806E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0217199999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0146247999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2794577E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2511140000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2277477999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2118453E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3230487000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5761970999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5117563999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2198850999999999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-186C-A246-A3F2-7E34C72D14D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ResNet50_theory</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>variance!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7361111111111099E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7361111111111099E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7361111111111099E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7361111111111099E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6805555555555497E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6805555555555497E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6805555555555497E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.6805555555555497E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.6805555555555497E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.6805555555555497E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3402777777777699E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.3402777777777699E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3402777777777699E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-186C-A246-A3F2-7E34C72D14D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ResNet18_val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>variance!$E$3:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.6821630000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8513211E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0430667999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5841890000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9338968999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7291680999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1568561E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1676176999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0306269999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.4374720000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2730429999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0001294999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.2725808000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9495633E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0014990000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1787556E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7427621000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-186C-A246-A3F2-7E34C72D14D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ResNet18_theory</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>variance!$F$3:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>6.3775510204081595E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7361111111111099E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7361111111111099E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7361111111111099E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7361111111111099E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6805555555555497E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.6805555555555497E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.6805555555555497E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.6805555555555497E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3402777777777699E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.3402777777777699E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3402777777777699E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.3402777777777699E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-186C-A246-A3F2-7E34C72D14D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>MObileNetV2_val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>variance!$I$3:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>5.218122E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22724449999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5648877E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4200344000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4418991000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9893553000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4056734E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2353302E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1656636999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9621150000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5339730000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2396569E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5865065000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.6557823000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.5568214000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.4349873000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0548757000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.5423939999999996E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-186C-A246-A3F2-7E34C72D14D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-186C-A246-A3F2-7E34C72D14D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1714151648"/>
+        <c:axId val="1714152032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1714151648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1714152032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1714152032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1714151648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB28E695-BE8D-F648-923B-E20165DCC2EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,10 +1740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,7 +1752,7 @@
     <col min="6" max="6" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,10 +1763,10 @@
         <v>92.722399999999993</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1">
         <v>69.634900000000002</v>
@@ -491,8 +1774,11 @@
       <c r="H1">
         <v>89.0047</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -503,10 +1789,10 @@
         <v>93.182000000000002</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2">
         <v>70.778899999999993</v>
@@ -514,8 +1800,11 @@
       <c r="H2">
         <v>89.676299999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="2">
+        <v>1.1439999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -525,20 +1814,23 @@
       <c r="C3">
         <v>93.1708</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3">
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5">
         <v>70.258700000000005</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>89.459100000000007</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="5">
+        <v>0.62380000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -548,20 +1840,23 @@
       <c r="C4">
         <v>88.813400000000001</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>70.286600000000007</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>89.5428</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="3">
+        <v>0.65169999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -571,20 +1866,23 @@
       <c r="C5">
         <v>89.116299999999995</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5">
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4">
         <v>70.362300000000005</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>89.459100000000007</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="4">
+        <v>0.72740000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -594,8 +1892,23 @@
       <c r="C6">
         <v>88.721699999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="6">
+        <v>70.139099999999999</v>
+      </c>
+      <c r="H6" s="6">
+        <v>89.451099999999997</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.50419999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -605,22 +1918,25 @@
       <c r="C7">
         <v>88.450699999999998</v>
       </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <v>70.139099999999999</v>
-      </c>
-      <c r="H7">
-        <v>89.451099999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="7">
+        <v>69.997600000000006</v>
+      </c>
+      <c r="H7" s="7">
+        <v>89.347499999999997</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.36270000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>69.328000000000003</v>
@@ -628,36 +1944,25 @@
       <c r="C8">
         <v>88.687799999999996</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8">
-        <v>69.997600000000006</v>
-      </c>
-      <c r="H8">
-        <v>89.347499999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9">
+      <c r="E8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="8">
         <v>70.089299999999994</v>
       </c>
-      <c r="H9">
+      <c r="H8" s="8">
         <v>89.522900000000007</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="8">
+        <v>0.45440000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -667,220 +1972,1145 @@
     <mergeCell ref="A10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A27A1E-183D-F74B-84E3-4F2A9878A0F1}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1.7765</v>
-      </c>
-      <c r="B2">
-        <v>2.2259000000000002</v>
-      </c>
-      <c r="C2">
-        <f>A2-B2</f>
-        <v>-0.44940000000000024</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.85489999999999999</v>
+        <v>8.4967310000000004E-4</v>
       </c>
       <c r="B3">
-        <v>0.89159999999999995</v>
+        <v>3.4722222222222199E-3</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C17" si="0">A3-B3</f>
-        <v>-3.6699999999999955E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.9433040000000002E-4</v>
+      </c>
+      <c r="E3">
+        <v>1.6821630000000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>6.3775510204081595E-4</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2.9419604999999999E-5</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3">
+        <v>5.218122E-2</v>
+      </c>
+      <c r="J3">
+        <v>6.9444444444444397E-3</v>
+      </c>
+      <c r="K3">
+        <v>-8.9475733999999998E-4</v>
+      </c>
+      <c r="M3">
+        <v>6.2952530000000007E-2</v>
+      </c>
+      <c r="N3">
+        <v>3.4722222222222199E-3</v>
+      </c>
+      <c r="O3">
+        <v>-1.8766945999999999E-3</v>
+      </c>
+      <c r="Q3">
+        <v>1.2490178999999999E-3</v>
+      </c>
+      <c r="S3" s="9">
+        <v>7.7335200000000005E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.90620000000000001</v>
+        <v>8.3003769999999996E-4</v>
       </c>
       <c r="B4">
-        <v>0.80089999999999995</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0.10530000000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.4722222222222199E-3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>4.9313893999999999E-5</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4">
+        <v>2.8513211E-3</v>
+      </c>
+      <c r="F4">
+        <v>3.4722222222222199E-3</v>
+      </c>
+      <c r="G4">
+        <v>-3.0870493999999998E-3</v>
+      </c>
+      <c r="I4">
+        <v>0.22724449999999999</v>
+      </c>
+      <c r="J4">
+        <v>6.9444444444444397E-3</v>
+      </c>
+      <c r="K4">
+        <v>6.9401282999999999E-3</v>
+      </c>
+      <c r="M4">
+        <v>3.1184136999999998E-3</v>
+      </c>
+      <c r="N4">
+        <v>3.4722222222222199E-3</v>
+      </c>
+      <c r="O4">
+        <v>-1.6551169E-3</v>
+      </c>
+      <c r="Q4">
+        <v>9.6221274000000002E-4</v>
+      </c>
+      <c r="S4">
+        <v>-1.2116678999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.56610000000000005</v>
+        <v>1.0096659E-3</v>
       </c>
       <c r="B5">
-        <v>0.44550000000000001</v>
+        <v>3.4722222222222199E-3</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0.12060000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.5366756000000005E-4</v>
+      </c>
+      <c r="E5">
+        <v>2.0430667999999999E-3</v>
+      </c>
+      <c r="F5">
+        <v>3.4722222222222199E-3</v>
+      </c>
+      <c r="G5">
+        <v>-8.8933230000000005E-4</v>
+      </c>
+      <c r="I5">
+        <v>2.5648877E-2</v>
+      </c>
+      <c r="J5">
+        <v>2.3148148148148099E-3</v>
+      </c>
+      <c r="K5">
+        <v>-7.2043183999999996E-3</v>
+      </c>
+      <c r="M5">
+        <v>2.4656395000000001E-3</v>
+      </c>
+      <c r="N5">
+        <v>1.7361111111111099E-3</v>
+      </c>
+      <c r="O5">
+        <v>-1.8486308E-3</v>
+      </c>
+      <c r="Q5">
+        <v>1.0402777000000001E-3</v>
+      </c>
+      <c r="S5">
+        <v>-8.5703959999999997E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0.95479999999999998</v>
+        <v>4.9680980000000002E-4</v>
       </c>
       <c r="B6">
-        <v>0.98499999999999999</v>
+        <v>1.7361111111111099E-3</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>-3.0200000000000005E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.4070419999999999E-4</v>
+      </c>
+      <c r="E6">
+        <v>2.5841890000000002E-3</v>
+      </c>
+      <c r="F6">
+        <v>3.4722222222222199E-3</v>
+      </c>
+      <c r="G6">
+        <v>-2.4200407999999999E-3</v>
+      </c>
+      <c r="I6">
+        <v>3.4200344000000001E-2</v>
+      </c>
+      <c r="J6">
+        <v>1.5432098765432E-3</v>
+      </c>
+      <c r="K6">
+        <v>2.3800214000000001E-3</v>
+      </c>
+      <c r="M6">
+        <v>1.4784995E-3</v>
+      </c>
+      <c r="N6">
+        <v>1.7361111111111099E-3</v>
+      </c>
+      <c r="O6">
+        <v>-2.2101488000000002E-3</v>
+      </c>
+      <c r="Q6">
+        <v>9.9117390000000001E-4</v>
+      </c>
+      <c r="S6">
+        <v>-6.9463043000000003E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0.64729999999999999</v>
+        <v>3.7389873999999997E-4</v>
       </c>
       <c r="B7">
-        <v>0.69059999999999999</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>-4.3300000000000005E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.7361111111111099E-3</v>
+      </c>
+      <c r="C7" s="9">
+        <v>-3.7090038000000003E-5</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7">
+        <v>1.9338968999999999E-3</v>
+      </c>
+      <c r="F7">
+        <v>3.4722222222222199E-3</v>
+      </c>
+      <c r="G7">
+        <v>-1.2602500000000001E-3</v>
+      </c>
+      <c r="I7">
+        <v>1.4418991000000001E-2</v>
+      </c>
+      <c r="J7">
+        <v>1.5432098765432E-3</v>
+      </c>
+      <c r="K7">
+        <v>1.3197143999999999E-2</v>
+      </c>
+      <c r="M7">
+        <v>1.0098327E-3</v>
+      </c>
+      <c r="N7">
+        <v>8.6805555555555497E-4</v>
+      </c>
+      <c r="O7">
+        <v>-1.3297420999999999E-3</v>
+      </c>
+      <c r="Q7">
+        <v>7.1486336000000001E-4</v>
+      </c>
+      <c r="S7">
+        <v>-7.1525750000000002E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0.61580000000000001</v>
+        <v>4.6630806E-4</v>
       </c>
       <c r="B8">
-        <v>0.39679999999999999</v>
+        <v>1.7361111111111099E-3</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0.21900000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.3259636000000002E-4</v>
+      </c>
+      <c r="E8">
+        <v>1.7291680999999999E-3</v>
+      </c>
+      <c r="F8">
+        <v>1.7361111111111099E-3</v>
+      </c>
+      <c r="G8">
+        <v>-1.4537475E-3</v>
+      </c>
+      <c r="I8">
+        <v>1.9893553000000001E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.1574074074074E-3</v>
+      </c>
+      <c r="K8">
+        <v>-3.6511429999999999E-3</v>
+      </c>
+      <c r="M8">
+        <v>6.0164229999999999E-4</v>
+      </c>
+      <c r="N8">
+        <v>8.6805555555555497E-4</v>
+      </c>
+      <c r="O8">
+        <v>-1.4359391E-3</v>
+      </c>
+      <c r="Q8">
+        <v>8.8873314000000004E-4</v>
+      </c>
+      <c r="S8">
+        <v>-1.2978677000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>0.52029999999999998</v>
+        <v>5.0217199999999995E-4</v>
       </c>
       <c r="B9">
-        <v>0.3276</v>
+        <v>1.7361111111111099E-3</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.19269999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.4371916999999997E-4</v>
+      </c>
+      <c r="E9">
+        <v>1.1568561E-3</v>
+      </c>
+      <c r="F9">
+        <v>1.7361111111111099E-3</v>
+      </c>
+      <c r="G9">
+        <v>-1.2476662E-3</v>
+      </c>
+      <c r="I9">
+        <v>1.4056734E-2</v>
+      </c>
+      <c r="J9">
+        <v>1.1574074074074E-3</v>
+      </c>
+      <c r="K9">
+        <v>-2.6865497000000001E-3</v>
+      </c>
+      <c r="M9">
+        <v>6.3809792999999998E-4</v>
+      </c>
+      <c r="N9">
+        <v>8.6805555555555497E-4</v>
+      </c>
+      <c r="O9">
+        <v>-2.4407739000000001E-3</v>
+      </c>
+      <c r="Q9">
+        <v>1.0029666999999999E-3</v>
+      </c>
+      <c r="S9">
+        <v>-1.0714142E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>0.7298</v>
+        <v>3.0146247999999999E-4</v>
       </c>
       <c r="B10">
-        <v>0.32879999999999998</v>
+        <v>8.6805555555555497E-4</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0.40100000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-4.0909110000000002E-4</v>
+      </c>
+      <c r="E10">
+        <v>1.1676176999999999E-3</v>
+      </c>
+      <c r="F10">
+        <v>1.7361111111111099E-3</v>
+      </c>
+      <c r="G10">
+        <v>-1.5302165E-3</v>
+      </c>
+      <c r="I10">
+        <v>1.2353302E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.1574074074074E-3</v>
+      </c>
+      <c r="K10">
+        <v>6.2059039999999999E-3</v>
+      </c>
+      <c r="M10">
+        <v>4.6334832E-4</v>
+      </c>
+      <c r="N10">
+        <v>4.3402777777777699E-4</v>
+      </c>
+      <c r="O10">
+        <v>-1.7096718999999999E-3</v>
+      </c>
+      <c r="Q10">
+        <v>8.5272430000000001E-4</v>
+      </c>
+      <c r="S10">
+        <v>-1.39079E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>0.66359999999999997</v>
+        <v>2.2794577E-4</v>
       </c>
       <c r="B11">
-        <v>0.39</v>
+        <v>8.6805555555555497E-4</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0.27359999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.109969E-4</v>
+      </c>
+      <c r="E11">
+        <v>9.0306269999999996E-4</v>
+      </c>
+      <c r="F11">
+        <v>1.7361111111111099E-3</v>
+      </c>
+      <c r="G11">
+        <v>-1.2723815999999999E-3</v>
+      </c>
+      <c r="I11">
+        <v>1.1656636999999999E-2</v>
+      </c>
+      <c r="J11">
+        <v>5.7870370370370302E-4</v>
+      </c>
+      <c r="K11">
+        <v>-4.0672540000000002E-3</v>
+      </c>
+      <c r="M11">
+        <v>2.6593211999999998E-4</v>
+      </c>
+      <c r="N11">
+        <v>4.3402777777777699E-4</v>
+      </c>
+      <c r="O11">
+        <v>-1.6136245999999999E-3</v>
+      </c>
+      <c r="Q11">
+        <v>8.8900374000000005E-4</v>
+      </c>
+      <c r="S11">
+        <v>-1.4919238999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>0.45390000000000003</v>
+        <v>2.2511140000000001E-4</v>
       </c>
       <c r="B12">
-        <v>7.8399999999999997E-2</v>
+        <v>8.6805555555555497E-4</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0.37550000000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.1099230000000002E-4</v>
+      </c>
+      <c r="E12">
+        <v>8.4374720000000001E-4</v>
+      </c>
+      <c r="F12">
+        <v>8.6805555555555497E-4</v>
+      </c>
+      <c r="G12">
+        <v>-1.3684281999999999E-3</v>
+      </c>
+      <c r="I12">
+        <v>7.9621150000000005E-3</v>
+      </c>
+      <c r="J12">
+        <v>5.7870370370370302E-4</v>
+      </c>
+      <c r="K12">
+        <v>-1.6123591999999999E-3</v>
+      </c>
+      <c r="M12">
+        <v>2.6224267999999998E-4</v>
+      </c>
+      <c r="N12">
+        <v>4.3402777777777699E-4</v>
+      </c>
+      <c r="O12">
+        <v>-2.2358615000000002E-3</v>
+      </c>
+      <c r="Q12">
+        <v>8.6363713000000002E-4</v>
+      </c>
+      <c r="S12">
+        <v>-9.281688E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1.1735</v>
+        <v>2.2277477999999999E-4</v>
       </c>
       <c r="B13">
-        <v>0.69330000000000003</v>
+        <v>8.6805555555555497E-4</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0.48019999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-7.6723640000000005E-4</v>
+      </c>
+      <c r="E13">
+        <v>6.2730429999999996E-4</v>
+      </c>
+      <c r="F13">
+        <v>8.6805555555555497E-4</v>
+      </c>
+      <c r="G13">
+        <v>-7.8660959999999995E-4</v>
+      </c>
+      <c r="I13">
+        <v>6.5339730000000002E-3</v>
+      </c>
+      <c r="J13">
+        <v>5.7870370370370302E-4</v>
+      </c>
+      <c r="K13">
+        <v>3.8249870000000002E-3</v>
+      </c>
+      <c r="M13">
+        <v>2.9809965000000003E-4</v>
+      </c>
+      <c r="N13">
+        <v>4.3402777777777699E-4</v>
+      </c>
+      <c r="O13">
+        <v>-1.5681961E-3</v>
+      </c>
+      <c r="Q13">
+        <v>8.2342036000000003E-4</v>
+      </c>
+      <c r="S13">
+        <v>-1.7440042E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>0.9143</v>
+        <v>2.2118453E-4</v>
       </c>
       <c r="B14">
-        <v>0.4894</v>
+        <v>8.6805555555555497E-4</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0.4249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-9.4149564000000003E-4</v>
+      </c>
+      <c r="E14">
+        <v>5.0001294999999998E-4</v>
+      </c>
+      <c r="F14">
+        <v>8.6805555555555497E-4</v>
+      </c>
+      <c r="G14">
+        <v>-1.6618602000000001E-3</v>
+      </c>
+      <c r="I14">
+        <v>1.2396569E-2</v>
+      </c>
+      <c r="J14">
+        <v>5.7870370370370302E-4</v>
+      </c>
+      <c r="K14">
+        <v>7.7248029999999997E-3</v>
+      </c>
+      <c r="M14">
+        <v>2.8605002000000002E-4</v>
+      </c>
+      <c r="N14">
+        <v>4.3402777777777699E-4</v>
+      </c>
+      <c r="O14">
+        <v>-1.8457511999999999E-3</v>
+      </c>
+      <c r="Q14">
+        <v>8.5027520000000001E-4</v>
+      </c>
+      <c r="S14">
+        <v>-2.0770189999999998E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>0.88859999999999995</v>
+        <v>2.3230487000000001E-4</v>
       </c>
       <c r="B15">
-        <v>0.7712</v>
+        <v>8.6805555555555497E-4</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>0.11739999999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-8.9913874000000003E-4</v>
+      </c>
+      <c r="E15">
+        <v>4.2725808000000003E-4</v>
+      </c>
+      <c r="F15">
+        <v>8.6805555555555497E-4</v>
+      </c>
+      <c r="G15">
+        <v>-1.4413936E-3</v>
+      </c>
+      <c r="I15">
+        <v>6.5865065000000004E-3</v>
+      </c>
+      <c r="J15">
+        <v>3.8580246913580201E-4</v>
+      </c>
+      <c r="K15">
+        <v>1.3067926E-3</v>
+      </c>
+      <c r="M15">
+        <v>2.5397798E-4</v>
+      </c>
+      <c r="N15">
+        <v>4.3402777777777699E-4</v>
+      </c>
+      <c r="O15">
+        <v>-2.2066274999999998E-3</v>
+      </c>
+      <c r="Q15">
+        <v>7.2199329999999998E-4</v>
+      </c>
+      <c r="S15">
+        <v>-1.2334008E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0.20580000000000001</v>
+        <v>1.5761970999999999E-4</v>
       </c>
       <c r="B16">
-        <v>9.4200000000000006E-2</v>
+        <v>4.3402777777777699E-4</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0.1116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5.1273126000000004E-4</v>
+      </c>
+      <c r="E16">
+        <v>3.9495633E-4</v>
+      </c>
+      <c r="F16">
+        <v>4.3402777777777699E-4</v>
+      </c>
+      <c r="G16">
+        <v>-1.5646658000000001E-3</v>
+      </c>
+      <c r="I16">
+        <v>5.6557823000000004E-3</v>
+      </c>
+      <c r="J16">
+        <v>3.8580246913580201E-4</v>
+      </c>
+      <c r="K16">
+        <v>4.0705283E-3</v>
+      </c>
+      <c r="Q16">
+        <v>7.6739419999999998E-4</v>
+      </c>
+      <c r="S16">
+        <v>-1.5327714E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>0.55100000000000005</v>
+        <v>1.5117563999999999E-4</v>
       </c>
       <c r="B17">
-        <v>0.54800000000000004</v>
+        <v>4.3402777777777699E-4</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000027E-3</v>
+        <v>-8.3875295000000001E-4</v>
+      </c>
+      <c r="E17">
+        <v>3.0014990000000002E-4</v>
+      </c>
+      <c r="F17">
+        <v>4.3402777777777699E-4</v>
+      </c>
+      <c r="G17">
+        <v>-1.3029167999999999E-3</v>
+      </c>
+      <c r="I17">
+        <v>5.5568214000000001E-3</v>
+      </c>
+      <c r="J17">
+        <v>3.8580246913580201E-4</v>
+      </c>
+      <c r="K17">
+        <v>2.0199852000000001E-2</v>
+      </c>
+      <c r="Q17">
+        <v>7.7975250000000005E-4</v>
+      </c>
+      <c r="S17">
+        <v>-1.7254150999999999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1.2198850999999999E-4</v>
+      </c>
+      <c r="B18">
+        <v>4.3402777777777699E-4</v>
+      </c>
+      <c r="C18">
+        <v>-6.6400116000000001E-4</v>
+      </c>
+      <c r="E18">
+        <v>3.1787556E-4</v>
+      </c>
+      <c r="F18">
+        <v>4.3402777777777699E-4</v>
+      </c>
+      <c r="G18">
+        <v>-2.2610974999999998E-3</v>
+      </c>
+      <c r="I18">
+        <v>6.4349873000000002E-3</v>
+      </c>
+      <c r="J18">
+        <v>2.31481481481481E-4</v>
+      </c>
+      <c r="K18">
+        <v>-5.5502329999999999E-3</v>
+      </c>
+      <c r="Q18">
+        <v>6.7826029999999997E-4</v>
+      </c>
+      <c r="S18">
+        <v>-1.0392629999999999E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>1.7427621000000001E-4</v>
+      </c>
+      <c r="F19">
+        <v>4.3402777777777699E-4</v>
+      </c>
+      <c r="G19">
+        <v>-1.0771389E-4</v>
+      </c>
+      <c r="I19">
+        <v>5.0548757000000001E-3</v>
+      </c>
+      <c r="J19">
+        <v>2.31481481481481E-4</v>
+      </c>
+      <c r="K19">
+        <v>3.2726547000000001E-3</v>
+      </c>
+      <c r="Q19">
+        <v>6.4816889999999995E-4</v>
+      </c>
+      <c r="S19">
+        <v>-1.1749784000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>6.5423939999999996E-4</v>
+      </c>
+      <c r="J20">
+        <v>2.31481481481481E-4</v>
+      </c>
+      <c r="K20">
+        <v>3.1852585000000002E-4</v>
+      </c>
+      <c r="Q20">
+        <v>6.3481460000000003E-4</v>
+      </c>
+      <c r="S20">
+        <v>-6.2279654000000002E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q21">
+        <v>6.4112927000000005E-4</v>
+      </c>
+      <c r="S21">
+        <v>-1.2814937999999999E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q22">
+        <v>7.0845212999999995E-4</v>
+      </c>
+      <c r="S22">
+        <v>-1.2737607999999999E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q23">
+        <v>6.2920949999999999E-4</v>
+      </c>
+      <c r="S23">
+        <v>-1.6074451999999999E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f>MAX(A3:A18)</f>
+        <v>1.0096659E-3</v>
+      </c>
+      <c r="E24">
+        <f>MAX(E3:E19)</f>
+        <v>1.6821630000000001E-2</v>
+      </c>
+      <c r="I24">
+        <f>MAX(I3:I23)</f>
+        <v>0.22724449999999999</v>
+      </c>
+      <c r="M24">
+        <f>MAX(M3:M23)</f>
+        <v>6.2952530000000007E-2</v>
+      </c>
+      <c r="Q24">
+        <v>6.9217617000000005E-4</v>
+      </c>
+      <c r="S24">
+        <v>-1.7587052E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q25">
+        <v>6.999412E-4</v>
+      </c>
+      <c r="S25">
+        <v>-1.2817556000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q26">
+        <v>7.3150199999999998E-4</v>
+      </c>
+      <c r="S26">
+        <v>-1.4866292E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q27">
+        <v>7.5501802999999998E-4</v>
+      </c>
+      <c r="S27">
+        <v>-6.5308955000000001E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q28">
+        <v>7.0584274000000001E-4</v>
+      </c>
+      <c r="S28">
+        <v>-1.4682568000000001E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q29">
+        <v>7.2592659999999999E-4</v>
+      </c>
+      <c r="S29">
+        <v>-1.9563762000000002E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q30">
+        <v>7.0735166000000002E-4</v>
+      </c>
+      <c r="S30">
+        <v>-1.5490785999999999E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q31">
+        <v>7.5733864999999998E-4</v>
+      </c>
+      <c r="S31">
+        <v>-1.8861371E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q32">
+        <v>7.1470026000000002E-4</v>
+      </c>
+      <c r="S32">
+        <v>-1.2765802000000001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q33">
+        <v>7.9710974000000003E-4</v>
+      </c>
+      <c r="S33">
+        <v>-1.2455266E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q34">
+        <v>7.3245600000000004E-4</v>
+      </c>
+      <c r="S34">
+        <v>-1.3478247999999999E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q35">
+        <v>6.8027970000000002E-4</v>
+      </c>
+      <c r="S35">
+        <v>-1.7971223000000001E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q36">
+        <v>5.8331433999999998E-4</v>
+      </c>
+      <c r="S36">
+        <v>-8.6101715E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q37">
+        <v>6.5706209999999996E-4</v>
+      </c>
+      <c r="S37">
+        <v>-1.0836063000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q38">
+        <v>6.6743219999999999E-4</v>
+      </c>
+      <c r="S38">
+        <v>-1.8908218000000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q39">
+        <v>6.5249106000000003E-4</v>
+      </c>
+      <c r="S39">
+        <v>-1.4038453E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q40">
+        <v>5.7810230000000004E-4</v>
+      </c>
+      <c r="S40">
+        <v>-1.6805278000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q41">
+        <v>5.9314929999999995E-4</v>
+      </c>
+      <c r="S41">
+        <v>-1.3162362E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q42">
+        <v>6.924915E-4</v>
+      </c>
+      <c r="S42">
+        <v>-9.3705890000000003E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q43">
+        <v>5.4544140000000005E-4</v>
+      </c>
+      <c r="S43">
+        <v>-1.0945086999999999E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q44">
+        <v>5.5068830000000002E-4</v>
+      </c>
+      <c r="S44">
+        <v>-7.5031805000000005E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q45">
+        <v>5.7277135999999999E-4</v>
+      </c>
+      <c r="S45">
+        <v>-1.2571286E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q46">
+        <v>4.3469312E-4</v>
+      </c>
+      <c r="S46">
+        <v>9.1438529999999997E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q47">
+        <v>5.4711744000000004E-4</v>
+      </c>
+      <c r="S47">
+        <v>2.9498196E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q48">
+        <v>4.9886334000000005E-4</v>
+      </c>
+      <c r="S48">
+        <v>7.9847670000000003E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q49">
+        <v>3.5010047999999998E-4</v>
+      </c>
+      <c r="S49">
+        <v>1.5617211000000001E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q50">
+        <v>4.6661228E-4</v>
+      </c>
+      <c r="S50">
+        <v>1.5436637E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q51">
+        <v>3.4748055999999999E-4</v>
+      </c>
+      <c r="S51">
+        <v>1.4812826E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q52">
+        <v>3.5306005E-4</v>
+      </c>
+      <c r="S52">
+        <v>1.9008626999999999E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q53">
+        <v>3.0541298000000001E-4</v>
+      </c>
+      <c r="S53">
+        <v>1.9872342000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q54">
+        <v>3.1683260000000001E-4</v>
+      </c>
+      <c r="S54">
+        <v>1.7806026E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q55">
+        <v>3.1349566000000003E-4</v>
+      </c>
+      <c r="S55">
+        <v>1.928288E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q56">
+        <v>3.2504878000000001E-4</v>
+      </c>
+      <c r="S56">
+        <v>1.7637536000000001E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q57">
+        <v>3.2193454999999998E-4</v>
+      </c>
+      <c r="S57">
+        <v>1.6907053999999999E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q58">
+        <v>3.2276845999999997E-4</v>
+      </c>
+      <c r="S58">
+        <v>1.8374361000000001E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q59">
+        <v>3.2346608000000002E-4</v>
+      </c>
+      <c r="S59">
+        <v>1.8014083999999999E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="17:19" x14ac:dyDescent="0.2">
+      <c r="Q60">
+        <v>3.6387885000000001E-4</v>
+      </c>
+      <c r="S60">
+        <v>1.5948762999999999E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A80D06-B0C1-BF4D-9C3B-3B6159431AA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B29AA42-43D8-B744-B4A0-6EA204FAB6A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13940" activeTab="1" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
+    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>theoretcally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temp4 </t>
+  </si>
+  <si>
+    <t>dist9_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>dist10_resnet18_FP32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stopped. </t>
   </si>
 </sst>
 </file>
@@ -1742,8 +1754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:I38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1960,12 +1972,29 @@
         <v>0.45440000000000003</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1980,7 +2009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A27A1E-183D-F74B-84E3-4F2A9878A0F1}">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B29AA42-43D8-B744-B4A0-6EA204FAB6A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FACE1AC-39D1-5440-83D6-2DBCE6D2956C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -1755,7 +1755,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1978,6 +1978,12 @@
       </c>
       <c r="F9" s="8" t="s">
         <v>30</v>
+      </c>
+      <c r="G9" s="3">
+        <v>70.4161</v>
+      </c>
+      <c r="H9" s="3">
+        <v>89.734099999999998</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FACE1AC-39D1-5440-83D6-2DBCE6D2956C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A220E4D1-1738-9F45-A468-7DBF8D836BA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -125,13 +125,22 @@
   </si>
   <si>
     <t xml:space="preserve">Stopped. </t>
+  </si>
+  <si>
+    <t>densenet121(FP16)</t>
+  </si>
+  <si>
+    <t>ac_densenet121(FP16)</t>
+  </si>
+  <si>
+    <t>unfinished</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -145,6 +154,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,6 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1752,10 +1768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1985,6 +2001,9 @@
       <c r="H9" s="3">
         <v>89.734099999999998</v>
       </c>
+      <c r="I9" s="10">
+        <v>0.78120000000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -2000,6 +2019,25 @@
       </c>
       <c r="G10" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A220E4D1-1738-9F45-A468-7DBF8D836BA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D42B3F-33C6-D540-A312-6717A965AE4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>unfinished</t>
+  </si>
+  <si>
+    <t>group2_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>group1_resnet18_FP32</t>
   </si>
 </sst>
 </file>
@@ -202,9 +208,6 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -214,6 +217,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1768,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1822,13 +1828,13 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>70.778899999999993</v>
       </c>
       <c r="H2">
         <v>89.676299999999998</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>1.1439999999999999</v>
       </c>
     </row>
@@ -1842,19 +1848,19 @@
       <c r="C3">
         <v>93.1708</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>70.258700000000005</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>89.459100000000007</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>0.62380000000000002</v>
       </c>
     </row>
@@ -1868,19 +1874,19 @@
       <c r="C4">
         <v>88.813400000000001</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>70.286600000000007</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>89.5428</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>0.65169999999999995</v>
       </c>
     </row>
@@ -1894,19 +1900,19 @@
       <c r="C5">
         <v>89.116299999999995</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>70.362300000000005</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>89.459100000000007</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>0.72740000000000005</v>
       </c>
     </row>
@@ -1920,19 +1926,19 @@
       <c r="C6">
         <v>88.721699999999998</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>70.139099999999999</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>89.451099999999997</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>0.50419999999999998</v>
       </c>
     </row>
@@ -1946,19 +1952,19 @@
       <c r="C7">
         <v>88.450699999999998</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>69.997600000000006</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>89.347499999999997</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>0.36270000000000002</v>
       </c>
     </row>
@@ -1972,49 +1978,49 @@
       <c r="C8">
         <v>88.687799999999996</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>70.089299999999994</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>89.522900000000007</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>0.45440000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>70.4161</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>89.734099999999998</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>0.78120000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="E10" s="3" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G10" t="s">
@@ -2022,22 +2028,50 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>70.605500000000006</v>
+      </c>
+      <c r="H13">
+        <v>89.566699999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14">
+        <v>70.232799999999997</v>
+      </c>
+      <c r="H14">
+        <v>89.283699999999996</v>
       </c>
     </row>
   </sheetData>
@@ -2139,10 +2173,10 @@
       <c r="F3">
         <v>6.3775510204081595E-4</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>2.9419604999999999E-5</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="8"/>
       <c r="I3">
         <v>5.218122E-2</v>
       </c>
@@ -2164,7 +2198,7 @@
       <c r="Q3">
         <v>1.2490178999999999E-3</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="8">
         <v>7.7335200000000005E-5</v>
       </c>
     </row>
@@ -2175,10 +2209,10 @@
       <c r="B4">
         <v>3.4722222222222199E-3</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>4.9313893999999999E-5</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="8"/>
       <c r="E4">
         <v>2.8513211E-3</v>
       </c>
@@ -2308,10 +2342,10 @@
       <c r="B7">
         <v>1.7361111111111099E-3</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>-3.7090038000000003E-5</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="8"/>
       <c r="E7">
         <v>1.9338968999999999E-3</v>
       </c>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D42B3F-33C6-D540-A312-6717A965AE4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CDF094-ECCC-0547-B20C-C58FBF1D8BA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
+    <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -140,6 +140,24 @@
   </si>
   <si>
     <t>group1_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>dilate1_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>group4</t>
+  </si>
+  <si>
+    <t>1,4,8</t>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>1,4,8 (no bn)</t>
+  </si>
+  <si>
+    <t>dilate</t>
   </si>
 </sst>
 </file>
@@ -1774,10 +1792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1786,7 +1804,7 @@
     <col min="6" max="6" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1812,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1838,7 +1856,7 @@
         <v>1.1439999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1864,7 +1882,7 @@
         <v>0.62380000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1890,7 +1908,7 @@
         <v>0.65169999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1916,7 +1934,7 @@
         <v>0.72740000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1942,7 +1960,7 @@
         <v>0.50419999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1968,7 +1986,7 @@
         <v>0.36270000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1994,7 +2012,7 @@
         <v>0.45440000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
@@ -2011,7 +2029,7 @@
         <v>0.78120000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
@@ -2027,7 +2045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
@@ -2035,7 +2053,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
@@ -2046,7 +2064,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2059,8 +2077,11 @@
       <c r="H13">
         <v>89.566699999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2072,6 +2093,43 @@
       </c>
       <c r="H14">
         <v>89.283699999999996</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15">
+        <v>70.588899999999995</v>
+      </c>
+      <c r="H15">
+        <v>89.5886</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16">
+        <v>70.430700000000002</v>
+      </c>
+      <c r="H16">
+        <v>89.541300000000007</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CDF094-ECCC-0547-B20C-C58FBF1D8BA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA616146-F022-624D-9ACE-62124A599B3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="variance" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -145,9 +146,6 @@
     <t>dilate1_resnet18_FP32</t>
   </si>
   <si>
-    <t>group4</t>
-  </si>
-  <si>
     <t>1,4,8</t>
   </si>
   <si>
@@ -158,6 +156,24 @@
   </si>
   <si>
     <t>dilate</t>
+  </si>
+  <si>
+    <t>1,8,64</t>
+  </si>
+  <si>
+    <t>group3_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>group4_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>double2_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>combine1_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>group2+dilate1</t>
   </si>
 </sst>
 </file>
@@ -194,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -220,11 +236,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -235,6 +282,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1792,10 +1843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1804,7 +1855,7 @@
     <col min="6" max="6" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1830,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1856,7 +1907,7 @@
         <v>1.1439999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1882,7 +1933,7 @@
         <v>0.62380000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1908,7 +1959,7 @@
         <v>0.65169999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1934,7 +1985,7 @@
         <v>0.72740000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1960,7 +2011,7 @@
         <v>0.50419999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1986,7 +2037,7 @@
         <v>0.36270000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2012,7 +2063,7 @@
         <v>0.45440000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
@@ -2029,12 +2080,12 @@
         <v>0.78120000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
@@ -2045,7 +2096,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
@@ -2053,18 +2104,30 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E12" s="2" t="s">
+    <row r="12" spans="1:12" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
       <c r="E13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2078,10 +2141,10 @@
         <v>89.566699999999997</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2095,10 +2158,10 @@
         <v>89.283699999999996</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
@@ -2112,15 +2175,15 @@
         <v>89.5886</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G16">
         <v>70.430700000000002</v>
@@ -2129,7 +2192,55 @@
         <v>89.541300000000007</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17">
+        <v>70.392600000000002</v>
+      </c>
+      <c r="H17">
+        <v>89.645399999999995</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18">
+        <v>70.988100000000003</v>
+      </c>
+      <c r="H18">
+        <v>89.821799999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19">
+        <v>70.778899999999993</v>
+      </c>
+      <c r="H19">
+        <v>89.607399999999998</v>
+      </c>
+      <c r="J19" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA616146-F022-624D-9ACE-62124A599B3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF69CE31-8FD8-CA48-8410-BBCCB2A43BF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="variance" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -174,6 +173,15 @@
   </si>
   <si>
     <t>group2+dilate1</t>
+  </si>
+  <si>
+    <t>triple2_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>combine3_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>combine1+ double</t>
   </si>
 </sst>
 </file>
@@ -210,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -267,11 +275,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -289,6 +306,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1843,10 +1862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G19"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2195,7 +2214,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E17" s="2" t="s">
         <v>12</v>
       </c>
@@ -2212,7 +2231,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
@@ -2226,21 +2245,58 @@
         <v>89.821799999999996</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E19" s="2" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="15">
         <v>70.778899999999993</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="15">
         <v>89.607399999999998</v>
       </c>
-      <c r="J19" t="s">
+      <c r="I19" s="15"/>
+      <c r="J19" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20">
+        <v>70.737200000000001</v>
+      </c>
+      <c r="H20">
+        <v>89.748099999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>70.826700000000002</v>
+      </c>
+      <c r="H21">
+        <v>89.682299999999998</v>
+      </c>
+      <c r="J21" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF69CE31-8FD8-CA48-8410-BBCCB2A43BF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D09FEFD-E343-5244-8C23-F5A28B97F6D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>combine1+ double</t>
+  </si>
+  <si>
+    <t>double2_resnet50</t>
+  </si>
+  <si>
+    <t>double3_resnet50</t>
+  </si>
+  <si>
+    <t>add 1x1 conv</t>
   </si>
 </sst>
 </file>
@@ -303,11 +312,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1862,446 +1871,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="5" max="7" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>75.897400000000005</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>92.722399999999993</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="G1">
+      <c r="J1">
         <v>69.634900000000002</v>
       </c>
-      <c r="H1">
+      <c r="K1">
         <v>89.0047</v>
       </c>
-      <c r="I1">
+      <c r="L1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>76.580399999999997</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>93.182000000000002</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1">
+      <c r="J2" s="1">
         <v>70.778899999999993</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>89.676299999999998</v>
       </c>
-      <c r="I2" s="1">
+      <c r="L2" s="1">
         <v>1.1439999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>76.345299999999995</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>93.1708</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4">
+      <c r="J3" s="4">
         <v>70.258700000000005</v>
       </c>
-      <c r="H3" s="4">
+      <c r="K3" s="4">
         <v>89.459100000000007</v>
       </c>
-      <c r="I3" s="4">
+      <c r="L3" s="4">
         <v>0.62380000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>68.955299999999994</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>88.813400000000001</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2">
+      <c r="J4" s="2">
         <v>70.286600000000007</v>
       </c>
-      <c r="H4" s="2">
+      <c r="K4" s="2">
         <v>89.5428</v>
       </c>
-      <c r="I4" s="2">
+      <c r="L4" s="2">
         <v>0.65169999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>69.451499999999996</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>89.116299999999995</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="3">
+      <c r="J5" s="3">
         <v>70.362300000000005</v>
       </c>
-      <c r="H5" s="3">
+      <c r="K5" s="3">
         <v>89.459100000000007</v>
       </c>
-      <c r="I5" s="3">
+      <c r="L5" s="3">
         <v>0.72740000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>68.991200000000006</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>88.721699999999998</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="5">
+      <c r="J6" s="5">
         <v>70.139099999999999</v>
       </c>
-      <c r="H6" s="5">
+      <c r="K6" s="5">
         <v>89.451099999999997</v>
       </c>
-      <c r="I6" s="5">
+      <c r="L6" s="5">
         <v>0.50419999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>68.660300000000007</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>88.450699999999998</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="6">
+      <c r="J7" s="6">
         <v>69.997600000000006</v>
       </c>
-      <c r="H7" s="6">
+      <c r="K7" s="6">
         <v>89.347499999999997</v>
       </c>
-      <c r="I7" s="6">
+      <c r="L7" s="6">
         <v>0.36270000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>69.328000000000003</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>88.687799999999996</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="7">
+      <c r="J8" s="7">
         <v>70.089299999999994</v>
       </c>
-      <c r="H8" s="7">
+      <c r="K8" s="7">
         <v>89.522900000000007</v>
       </c>
-      <c r="I8" s="7">
+      <c r="L8" s="7">
         <v>0.45440000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E9" s="2" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="2">
+      <c r="J9" s="2">
         <v>70.4161</v>
       </c>
-      <c r="H9" s="2">
+      <c r="K9" s="2">
         <v>89.734099999999998</v>
       </c>
-      <c r="I9" s="9">
+      <c r="L9" s="9">
         <v>0.78120000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G10" t="s">
+      <c r="J10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E11" s="2" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="I12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="J12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="11"/>
+      <c r="H13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>70.605500000000006</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>89.566699999999997</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E14" s="2" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>76.227699999999999</v>
+      </c>
+      <c r="D14">
+        <v>92.998599999999996</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>70.232799999999997</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>89.283699999999996</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E15" s="2" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <v>76.286100000000005</v>
+      </c>
+      <c r="D15">
+        <v>92.930700000000002</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <v>70.588899999999995</v>
       </c>
-      <c r="H15">
+      <c r="K15">
         <v>89.5886</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E16" s="2" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>70.430700000000002</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>89.541300000000007</v>
       </c>
-      <c r="J16" t="s">
+      <c r="M16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E17" s="2" t="s">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>70.392600000000002</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>89.645399999999995</v>
       </c>
-      <c r="J17" t="s">
+      <c r="M17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E18" s="2" t="s">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>70.988100000000003</v>
       </c>
-      <c r="H18">
+      <c r="K18">
         <v>89.821799999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16" t="s">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="I19" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="15">
+      <c r="J19" s="14">
         <v>70.778899999999993</v>
       </c>
-      <c r="H19" s="15">
+      <c r="K19" s="14">
         <v>89.607399999999998</v>
       </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15" t="s">
+      <c r="L19" s="14"/>
+      <c r="M19" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E20" s="2" t="s">
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>70.737200000000001</v>
       </c>
-      <c r="H20">
+      <c r="K20">
         <v>89.748099999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E21" s="2" t="s">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <v>70.826700000000002</v>
       </c>
-      <c r="H21">
+      <c r="K21">
         <v>89.682299999999998</v>
       </c>
-      <c r="J21" t="s">
+      <c r="M21" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D09FEFD-E343-5244-8C23-F5A28B97F6D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CD12A8-4639-244C-87D5-B62CCCC1CD7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>add 1x1 conv</t>
+  </si>
+  <si>
+    <t>combine4_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>Batch size:64</t>
   </si>
 </sst>
 </file>
@@ -1871,17 +1877,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="5" max="7" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -2339,6 +2346,37 @@
       </c>
       <c r="M21" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="1">
+        <v>71.643799999999999</v>
+      </c>
+      <c r="K23">
+        <v>90.258300000000006</v>
+      </c>
+      <c r="M23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="1">
+        <v>72.387200000000007</v>
+      </c>
+      <c r="K24">
+        <v>90.696700000000007</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CD12A8-4639-244C-87D5-B62CCCC1CD7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754A0B26-BA0F-B943-AE2B-D6CEF13308DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -197,6 +197,24 @@
   </si>
   <si>
     <t>Batch size:64</t>
+  </si>
+  <si>
+    <t>validate1_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>validate2_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>2 X ori</t>
+  </si>
+  <si>
+    <t>4 X ori</t>
+  </si>
+  <si>
+    <t>combine5_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>FC(4,8,4)</t>
   </si>
 </sst>
 </file>
@@ -1877,10 +1895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23:J24"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="97" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2377,6 +2395,57 @@
       </c>
       <c r="K24">
         <v>90.696700000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26">
+        <v>72.730400000000003</v>
+      </c>
+      <c r="K26">
+        <v>90.985699999999994</v>
+      </c>
+      <c r="M26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27">
+        <v>71.863</v>
+      </c>
+      <c r="K27">
+        <v>90.483500000000006</v>
+      </c>
+      <c r="M27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28">
+        <v>72.088200000000001</v>
+      </c>
+      <c r="K28">
+        <v>90.671099999999996</v>
+      </c>
+      <c r="M28" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754A0B26-BA0F-B943-AE2B-D6CEF13308DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02A6C46-886C-6943-B6A8-145DF6E18B61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>FC(4,8,4)</t>
+  </si>
+  <si>
+    <t>combine7_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>combine6_resnet18_FP32</t>
   </si>
 </sst>
 </file>
@@ -1895,10 +1901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="97" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="97" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2446,6 +2452,34 @@
       </c>
       <c r="M28" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30">
+        <v>70.100200000000001</v>
+      </c>
+      <c r="K30">
+        <v>89.291700000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31">
+        <v>70.380600000000001</v>
+      </c>
+      <c r="K31">
+        <v>89.570700000000002</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02A6C46-886C-6943-B6A8-145DF6E18B61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8E182E-EB50-8042-A7D8-3C436ACB04A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -221,6 +221,36 @@
   </si>
   <si>
     <t>combine6_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>combine8_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>4Xc</t>
+  </si>
+  <si>
+    <t>combine10_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>remove BN</t>
+  </si>
+  <si>
+    <t>FC(4)</t>
+  </si>
+  <si>
+    <t>combine9_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>High train/ low validate</t>
+  </si>
+  <si>
+    <t>due to BN/statistic</t>
+  </si>
+  <si>
+    <t>combine11_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>using BN (weight+bias)</t>
   </si>
 </sst>
 </file>
@@ -1901,10 +1931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="97" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="97" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1912,7 +1942,7 @@
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="5" max="7" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="25.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -2467,6 +2497,9 @@
       <c r="K30">
         <v>89.291700000000006</v>
       </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="H31" t="s">
@@ -2481,10 +2514,80 @@
       <c r="K31">
         <v>89.570700000000002</v>
       </c>
+      <c r="M31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32">
+        <v>70.3626</v>
+      </c>
+      <c r="K32">
+        <v>89.5548</v>
+      </c>
+      <c r="M32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>70</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K33" s="16"/>
+      <c r="M33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" t="s">
+        <v>67</v>
+      </c>
+      <c r="J34">
+        <v>70.370599999999996</v>
+      </c>
+      <c r="K34">
+        <v>89.531199999999998</v>
+      </c>
+      <c r="M34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>73</v>
+      </c>
+      <c r="J35">
+        <v>69.939899999999994</v>
+      </c>
+      <c r="K35">
+        <v>89.170699999999997</v>
+      </c>
+      <c r="M35" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B10:D10"/>
+    <mergeCell ref="J33:K33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8E182E-EB50-8042-A7D8-3C436ACB04A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD717D7-88A3-AD4C-B4B8-A1C1306D5AD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -232,9 +232,6 @@
     <t>combine10_resnet18_FP32</t>
   </si>
   <si>
-    <t>remove BN</t>
-  </si>
-  <si>
     <t>FC(4)</t>
   </si>
   <si>
@@ -251,6 +248,15 @@
   </si>
   <si>
     <t>using BN (weight+bias)</t>
+  </si>
+  <si>
+    <t>combine12_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>hand-write BN</t>
+  </si>
+  <si>
+    <t>remove BN/combine4</t>
   </si>
 </sst>
 </file>
@@ -1931,10 +1937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="97" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="97" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2515,7 +2521,7 @@
         <v>89.570700000000002</v>
       </c>
       <c r="M31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
@@ -2540,14 +2546,14 @@
         <v>13</v>
       </c>
       <c r="I33" t="s">
+        <v>69</v>
+      </c>
+      <c r="J33" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="J33" s="16" t="s">
-        <v>71</v>
       </c>
       <c r="K33" s="16"/>
       <c r="M33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="8:13" x14ac:dyDescent="0.2">
@@ -2564,7 +2570,7 @@
         <v>89.531199999999998</v>
       </c>
       <c r="M34" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="8:13" x14ac:dyDescent="0.2">
@@ -2572,7 +2578,7 @@
         <v>13</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J35">
         <v>69.939899999999994</v>
@@ -2581,7 +2587,24 @@
         <v>89.170699999999997</v>
       </c>
       <c r="M35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" t="s">
         <v>74</v>
+      </c>
+      <c r="J36">
+        <v>70.348399999999998</v>
+      </c>
+      <c r="K36">
+        <v>89.648399999999995</v>
+      </c>
+      <c r="M36" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD717D7-88A3-AD4C-B4B8-A1C1306D5AD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4042E006-0E1C-F249-B288-BE043E4DCAA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="79">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>remove BN/combine4</t>
+  </si>
+  <si>
+    <t>pseudo SE</t>
+  </si>
+  <si>
+    <t>validate3_resnet18_FP32</t>
   </si>
 </sst>
 </file>
@@ -1937,9 +1943,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="97" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="97" workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
@@ -2605,6 +2611,23 @@
       </c>
       <c r="M36" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J37">
+        <v>70.192899999999995</v>
+      </c>
+      <c r="K37">
+        <v>89.443200000000004</v>
+      </c>
+      <c r="M37" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4042E006-0E1C-F249-B288-BE043E4DCAA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FD9C7E-D4B0-3E40-BF88-2ACF76AC4D31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>validate3_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>se_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>SE</t>
   </si>
 </sst>
 </file>
@@ -1943,10 +1949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="97" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2628,6 +2634,23 @@
       </c>
       <c r="M37" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" t="s">
+        <v>79</v>
+      </c>
+      <c r="J38">
+        <v>71.023600000000002</v>
+      </c>
+      <c r="K38">
+        <v>89.915899999999993</v>
+      </c>
+      <c r="M38" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FD9C7E-D4B0-3E40-BF88-2ACF76AC4D31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFB09B3-9A9B-A048-A885-484FA5CC901A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -1949,10 +1949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="97" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="97" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39:M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2636,20 +2636,20 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H38" t="s">
+    <row r="39" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
         <v>12</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I39" t="s">
         <v>79</v>
       </c>
-      <c r="J38">
+      <c r="J39">
         <v>71.023600000000002</v>
       </c>
-      <c r="K38">
+      <c r="K39">
         <v>89.915899999999993</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M39" t="s">
         <v>80</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFB09B3-9A9B-A048-A885-484FA5CC901A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06884B5C-8B97-CA4D-A055-EF272A0E0E04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="89">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -269,6 +269,30 @@
   </si>
   <si>
     <t>SE</t>
+  </si>
+  <si>
+    <t>combine+my design</t>
+  </si>
+  <si>
+    <t>combine16_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>combine13_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>combine14_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>combine+se</t>
+  </si>
+  <si>
+    <t>combine15_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>NAN</t>
+  </si>
+  <si>
+    <t>combine+sge</t>
   </si>
 </sst>
 </file>
@@ -1949,10 +1973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="97" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39:M39"/>
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2651,6 +2675,68 @@
       </c>
       <c r="M39" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41">
+        <v>68.607799999999997</v>
+      </c>
+      <c r="K41">
+        <v>88.446700000000007</v>
+      </c>
+    </row>
+    <row r="42" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" t="s">
+        <v>82</v>
+      </c>
+      <c r="J42">
+        <v>70.822699999999998</v>
+      </c>
+      <c r="K42">
+        <v>89.728200000000001</v>
+      </c>
+      <c r="M42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>84</v>
+      </c>
+      <c r="J43">
+        <v>71.5565</v>
+      </c>
+      <c r="K43">
+        <v>90.154700000000005</v>
+      </c>
+      <c r="M43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" t="s">
+        <v>86</v>
+      </c>
+      <c r="J44" t="s">
+        <v>87</v>
+      </c>
+      <c r="M44" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06884B5C-8B97-CA4D-A055-EF272A0E0E04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C93872-5484-D140-B375-CAB933D50F97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -293,6 +293,15 @@
   </si>
   <si>
     <t>combine+sge</t>
+  </si>
+  <si>
+    <t>combine+refine</t>
+  </si>
+  <si>
+    <t>combine17_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>combiine4+skeleton(AC)</t>
   </si>
 </sst>
 </file>
@@ -1973,10 +1982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="97" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="97" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1984,7 +1993,7 @@
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="5" max="7" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="25.6640625" customWidth="1"/>
-    <col min="13" max="13" width="19.1640625" customWidth="1"/>
+    <col min="13" max="13" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -2577,7 +2586,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H33" t="s">
         <v>13</v>
       </c>
@@ -2592,7 +2601,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H34" t="s">
         <v>12</v>
       </c>
@@ -2609,7 +2618,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H35" t="s">
         <v>13</v>
       </c>
@@ -2626,7 +2635,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H36" t="s">
         <v>12</v>
       </c>
@@ -2643,7 +2652,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H37" t="s">
         <v>12</v>
       </c>
@@ -2660,7 +2669,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H39" t="s">
         <v>12</v>
       </c>
@@ -2677,7 +2686,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H41" t="s">
         <v>12</v>
       </c>
@@ -2691,7 +2700,7 @@
         <v>88.446700000000007</v>
       </c>
     </row>
-    <row r="42" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H42" t="s">
         <v>11</v>
       </c>
@@ -2707,8 +2716,11 @@
       <c r="M42" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="43" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="N42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H43" t="s">
         <v>13</v>
       </c>
@@ -2725,7 +2737,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H44" t="s">
         <v>10</v>
       </c>
@@ -2737,6 +2749,23 @@
       </c>
       <c r="M44" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" t="s">
+        <v>90</v>
+      </c>
+      <c r="J45">
+        <v>71.015600000000006</v>
+      </c>
+      <c r="K45">
+        <v>89.957899999999995</v>
+      </c>
+      <c r="M45" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C93872-5484-D140-B375-CAB933D50F97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA976B13-2165-2A40-ADA6-9D6DF0D1D018}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="100">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -302,6 +302,30 @@
   </si>
   <si>
     <t>combiine4+skeleton(AC)</t>
+  </si>
+  <si>
+    <t>validate4_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>4 ori + softmax(c/4, 4)</t>
+  </si>
+  <si>
+    <t>combine18_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>6 path + softmax(c/4, 6)</t>
+  </si>
+  <si>
+    <t>validate5_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>softmax(GAP(input)*GAP(conv_weight))</t>
+  </si>
+  <si>
+    <t>validate6_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>softmaxFC*FC(GAP(input)*GAP(conv_weight))</t>
   </si>
 </sst>
 </file>
@@ -1982,10 +2006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="97" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="97" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2766,6 +2790,74 @@
       </c>
       <c r="M45" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" t="s">
+        <v>92</v>
+      </c>
+      <c r="J48">
+        <v>72.592100000000002</v>
+      </c>
+      <c r="K48">
+        <v>90.730599999999995</v>
+      </c>
+      <c r="M48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" t="s">
+        <v>94</v>
+      </c>
+      <c r="J49">
+        <v>72.447900000000004</v>
+      </c>
+      <c r="K49">
+        <v>90.727199999999996</v>
+      </c>
+      <c r="M49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" t="s">
+        <v>96</v>
+      </c>
+      <c r="J50">
+        <v>70.105199999999996</v>
+      </c>
+      <c r="K50">
+        <v>89.536799999999999</v>
+      </c>
+      <c r="M50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" t="s">
+        <v>98</v>
+      </c>
+      <c r="J51">
+        <v>70.623000000000005</v>
+      </c>
+      <c r="K51">
+        <v>89.883600000000001</v>
+      </c>
+      <c r="M51" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA976B13-2165-2A40-ADA6-9D6DF0D1D018}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2F8181-565F-184A-8A76-E2484A1764FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="104">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -326,6 +326,18 @@
   </si>
   <si>
     <t>softmaxFC*FC(GAP(input)*GAP(conv_weight))</t>
+  </si>
+  <si>
+    <t>combine19_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>4 path+softmax(c/4,4)</t>
+  </si>
+  <si>
+    <t>combine20_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>4Path + softmax(conv1d[gap,std],c/4,4)</t>
   </si>
 </sst>
 </file>
@@ -2006,10 +2018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="97" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="97" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2858,6 +2870,34 @@
       </c>
       <c r="M51" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" t="s">
+        <v>100</v>
+      </c>
+      <c r="M52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" t="s">
+        <v>102</v>
+      </c>
+      <c r="J53">
+        <v>71.723500000000001</v>
+      </c>
+      <c r="K53">
+        <v>90.232399999999998</v>
+      </c>
+      <c r="M53" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2F8181-565F-184A-8A76-E2484A1764FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F588038A-9A74-844F-84B2-262042756E77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -2020,8 +2020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="97" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="97" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2878,6 +2878,12 @@
       </c>
       <c r="I52" t="s">
         <v>100</v>
+      </c>
+      <c r="J52">
+        <v>71.952699999999993</v>
+      </c>
+      <c r="K52">
+        <v>90.384600000000006</v>
       </c>
       <c r="M52" t="s">
         <v>101</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F588038A-9A74-844F-84B2-262042756E77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F04603-534A-7549-B0D5-C1437D4EEC06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="113">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -338,13 +338,40 @@
   </si>
   <si>
     <t>4Path + softmax(conv1d[gap,std],c/4,4)</t>
+  </si>
+  <si>
+    <t>ge_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>new1_resnet50</t>
+  </si>
+  <si>
+    <t>new1_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>new2_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>2ori+1group+1skeleton</t>
+  </si>
+  <si>
+    <t>new3_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>new1+refine 4</t>
+  </si>
+  <si>
+    <t>new1+refine 16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -363,6 +390,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -444,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -464,6 +497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2018,13 +2052,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="97" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="97" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="5" max="7" width="14.33203125" customWidth="1"/>
@@ -2032,7 +2066,7 @@
     <col min="13" max="13" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2058,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2084,7 +2118,7 @@
         <v>1.1439999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -2110,7 +2144,7 @@
         <v>0.62380000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -2136,7 +2170,7 @@
         <v>0.65169999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -2162,7 +2196,7 @@
         <v>0.72740000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -2188,7 +2222,7 @@
         <v>0.50419999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -2214,7 +2248,7 @@
         <v>0.36270000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -2240,7 +2274,7 @@
         <v>0.45440000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="H9" s="2" t="s">
         <v>29</v>
       </c>
@@ -2257,7 +2291,7 @@
         <v>0.78120000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="B10" s="16" t="s">
         <v>9</v>
       </c>
@@ -2273,7 +2307,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="H11" s="2" t="s">
         <v>11</v>
       </c>
@@ -2281,7 +2315,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="10" customFormat="1" ht="17" thickBot="1">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2304,7 +2338,7 @@
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="17" thickTop="1">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -2324,7 +2358,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2353,7 +2387,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2385,7 +2419,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="H16" s="2" t="s">
         <v>13</v>
       </c>
@@ -2402,7 +2436,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="H17" s="2" t="s">
         <v>12</v>
       </c>
@@ -2419,7 +2453,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18">
+        <v>70.404600000000002</v>
+      </c>
+      <c r="D18">
+        <v>89.778000000000006</v>
+      </c>
       <c r="H18" s="2" t="s">
         <v>10</v>
       </c>
@@ -2433,7 +2479,7 @@
         <v>89.821799999999996</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -2458,7 +2504,7 @@
       </c>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="H20" s="2" t="s">
         <v>13</v>
       </c>
@@ -2472,7 +2518,7 @@
         <v>89.748099999999994</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="H21" s="2" t="s">
         <v>12</v>
       </c>
@@ -2489,7 +2535,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="H23" t="s">
         <v>12</v>
       </c>
@@ -2506,7 +2552,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="H24" t="s">
         <v>13</v>
       </c>
@@ -2520,7 +2566,7 @@
         <v>90.696700000000007</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="H26" t="s">
         <v>12</v>
       </c>
@@ -2537,7 +2583,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="H27" t="s">
         <v>13</v>
       </c>
@@ -2554,7 +2600,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="H28" t="s">
         <v>10</v>
       </c>
@@ -2571,7 +2617,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="H30" t="s">
         <v>12</v>
       </c>
@@ -2588,7 +2634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="H31" t="s">
         <v>13</v>
       </c>
@@ -2605,7 +2651,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="H32" t="s">
         <v>12</v>
       </c>
@@ -2622,7 +2668,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="8:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:14">
       <c r="H33" t="s">
         <v>13</v>
       </c>
@@ -2637,7 +2683,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="8:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:14">
       <c r="H34" t="s">
         <v>12</v>
       </c>
@@ -2654,7 +2700,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="8:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:14">
       <c r="H35" t="s">
         <v>13</v>
       </c>
@@ -2671,7 +2717,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="8:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:14">
       <c r="H36" t="s">
         <v>12</v>
       </c>
@@ -2688,7 +2734,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="8:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:14">
       <c r="H37" t="s">
         <v>12</v>
       </c>
@@ -2705,7 +2751,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="8:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:14">
       <c r="H39" t="s">
         <v>12</v>
       </c>
@@ -2722,7 +2768,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="8:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:14">
       <c r="H41" t="s">
         <v>12</v>
       </c>
@@ -2736,7 +2782,7 @@
         <v>88.446700000000007</v>
       </c>
     </row>
-    <row r="42" spans="8:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:14">
       <c r="H42" t="s">
         <v>11</v>
       </c>
@@ -2756,7 +2802,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="8:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:14">
       <c r="H43" t="s">
         <v>13</v>
       </c>
@@ -2773,7 +2819,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="8:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:14">
       <c r="H44" t="s">
         <v>10</v>
       </c>
@@ -2787,7 +2833,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="8:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:14">
       <c r="H45" t="s">
         <v>13</v>
       </c>
@@ -2804,7 +2850,19 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="8:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:14">
+      <c r="C48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48">
+        <v>76.686700000000002</v>
+      </c>
+      <c r="F48">
+        <v>93.319299999999998</v>
+      </c>
       <c r="H48" t="s">
         <v>13</v>
       </c>
@@ -2821,7 +2879,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="8:13">
       <c r="H49" t="s">
         <v>10</v>
       </c>
@@ -2838,7 +2896,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="8:13">
       <c r="H50" t="s">
         <v>12</v>
       </c>
@@ -2855,7 +2913,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="8:13">
       <c r="H51" t="s">
         <v>11</v>
       </c>
@@ -2872,7 +2930,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="8:13">
       <c r="H52" t="s">
         <v>11</v>
       </c>
@@ -2889,7 +2947,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="8:13">
       <c r="H53" t="s">
         <v>12</v>
       </c>
@@ -2904,6 +2962,57 @@
       </c>
       <c r="M53" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="8:13">
+      <c r="H54" t="s">
+        <v>105</v>
+      </c>
+      <c r="I54" t="s">
+        <v>107</v>
+      </c>
+      <c r="J54">
+        <v>70.986099999999993</v>
+      </c>
+      <c r="K54" s="17">
+        <v>89.845699999999994</v>
+      </c>
+      <c r="M54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="8:13">
+      <c r="H55" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" t="s">
+        <v>108</v>
+      </c>
+      <c r="J55">
+        <v>72.189499999999995</v>
+      </c>
+      <c r="K55">
+        <v>90.462699999999998</v>
+      </c>
+      <c r="M55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="8:13">
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" t="s">
+        <v>110</v>
+      </c>
+      <c r="J56">
+        <v>72.087000000000003</v>
+      </c>
+      <c r="K56">
+        <v>90.417699999999996</v>
+      </c>
+      <c r="M56" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2924,9 +3033,9 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -2943,7 +3052,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2990,7 +3099,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>8.4967310000000004E-4</v>
       </c>
@@ -3035,7 +3144,7 @@
         <v>7.7335200000000005E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>8.3003769999999996E-4</v>
       </c>
@@ -3080,7 +3189,7 @@
         <v>-1.2116678999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>1.0096659E-3</v>
       </c>
@@ -3124,7 +3233,7 @@
         <v>-8.5703959999999997E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>4.9680980000000002E-4</v>
       </c>
@@ -3168,7 +3277,7 @@
         <v>-6.9463043000000003E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>3.7389873999999997E-4</v>
       </c>
@@ -3213,7 +3322,7 @@
         <v>-7.1525750000000002E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>4.6630806E-4</v>
       </c>
@@ -3257,7 +3366,7 @@
         <v>-1.2978677000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>5.0217199999999995E-4</v>
       </c>
@@ -3301,7 +3410,7 @@
         <v>-1.0714142E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>3.0146247999999999E-4</v>
       </c>
@@ -3345,7 +3454,7 @@
         <v>-1.39079E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>2.2794577E-4</v>
       </c>
@@ -3389,7 +3498,7 @@
         <v>-1.4919238999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>2.2511140000000001E-4</v>
       </c>
@@ -3433,7 +3542,7 @@
         <v>-9.281688E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>2.2277477999999999E-4</v>
       </c>
@@ -3477,7 +3586,7 @@
         <v>-1.7440042E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>2.2118453E-4</v>
       </c>
@@ -3521,7 +3630,7 @@
         <v>-2.0770189999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>2.3230487000000001E-4</v>
       </c>
@@ -3565,7 +3674,7 @@
         <v>-1.2334008E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>1.5761970999999999E-4</v>
       </c>
@@ -3600,7 +3709,7 @@
         <v>-1.5327714E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>1.5117563999999999E-4</v>
       </c>
@@ -3635,7 +3744,7 @@
         <v>-1.7254150999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>1.2198850999999999E-4</v>
       </c>
@@ -3670,7 +3779,7 @@
         <v>-1.0392629999999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19">
       <c r="E19">
         <v>1.7427621000000001E-4</v>
       </c>
@@ -3696,7 +3805,7 @@
         <v>-1.1749784000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19">
       <c r="I20">
         <v>6.5423939999999996E-4</v>
       </c>
@@ -3713,7 +3822,7 @@
         <v>-6.2279654000000002E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19">
       <c r="Q21">
         <v>6.4112927000000005E-4</v>
       </c>
@@ -3721,7 +3830,7 @@
         <v>-1.2814937999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19">
       <c r="Q22">
         <v>7.0845212999999995E-4</v>
       </c>
@@ -3729,7 +3838,7 @@
         <v>-1.2737607999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19">
       <c r="Q23">
         <v>6.2920949999999999E-4</v>
       </c>
@@ -3737,7 +3846,7 @@
         <v>-1.6074451999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19">
       <c r="A24">
         <f>MAX(A3:A18)</f>
         <v>1.0096659E-3</v>
@@ -3761,7 +3870,7 @@
         <v>-1.7587052E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19">
       <c r="Q25">
         <v>6.999412E-4</v>
       </c>
@@ -3769,7 +3878,7 @@
         <v>-1.2817556000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19">
       <c r="Q26">
         <v>7.3150199999999998E-4</v>
       </c>
@@ -3777,7 +3886,7 @@
         <v>-1.4866292E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19">
       <c r="Q27">
         <v>7.5501802999999998E-4</v>
       </c>
@@ -3785,7 +3894,7 @@
         <v>-6.5308955000000001E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19">
       <c r="Q28">
         <v>7.0584274000000001E-4</v>
       </c>
@@ -3793,7 +3902,7 @@
         <v>-1.4682568000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19">
       <c r="Q29">
         <v>7.2592659999999999E-4</v>
       </c>
@@ -3801,7 +3910,7 @@
         <v>-1.9563762000000002E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19">
       <c r="Q30">
         <v>7.0735166000000002E-4</v>
       </c>
@@ -3809,7 +3918,7 @@
         <v>-1.5490785999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19">
       <c r="Q31">
         <v>7.5733864999999998E-4</v>
       </c>
@@ -3817,7 +3926,7 @@
         <v>-1.8861371E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19">
       <c r="Q32">
         <v>7.1470026000000002E-4</v>
       </c>
@@ -3825,7 +3934,7 @@
         <v>-1.2765802000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="17:19">
       <c r="Q33">
         <v>7.9710974000000003E-4</v>
       </c>
@@ -3833,7 +3942,7 @@
         <v>-1.2455266E-3</v>
       </c>
     </row>
-    <row r="34" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="17:19">
       <c r="Q34">
         <v>7.3245600000000004E-4</v>
       </c>
@@ -3841,7 +3950,7 @@
         <v>-1.3478247999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="17:19">
       <c r="Q35">
         <v>6.8027970000000002E-4</v>
       </c>
@@ -3849,7 +3958,7 @@
         <v>-1.7971223000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="17:19">
       <c r="Q36">
         <v>5.8331433999999998E-4</v>
       </c>
@@ -3857,7 +3966,7 @@
         <v>-8.6101715E-4</v>
       </c>
     </row>
-    <row r="37" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="17:19">
       <c r="Q37">
         <v>6.5706209999999996E-4</v>
       </c>
@@ -3865,7 +3974,7 @@
         <v>-1.0836063000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="17:19">
       <c r="Q38">
         <v>6.6743219999999999E-4</v>
       </c>
@@ -3873,7 +3982,7 @@
         <v>-1.8908218000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="17:19">
       <c r="Q39">
         <v>6.5249106000000003E-4</v>
       </c>
@@ -3881,7 +3990,7 @@
         <v>-1.4038453E-3</v>
       </c>
     </row>
-    <row r="40" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="17:19">
       <c r="Q40">
         <v>5.7810230000000004E-4</v>
       </c>
@@ -3889,7 +3998,7 @@
         <v>-1.6805278000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="17:19">
       <c r="Q41">
         <v>5.9314929999999995E-4</v>
       </c>
@@ -3897,7 +4006,7 @@
         <v>-1.3162362E-3</v>
       </c>
     </row>
-    <row r="42" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="17:19">
       <c r="Q42">
         <v>6.924915E-4</v>
       </c>
@@ -3905,7 +4014,7 @@
         <v>-9.3705890000000003E-4</v>
       </c>
     </row>
-    <row r="43" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="17:19">
       <c r="Q43">
         <v>5.4544140000000005E-4</v>
       </c>
@@ -3913,7 +4022,7 @@
         <v>-1.0945086999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="17:19">
       <c r="Q44">
         <v>5.5068830000000002E-4</v>
       </c>
@@ -3921,7 +4030,7 @@
         <v>-7.5031805000000005E-4</v>
       </c>
     </row>
-    <row r="45" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="17:19">
       <c r="Q45">
         <v>5.7277135999999999E-4</v>
       </c>
@@ -3929,7 +4038,7 @@
         <v>-1.2571286E-4</v>
       </c>
     </row>
-    <row r="46" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="17:19">
       <c r="Q46">
         <v>4.3469312E-4</v>
       </c>
@@ -3937,7 +4046,7 @@
         <v>9.1438529999999997E-4</v>
       </c>
     </row>
-    <row r="47" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="17:19">
       <c r="Q47">
         <v>5.4711744000000004E-4</v>
       </c>
@@ -3945,7 +4054,7 @@
         <v>2.9498196E-4</v>
       </c>
     </row>
-    <row r="48" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="17:19">
       <c r="Q48">
         <v>4.9886334000000005E-4</v>
       </c>
@@ -3953,7 +4062,7 @@
         <v>7.9847670000000003E-4</v>
       </c>
     </row>
-    <row r="49" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="17:19">
       <c r="Q49">
         <v>3.5010047999999998E-4</v>
       </c>
@@ -3961,7 +4070,7 @@
         <v>1.5617211000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="17:19">
       <c r="Q50">
         <v>4.6661228E-4</v>
       </c>
@@ -3969,7 +4078,7 @@
         <v>1.5436637E-3</v>
       </c>
     </row>
-    <row r="51" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="17:19">
       <c r="Q51">
         <v>3.4748055999999999E-4</v>
       </c>
@@ -3977,7 +4086,7 @@
         <v>1.4812826E-3</v>
       </c>
     </row>
-    <row r="52" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="17:19">
       <c r="Q52">
         <v>3.5306005E-4</v>
       </c>
@@ -3985,7 +4094,7 @@
         <v>1.9008626999999999E-3</v>
       </c>
     </row>
-    <row r="53" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="17:19">
       <c r="Q53">
         <v>3.0541298000000001E-4</v>
       </c>
@@ -3993,7 +4102,7 @@
         <v>1.9872342000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="17:19">
       <c r="Q54">
         <v>3.1683260000000001E-4</v>
       </c>
@@ -4001,7 +4110,7 @@
         <v>1.7806026E-3</v>
       </c>
     </row>
-    <row r="55" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="17:19">
       <c r="Q55">
         <v>3.1349566000000003E-4</v>
       </c>
@@ -4009,7 +4118,7 @@
         <v>1.928288E-3</v>
       </c>
     </row>
-    <row r="56" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="17:19">
       <c r="Q56">
         <v>3.2504878000000001E-4</v>
       </c>
@@ -4017,7 +4126,7 @@
         <v>1.7637536000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="17:19">
       <c r="Q57">
         <v>3.2193454999999998E-4</v>
       </c>
@@ -4025,7 +4134,7 @@
         <v>1.6907053999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="17:19">
       <c r="Q58">
         <v>3.2276845999999997E-4</v>
       </c>
@@ -4033,7 +4142,7 @@
         <v>1.8374361000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="17:19">
       <c r="Q59">
         <v>3.2346608000000002E-4</v>
       </c>
@@ -4041,7 +4150,7 @@
         <v>1.8014083999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="17:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="17:19">
       <c r="Q60">
         <v>3.6387885000000001E-4</v>
       </c>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F04603-534A-7549-B0D5-C1437D4EEC06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AF05F1-BB5B-BE4D-9BDF-2FBA8AB890AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="116">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -365,6 +365,15 @@
   </si>
   <si>
     <t>new1+refine 16</t>
+  </si>
+  <si>
+    <t>new3_resnet50</t>
+  </si>
+  <si>
+    <t>new1se_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>new3se_resnet18_FP32</t>
   </si>
 </sst>
 </file>
@@ -2052,10 +2061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="97" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="97" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3013,6 +3022,36 @@
       </c>
       <c r="M56" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="8:13">
+      <c r="H57" t="s">
+        <v>105</v>
+      </c>
+      <c r="I57" t="s">
+        <v>113</v>
+      </c>
+      <c r="J57">
+        <v>77.371799999999993</v>
+      </c>
+      <c r="K57">
+        <v>93.4876</v>
+      </c>
+    </row>
+    <row r="58" spans="8:13">
+      <c r="H58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="8:13">
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AF05F1-BB5B-BE4D-9BDF-2FBA8AB890AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EDCD46-5168-5B46-8198-0743B866E2E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="119">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -374,6 +374,15 @@
   </si>
   <si>
     <t>new3se_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>lottery_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>lottery2_resnet18_FP32</t>
+  </si>
+  <si>
+    <t>normalized</t>
   </si>
 </sst>
 </file>
@@ -2061,10 +2070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="97" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="97" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3045,6 +3054,12 @@
       <c r="I58" t="s">
         <v>114</v>
       </c>
+      <c r="J58">
+        <v>71.588499999999996</v>
+      </c>
+      <c r="K58">
+        <v>90.3065</v>
+      </c>
     </row>
     <row r="59" spans="8:13">
       <c r="H59" t="s">
@@ -3052,6 +3067,37 @@
       </c>
       <c r="I59" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="8:13">
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" t="s">
+        <v>116</v>
+      </c>
+      <c r="J60">
+        <v>68.977199999999996</v>
+      </c>
+      <c r="K60">
+        <v>88.78</v>
+      </c>
+    </row>
+    <row r="61" spans="8:13">
+      <c r="H61" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" t="s">
+        <v>117</v>
+      </c>
+      <c r="J61">
+        <v>70.348600000000005</v>
+      </c>
+      <c r="K61">
+        <v>89.596599999999995</v>
+      </c>
+      <c r="M61" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,14 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EDCD46-5168-5B46-8198-0743B866E2E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D1694C-ABB1-9146-8B6B-EE7B37DF17F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
+    <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" activeTab="3" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="variance" sheetId="2" r:id="rId2"/>
+    <sheet name="histogram_weight" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet3!$A$1:$T$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet3!$A$2:$T$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet3!$A$3:$T$3</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet3!$A$4:$T$4</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet3!$A$5:$T$5</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="121">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -383,13 +392,19 @@
   </si>
   <si>
     <t>normalized</t>
+  </si>
+  <si>
+    <t>layer3[1].conv2</t>
+  </si>
+  <si>
+    <t>new3_R18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -414,6 +429,12 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -495,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -516,6 +537,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1176,7 +1198,2322 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>histogram_weight!$A$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2107</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>459950</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1801200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91107</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>893</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4CA0-1940-B8C9-5D20ED932FCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>histogram_weight!$A$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>459790</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1801600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2616</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4CA0-1940-B8C9-5D20ED932FCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>histogram_weight!$A$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7648</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21970</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3707</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1459</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4CA0-1940-B8C9-5D20ED932FCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>histogram_weight!$A$4:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9163</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>401500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1034200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>118930</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4CA0-1940-B8C9-5D20ED932FCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1398957663"/>
+        <c:axId val="1399201903"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1398957663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1399201903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1399201903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1398957663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Standard1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$5:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$A$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFCE-BC47-BA7F-44F7D12E2D07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Standard2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$5:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AFCE-BC47-BA7F-44F7D12E2D07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Group</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$5:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$A$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AFCE-BC47-BA7F-44F7D12E2D07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Skeleton</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$5:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$A$4:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AFCE-BC47-BA7F-44F7D12E2D07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="90"/>
+        <c:axId val="1420203647"/>
+        <c:axId val="1399107311"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1420203647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Spatial mean value of each</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> channel</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1399107311"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1399107311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Channel number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1420203647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7027005140966941"/>
+          <c:y val="8.2932818090210678E-2"/>
+          <c:w val="0.18922162398737327"/>
+          <c:h val="0.36885836052843235"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1412782089290476E-2"/>
+          <c:y val="5.9134302594078356E-2"/>
+          <c:w val="0.87913879922966154"/>
+          <c:h val="0.7994720665555094"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Standard1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$25:$T$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$A$21:$T$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-523B-2D42-AF2B-1CB8E5AA4ECF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Standard2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$25:$T$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$A$22:$T$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-523B-2D42-AF2B-1CB8E5AA4ECF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Group</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$25:$T$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$A$23:$T$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-523B-2D42-AF2B-1CB8E5AA4ECF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Skeleton</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$25:$T$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$A$24:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-523B-2D42-AF2B-1CB8E5AA4ECF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="60"/>
+        <c:axId val="1356905391"/>
+        <c:axId val="1421039487"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1356905391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Spatial</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>ean value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1421039487"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1421039487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Channel number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1356905391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75125940507436562"/>
+          <c:y val="0.11241993905399508"/>
+          <c:w val="0.1410159448731822"/>
+          <c:h val="0.3411587868197809"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1379,6 +3716,1515 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1765,6 +5611,126 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C7B5D50-0374-1149-97F3-41FDF3DADF62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>350346</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>98534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>142328</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>98535</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A4E5DB-1089-2D43-B46D-087BC8D8D689}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>18612</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>164224</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>175172</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F527E5-02D4-4A4E-891F-7CF99A8B09DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2072,13 +6038,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="97" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView topLeftCell="A45" zoomScale="97" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59:K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
     <col min="5" max="7" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="25.6640625" customWidth="1"/>
     <col min="13" max="13" width="25" customWidth="1"/>
@@ -3067,6 +7034,12 @@
       </c>
       <c r="I59" t="s">
         <v>115</v>
+      </c>
+      <c r="J59">
+        <v>72.488399999999999</v>
+      </c>
+      <c r="K59">
+        <v>90.510800000000003</v>
       </c>
     </row>
     <row r="60" spans="8:13">
@@ -3114,7 +7087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A27A1E-183D-F74B-84E3-4F2A9878A0F1}">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
@@ -4247,4 +8220,818 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BB9E1C-E801-F14C-AA63-9C78D7F98E86}">
+  <dimension ref="A1:T4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="8">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8">
+        <v>84</v>
+      </c>
+      <c r="D1" s="8">
+        <v>2107</v>
+      </c>
+      <c r="E1" s="8">
+        <v>459950</v>
+      </c>
+      <c r="F1" s="8">
+        <v>1801200</v>
+      </c>
+      <c r="G1" s="8">
+        <v>91107</v>
+      </c>
+      <c r="H1" s="8">
+        <v>2625</v>
+      </c>
+      <c r="I1" s="8">
+        <v>893</v>
+      </c>
+      <c r="J1" s="8">
+        <v>919</v>
+      </c>
+      <c r="K1" s="8">
+        <v>343</v>
+      </c>
+      <c r="L1" s="8">
+        <v>16</v>
+      </c>
+      <c r="M1" s="8">
+        <v>0</v>
+      </c>
+      <c r="N1" s="8">
+        <v>0</v>
+      </c>
+      <c r="O1" s="8">
+        <v>0</v>
+      </c>
+      <c r="P1" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="8">
+        <v>0</v>
+      </c>
+      <c r="R1" s="8">
+        <v>0</v>
+      </c>
+      <c r="S1" s="8">
+        <v>0</v>
+      </c>
+      <c r="T1" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>77</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2061</v>
+      </c>
+      <c r="E2" s="8">
+        <v>459790</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1801600</v>
+      </c>
+      <c r="G2" s="8">
+        <v>90998</v>
+      </c>
+      <c r="H2" s="8">
+        <v>2616</v>
+      </c>
+      <c r="I2" s="8">
+        <v>887</v>
+      </c>
+      <c r="J2" s="8">
+        <v>919</v>
+      </c>
+      <c r="K2" s="8">
+        <v>347</v>
+      </c>
+      <c r="L2" s="8">
+        <v>13</v>
+      </c>
+      <c r="M2" s="8">
+        <v>3</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0</v>
+      </c>
+      <c r="P2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>0</v>
+      </c>
+      <c r="R2" s="8">
+        <v>0</v>
+      </c>
+      <c r="S2" s="8">
+        <v>0</v>
+      </c>
+      <c r="T2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="8">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8">
+        <v>215</v>
+      </c>
+      <c r="E3" s="8">
+        <v>7648</v>
+      </c>
+      <c r="F3" s="8">
+        <v>21970</v>
+      </c>
+      <c r="G3" s="8">
+        <v>3707</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1459</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1248</v>
+      </c>
+      <c r="J3" s="8">
+        <v>574</v>
+      </c>
+      <c r="K3" s="8">
+        <v>14</v>
+      </c>
+      <c r="L3" s="8">
+        <v>6</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0</v>
+      </c>
+      <c r="S3" s="8">
+        <v>0</v>
+      </c>
+      <c r="T3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="8">
+        <v>19</v>
+      </c>
+      <c r="B4" s="8">
+        <v>73</v>
+      </c>
+      <c r="C4" s="8">
+        <v>377</v>
+      </c>
+      <c r="D4" s="8">
+        <v>9163</v>
+      </c>
+      <c r="E4" s="8">
+        <v>401500</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1034200</v>
+      </c>
+      <c r="G4" s="8">
+        <v>118930</v>
+      </c>
+      <c r="H4" s="8">
+        <v>6150</v>
+      </c>
+      <c r="I4" s="8">
+        <v>993</v>
+      </c>
+      <c r="J4" s="8">
+        <v>484</v>
+      </c>
+      <c r="K4" s="8">
+        <v>556</v>
+      </c>
+      <c r="L4" s="8">
+        <v>310</v>
+      </c>
+      <c r="M4" s="8">
+        <v>59</v>
+      </c>
+      <c r="N4" s="8">
+        <v>4</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>1</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0</v>
+      </c>
+      <c r="S4" s="8">
+        <v>1</v>
+      </c>
+      <c r="T4" s="8">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0E7CEF-CBAB-0845-BC36-E9885633E33F}">
+  <dimension ref="A1:V25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Q14" zoomScale="116" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="40" width="5.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>7</v>
+      </c>
+      <c r="E1">
+        <v>21</v>
+      </c>
+      <c r="F1">
+        <v>34</v>
+      </c>
+      <c r="G1">
+        <v>35</v>
+      </c>
+      <c r="H1">
+        <v>54</v>
+      </c>
+      <c r="I1">
+        <v>45</v>
+      </c>
+      <c r="J1">
+        <v>28</v>
+      </c>
+      <c r="K1">
+        <v>15</v>
+      </c>
+      <c r="L1">
+        <v>8</v>
+      </c>
+      <c r="M1">
+        <v>2</v>
+      </c>
+      <c r="N1">
+        <v>3</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>28</v>
+      </c>
+      <c r="F2">
+        <v>32</v>
+      </c>
+      <c r="G2">
+        <v>52</v>
+      </c>
+      <c r="H2">
+        <v>42</v>
+      </c>
+      <c r="I2">
+        <v>36</v>
+      </c>
+      <c r="J2">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>43</v>
+      </c>
+      <c r="H3">
+        <v>74</v>
+      </c>
+      <c r="I3">
+        <v>58</v>
+      </c>
+      <c r="J3">
+        <v>31</v>
+      </c>
+      <c r="K3">
+        <v>13</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>39</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>43</v>
+      </c>
+      <c r="J4">
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <v>25</v>
+      </c>
+      <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5">
+        <v>-0.36</v>
+      </c>
+      <c r="K5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="T5">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>27</v>
+      </c>
+      <c r="H21">
+        <v>64</v>
+      </c>
+      <c r="I21">
+        <v>124</v>
+      </c>
+      <c r="J21">
+        <v>127</v>
+      </c>
+      <c r="K21">
+        <v>83</v>
+      </c>
+      <c r="L21">
+        <v>39</v>
+      </c>
+      <c r="M21">
+        <v>16</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <v>38</v>
+      </c>
+      <c r="I22">
+        <v>92</v>
+      </c>
+      <c r="J22">
+        <v>121</v>
+      </c>
+      <c r="K22">
+        <v>109</v>
+      </c>
+      <c r="L22">
+        <v>69</v>
+      </c>
+      <c r="M22">
+        <v>28</v>
+      </c>
+      <c r="N22">
+        <v>19</v>
+      </c>
+      <c r="O22">
+        <v>6</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>370</v>
+      </c>
+      <c r="M23">
+        <v>142</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>32</v>
+      </c>
+      <c r="F24">
+        <v>47</v>
+      </c>
+      <c r="G24">
+        <v>68</v>
+      </c>
+      <c r="H24">
+        <v>70</v>
+      </c>
+      <c r="I24">
+        <v>68</v>
+      </c>
+      <c r="J24">
+        <v>77</v>
+      </c>
+      <c r="K24">
+        <v>49</v>
+      </c>
+      <c r="L24">
+        <v>33</v>
+      </c>
+      <c r="M24">
+        <v>14</v>
+      </c>
+      <c r="N24">
+        <v>10</v>
+      </c>
+      <c r="O24">
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <v>4</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25">
+        <v>-0.3</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D1694C-ABB1-9146-8B6B-EE7B37DF17F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CBC699-9335-6649-82ED-8885CD9E4549}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" activeTab="3" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
+    <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="variance" sheetId="2" r:id="rId2"/>
     <sheet name="histogram_weight" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="loss" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet3!$A$1:$T$1</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="130">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -398,6 +399,33 @@
   </si>
   <si>
     <t>new3_R18</t>
+  </si>
+  <si>
+    <t>new4_resnet50</t>
+  </si>
+  <si>
+    <t>ablation12_resnet18</t>
+  </si>
+  <si>
+    <t>ablation21_resnet18</t>
+  </si>
+  <si>
+    <t>ablation22_resnet18</t>
+  </si>
+  <si>
+    <t>ablation32_resnet18</t>
+  </si>
+  <si>
+    <t>temp5</t>
+  </si>
+  <si>
+    <t>ablation41_resnet18</t>
+  </si>
+  <si>
+    <t>temp6</t>
+  </si>
+  <si>
+    <t>ablation42_resnet18</t>
   </si>
 </sst>
 </file>
@@ -6036,10 +6064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="97" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59:K59"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="97" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7071,6 +7099,68 @@
       </c>
       <c r="M61" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="8:13">
+      <c r="H62" t="s">
+        <v>105</v>
+      </c>
+      <c r="I62" t="s">
+        <v>121</v>
+      </c>
+      <c r="J62">
+        <v>76.754800000000003</v>
+      </c>
+      <c r="K62">
+        <v>93.149000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="8:13">
+      <c r="H64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="8:9">
+      <c r="H65" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="8:9">
+      <c r="H66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="8:9">
+      <c r="H67" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="8:9">
+      <c r="H68" t="s">
+        <v>126</v>
+      </c>
+      <c r="I68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="8:9">
+      <c r="H69" t="s">
+        <v>128</v>
+      </c>
+      <c r="I69" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -8490,7 +8580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0E7CEF-CBAB-0845-BC36-E9885633E33F}">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q14" zoomScale="116" workbookViewId="0">
+    <sheetView topLeftCell="Q14" zoomScale="116" workbookViewId="0">
       <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
@@ -9034,4 +9124,18 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F9EC6D-3C70-6249-9C3D-64477FEC609B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CBC699-9335-6649-82ED-8885CD9E4549}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA96B2B8-7555-2849-937F-4828819D35E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
+    <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" activeTab="4" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,6 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
     <sheet name="loss" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet3!$A$1:$T$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet3!$A$2:$T$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet3!$A$3:$T$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet3!$A$4:$T$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet3!$A$5:$T$5</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="138">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -426,6 +419,30 @@
   </si>
   <si>
     <t>ablation42_resnet18</t>
+  </si>
+  <si>
+    <t>Learning Rate</t>
+  </si>
+  <si>
+    <t>Train Loss</t>
+  </si>
+  <si>
+    <t>Valid Loss</t>
+  </si>
+  <si>
+    <t>Train Acc.</t>
+  </si>
+  <si>
+    <t>Valid Acc.</t>
+  </si>
+  <si>
+    <t>Valid Top5.</t>
+  </si>
+  <si>
+    <t>new1_R18</t>
+  </si>
+  <si>
+    <t>old_R18</t>
   </si>
 </sst>
 </file>
@@ -561,11 +578,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6066,8 +6083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
   <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="97" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView zoomScale="97" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6305,11 +6322,11 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
@@ -6688,10 +6705,10 @@
       <c r="I33" t="s">
         <v>69</v>
       </c>
-      <c r="J33" s="16" t="s">
+      <c r="J33" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="K33" s="16"/>
+      <c r="K33" s="18"/>
       <c r="M33" t="s">
         <v>71</v>
       </c>
@@ -6987,7 +7004,7 @@
       <c r="J54">
         <v>70.986099999999993</v>
       </c>
-      <c r="K54" s="17">
+      <c r="K54" s="16">
         <v>89.845699999999994</v>
       </c>
       <c r="M54" t="s">
@@ -8780,7 +8797,7 @@
       <c r="T3">
         <v>0</v>
       </c>
-      <c r="V3" s="18" t="s">
+      <c r="V3" s="17" t="s">
         <v>119</v>
       </c>
     </row>
@@ -9128,14 +9145,2055 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F9EC6D-3C70-6249-9C3D-64477FEC609B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+      <c r="B3">
+        <v>4.9973380000000001</v>
+      </c>
+      <c r="C3">
+        <v>3.7546249999999999</v>
+      </c>
+      <c r="D3">
+        <v>11.156656</v>
+      </c>
+      <c r="E3">
+        <v>23.736447999999999</v>
+      </c>
+      <c r="F3">
+        <v>47.498804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>0.1</v>
+      </c>
+      <c r="B4">
+        <v>3.4533390000000002</v>
+      </c>
+      <c r="C4">
+        <v>3.0117970000000001</v>
+      </c>
+      <c r="D4">
+        <v>29.175433999999999</v>
+      </c>
+      <c r="E4">
+        <v>35.592948999999997</v>
+      </c>
+      <c r="F4">
+        <v>61.584535000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <v>3.0381109999999998</v>
+      </c>
+      <c r="C5">
+        <v>2.7417379999999998</v>
+      </c>
+      <c r="D5">
+        <v>35.818455</v>
+      </c>
+      <c r="E5">
+        <v>39.871794999999999</v>
+      </c>
+      <c r="F5">
+        <v>66.167868999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>0.1</v>
+      </c>
+      <c r="B6">
+        <v>2.8585310000000002</v>
+      </c>
+      <c r="C6">
+        <v>2.6935310000000001</v>
+      </c>
+      <c r="D6">
+        <v>38.825080999999997</v>
+      </c>
+      <c r="E6">
+        <v>41.581632999999997</v>
+      </c>
+      <c r="F6">
+        <v>67.578125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>0.1</v>
+      </c>
+      <c r="B7">
+        <v>2.7514989999999999</v>
+      </c>
+      <c r="C7">
+        <v>2.4842339999999998</v>
+      </c>
+      <c r="D7">
+        <v>40.663328999999997</v>
+      </c>
+      <c r="E7">
+        <v>44.465144000000002</v>
+      </c>
+      <c r="F7">
+        <v>70.825321000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>0.1</v>
+      </c>
+      <c r="B8">
+        <v>2.678938</v>
+      </c>
+      <c r="C8">
+        <v>2.4683570000000001</v>
+      </c>
+      <c r="D8">
+        <v>41.926979000000003</v>
+      </c>
+      <c r="E8">
+        <v>44.621394000000002</v>
+      </c>
+      <c r="F8">
+        <v>71.169871999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>0.1</v>
+      </c>
+      <c r="B9">
+        <v>2.6311260000000001</v>
+      </c>
+      <c r="C9">
+        <v>2.4095559999999998</v>
+      </c>
+      <c r="D9">
+        <v>42.852203000000003</v>
+      </c>
+      <c r="E9">
+        <v>46.179448000000001</v>
+      </c>
+      <c r="F9">
+        <v>72.120137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>0.1</v>
+      </c>
+      <c r="B10">
+        <v>2.593499</v>
+      </c>
+      <c r="C10">
+        <v>2.4281480000000002</v>
+      </c>
+      <c r="D10">
+        <v>43.441949000000001</v>
+      </c>
+      <c r="E10">
+        <v>45.532853000000003</v>
+      </c>
+      <c r="F10">
+        <v>72.105368999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>0.1</v>
+      </c>
+      <c r="B11">
+        <v>2.567615</v>
+      </c>
+      <c r="C11">
+        <v>2.6350199999999999</v>
+      </c>
+      <c r="D11">
+        <v>43.98169</v>
+      </c>
+      <c r="E11">
+        <v>42.528044999999999</v>
+      </c>
+      <c r="F11">
+        <v>68.806089999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>2.5427050000000002</v>
+      </c>
+      <c r="C12">
+        <v>2.4348559999999999</v>
+      </c>
+      <c r="D12">
+        <v>44.392795</v>
+      </c>
+      <c r="E12">
+        <v>45.473931999999998</v>
+      </c>
+      <c r="F12">
+        <v>71.815209999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>0.1</v>
+      </c>
+      <c r="B13">
+        <v>2.524661</v>
+      </c>
+      <c r="C13">
+        <v>2.3896000000000002</v>
+      </c>
+      <c r="D13">
+        <v>44.675353000000001</v>
+      </c>
+      <c r="E13">
+        <v>46.364182999999997</v>
+      </c>
+      <c r="F13">
+        <v>72.574118999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>0.1</v>
+      </c>
+      <c r="B14">
+        <v>2.506475</v>
+      </c>
+      <c r="C14">
+        <v>2.344195</v>
+      </c>
+      <c r="D14">
+        <v>45.057521000000001</v>
+      </c>
+      <c r="E14">
+        <v>47.778446000000002</v>
+      </c>
+      <c r="F14">
+        <v>73.221153999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>0.1</v>
+      </c>
+      <c r="B15">
+        <v>2.494275</v>
+      </c>
+      <c r="C15">
+        <v>2.3020209999999999</v>
+      </c>
+      <c r="D15">
+        <v>45.262461999999999</v>
+      </c>
+      <c r="E15">
+        <v>47.803730999999999</v>
+      </c>
+      <c r="F15">
+        <v>74.101163999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>0.1</v>
+      </c>
+      <c r="B16">
+        <v>2.4877750000000001</v>
+      </c>
+      <c r="C16">
+        <v>2.308557</v>
+      </c>
+      <c r="D16">
+        <v>45.388283999999999</v>
+      </c>
+      <c r="E16">
+        <v>47.646234</v>
+      </c>
+      <c r="F16">
+        <v>73.876202000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>0.1</v>
+      </c>
+      <c r="B17">
+        <v>2.4748860000000001</v>
+      </c>
+      <c r="C17">
+        <v>2.292802</v>
+      </c>
+      <c r="D17">
+        <v>45.588061000000003</v>
+      </c>
+      <c r="E17">
+        <v>48.405448999999997</v>
+      </c>
+      <c r="F17">
+        <v>74.294871999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>0.1</v>
+      </c>
+      <c r="B18">
+        <v>2.4666809999999999</v>
+      </c>
+      <c r="C18">
+        <v>2.3451569999999999</v>
+      </c>
+      <c r="D18">
+        <v>45.733485000000002</v>
+      </c>
+      <c r="E18">
+        <v>47.421875</v>
+      </c>
+      <c r="F18">
+        <v>73.483574000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>0.1</v>
+      </c>
+      <c r="B19">
+        <v>2.4589789999999998</v>
+      </c>
+      <c r="C19">
+        <v>2.203201</v>
+      </c>
+      <c r="D19">
+        <v>45.909402999999998</v>
+      </c>
+      <c r="E19">
+        <v>50.009965000000001</v>
+      </c>
+      <c r="F19">
+        <v>75.805166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>0.1</v>
+      </c>
+      <c r="B20">
+        <v>2.4474689999999999</v>
+      </c>
+      <c r="C20">
+        <v>2.3378739999999998</v>
+      </c>
+      <c r="D20">
+        <v>46.039417999999998</v>
+      </c>
+      <c r="E20">
+        <v>47.375801000000003</v>
+      </c>
+      <c r="F20">
+        <v>73.415464999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>0.1</v>
+      </c>
+      <c r="B21">
+        <v>2.4436879999999999</v>
+      </c>
+      <c r="C21">
+        <v>2.2430140000000001</v>
+      </c>
+      <c r="D21">
+        <v>46.176791999999999</v>
+      </c>
+      <c r="E21">
+        <v>49.929887999999998</v>
+      </c>
+      <c r="F21">
+        <v>75.158253000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>0.1</v>
+      </c>
+      <c r="B22">
+        <v>2.4403260000000002</v>
+      </c>
+      <c r="C22">
+        <v>2.2071179999999999</v>
+      </c>
+      <c r="D22">
+        <v>46.291248000000003</v>
+      </c>
+      <c r="E22">
+        <v>50.279018000000001</v>
+      </c>
+      <c r="F22">
+        <v>75.829082</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>0.1</v>
+      </c>
+      <c r="B23">
+        <v>2.4336570000000002</v>
+      </c>
+      <c r="C23">
+        <v>2.252996</v>
+      </c>
+      <c r="D23">
+        <v>46.393059999999998</v>
+      </c>
+      <c r="E23">
+        <v>48.721955000000001</v>
+      </c>
+      <c r="F23">
+        <v>74.841746999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>0.1</v>
+      </c>
+      <c r="B24">
+        <v>2.4306380000000001</v>
+      </c>
+      <c r="C24">
+        <v>2.2227760000000001</v>
+      </c>
+      <c r="D24">
+        <v>46.406781000000002</v>
+      </c>
+      <c r="E24">
+        <v>49.234775999999997</v>
+      </c>
+      <c r="F24">
+        <v>75.116185999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>0.1</v>
+      </c>
+      <c r="B25">
+        <v>2.424614</v>
+      </c>
+      <c r="C25">
+        <v>2.2568380000000001</v>
+      </c>
+      <c r="D25">
+        <v>46.524881000000001</v>
+      </c>
+      <c r="E25">
+        <v>49.15896</v>
+      </c>
+      <c r="F25">
+        <v>74.876435000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>0.1</v>
+      </c>
+      <c r="B26">
+        <v>2.4191389999999999</v>
+      </c>
+      <c r="C26">
+        <v>2.2073900000000002</v>
+      </c>
+      <c r="D26">
+        <v>46.607402</v>
+      </c>
+      <c r="E26">
+        <v>49.294871999999998</v>
+      </c>
+      <c r="F26">
+        <v>75.687099000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>0.1</v>
+      </c>
+      <c r="B27">
+        <v>2.4175019999999998</v>
+      </c>
+      <c r="C27">
+        <v>2.2877019999999999</v>
+      </c>
+      <c r="D27">
+        <v>46.709150000000001</v>
+      </c>
+      <c r="E27">
+        <v>48.782051000000003</v>
+      </c>
+      <c r="F27">
+        <v>74.671474000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>0.1</v>
+      </c>
+      <c r="B28">
+        <v>2.4143129999999999</v>
+      </c>
+      <c r="C28">
+        <v>2.234753</v>
+      </c>
+      <c r="D28">
+        <v>46.681561000000002</v>
+      </c>
+      <c r="E28">
+        <v>49.394132999999997</v>
+      </c>
+      <c r="F28">
+        <v>75.290976000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>0.1</v>
+      </c>
+      <c r="B29">
+        <v>2.412309</v>
+      </c>
+      <c r="C29">
+        <v>2.2097579999999999</v>
+      </c>
+      <c r="D29">
+        <v>46.698613999999999</v>
+      </c>
+      <c r="E29">
+        <v>50.174278999999999</v>
+      </c>
+      <c r="F29">
+        <v>75.829327000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>0.1</v>
+      </c>
+      <c r="B30">
+        <v>2.4061370000000002</v>
+      </c>
+      <c r="C30">
+        <v>2.2485819999999999</v>
+      </c>
+      <c r="D30">
+        <v>46.788350999999999</v>
+      </c>
+      <c r="E30">
+        <v>49.210737000000002</v>
+      </c>
+      <c r="F30">
+        <v>74.947917000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>0.1</v>
+      </c>
+      <c r="B31">
+        <v>2.4060969999999999</v>
+      </c>
+      <c r="C31">
+        <v>2.183106</v>
+      </c>
+      <c r="D31">
+        <v>46.835977</v>
+      </c>
+      <c r="E31">
+        <v>50.659678</v>
+      </c>
+      <c r="F31">
+        <v>76.293447</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>0.1</v>
+      </c>
+      <c r="B32">
+        <v>2.4022640000000002</v>
+      </c>
+      <c r="C32">
+        <v>2.2835489999999998</v>
+      </c>
+      <c r="D32">
+        <v>46.912236</v>
+      </c>
+      <c r="E32">
+        <v>48.247196000000002</v>
+      </c>
+      <c r="F32">
+        <v>74.407050999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>0.01</v>
+      </c>
+      <c r="B33">
+        <v>1.8977349999999999</v>
+      </c>
+      <c r="C33">
+        <v>1.541739</v>
+      </c>
+      <c r="D33">
+        <v>56.905282</v>
+      </c>
+      <c r="E33">
+        <v>63.311298000000001</v>
+      </c>
+      <c r="F33">
+        <v>85.250400999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>0.01</v>
+      </c>
+      <c r="B34">
+        <v>1.781048</v>
+      </c>
+      <c r="C34">
+        <v>1.499722</v>
+      </c>
+      <c r="D34">
+        <v>59.242215999999999</v>
+      </c>
+      <c r="E34">
+        <v>64.214743999999996</v>
+      </c>
+      <c r="F34">
+        <v>85.935496999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>0.01</v>
+      </c>
+      <c r="B35">
+        <v>1.7359230000000001</v>
+      </c>
+      <c r="C35">
+        <v>1.4679059999999999</v>
+      </c>
+      <c r="D35">
+        <v>60.054944999999996</v>
+      </c>
+      <c r="E35">
+        <v>64.929447999999994</v>
+      </c>
+      <c r="F35">
+        <v>86.202567000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>0.01</v>
+      </c>
+      <c r="B36">
+        <v>1.7060709999999999</v>
+      </c>
+      <c r="C36">
+        <v>1.458105</v>
+      </c>
+      <c r="D36">
+        <v>60.660746000000003</v>
+      </c>
+      <c r="E36">
+        <v>65.144231000000005</v>
+      </c>
+      <c r="F36">
+        <v>86.356170000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>0.01</v>
+      </c>
+      <c r="B37">
+        <v>1.6873819999999999</v>
+      </c>
+      <c r="C37">
+        <v>1.4455260000000001</v>
+      </c>
+      <c r="D37">
+        <v>60.979888000000003</v>
+      </c>
+      <c r="E37">
+        <v>65.236378000000002</v>
+      </c>
+      <c r="F37">
+        <v>86.344150999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>0.01</v>
+      </c>
+      <c r="B38">
+        <v>1.6748829999999999</v>
+      </c>
+      <c r="C38">
+        <v>1.435927</v>
+      </c>
+      <c r="D38">
+        <v>61.202624999999998</v>
+      </c>
+      <c r="E38">
+        <v>65.455596</v>
+      </c>
+      <c r="F38">
+        <v>86.722735999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>0.01</v>
+      </c>
+      <c r="B39">
+        <v>1.6714910000000001</v>
+      </c>
+      <c r="C39">
+        <v>1.4445600000000001</v>
+      </c>
+      <c r="D39">
+        <v>61.339365999999998</v>
+      </c>
+      <c r="E39">
+        <v>65.264422999999994</v>
+      </c>
+      <c r="F39">
+        <v>86.714743999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>0.01</v>
+      </c>
+      <c r="B40">
+        <v>1.6628160000000001</v>
+      </c>
+      <c r="C40">
+        <v>1.4500189999999999</v>
+      </c>
+      <c r="D40">
+        <v>61.446210000000001</v>
+      </c>
+      <c r="E40">
+        <v>65.298478000000003</v>
+      </c>
+      <c r="F40">
+        <v>86.532452000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>0.01</v>
+      </c>
+      <c r="B41">
+        <v>1.660077</v>
+      </c>
+      <c r="C41">
+        <v>1.456078</v>
+      </c>
+      <c r="D41">
+        <v>61.486826000000001</v>
+      </c>
+      <c r="E41">
+        <v>64.915497000000002</v>
+      </c>
+      <c r="F41">
+        <v>86.413822999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>0.01</v>
+      </c>
+      <c r="B42">
+        <v>1.65808</v>
+      </c>
+      <c r="C42">
+        <v>1.4433480000000001</v>
+      </c>
+      <c r="D42">
+        <v>61.485936000000002</v>
+      </c>
+      <c r="E42">
+        <v>65.526843</v>
+      </c>
+      <c r="F42">
+        <v>86.706731000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>0.01</v>
+      </c>
+      <c r="B43">
+        <v>1.659025</v>
+      </c>
+      <c r="C43">
+        <v>1.45903</v>
+      </c>
+      <c r="D43">
+        <v>61.511026000000001</v>
+      </c>
+      <c r="E43">
+        <v>65.080128000000002</v>
+      </c>
+      <c r="F43">
+        <v>86.5625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>0.01</v>
+      </c>
+      <c r="B44">
+        <v>1.6577919999999999</v>
+      </c>
+      <c r="C44">
+        <v>1.4528669999999999</v>
+      </c>
+      <c r="D44">
+        <v>61.533231999999998</v>
+      </c>
+      <c r="E44">
+        <v>65.136718999999999</v>
+      </c>
+      <c r="F44">
+        <v>86.573262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>0.01</v>
+      </c>
+      <c r="B45">
+        <v>1.6577740000000001</v>
+      </c>
+      <c r="C45">
+        <v>1.4649369999999999</v>
+      </c>
+      <c r="D45">
+        <v>61.507590999999998</v>
+      </c>
+      <c r="E45">
+        <v>64.845753000000002</v>
+      </c>
+      <c r="F45">
+        <v>86.352163000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>0.01</v>
+      </c>
+      <c r="B46">
+        <v>1.6589989999999999</v>
+      </c>
+      <c r="C46">
+        <v>1.473184</v>
+      </c>
+      <c r="D46">
+        <v>61.460571000000002</v>
+      </c>
+      <c r="E46">
+        <v>64.623396999999997</v>
+      </c>
+      <c r="F46">
+        <v>86.324118999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>0.01</v>
+      </c>
+      <c r="B47">
+        <v>1.661178</v>
+      </c>
+      <c r="C47">
+        <v>1.4572830000000001</v>
+      </c>
+      <c r="D47">
+        <v>61.420316999999997</v>
+      </c>
+      <c r="E47">
+        <v>65.092872999999997</v>
+      </c>
+      <c r="F47">
+        <v>86.571269000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>0.01</v>
+      </c>
+      <c r="B48">
+        <v>1.6585920000000001</v>
+      </c>
+      <c r="C48">
+        <v>1.466869</v>
+      </c>
+      <c r="D48">
+        <v>61.502637999999997</v>
+      </c>
+      <c r="E48">
+        <v>64.765625</v>
+      </c>
+      <c r="F48">
+        <v>86.292067000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>0.01</v>
+      </c>
+      <c r="B49">
+        <v>1.657618</v>
+      </c>
+      <c r="C49">
+        <v>1.474739</v>
+      </c>
+      <c r="D49">
+        <v>61.469417999999997</v>
+      </c>
+      <c r="E49">
+        <v>64.619390999999993</v>
+      </c>
+      <c r="F49">
+        <v>86.440303999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>0.01</v>
+      </c>
+      <c r="B50">
+        <v>1.6571979999999999</v>
+      </c>
+      <c r="C50">
+        <v>1.478699</v>
+      </c>
+      <c r="D50">
+        <v>61.440044</v>
+      </c>
+      <c r="E50">
+        <v>64.829728000000003</v>
+      </c>
+      <c r="F50">
+        <v>86.252003000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>0.01</v>
+      </c>
+      <c r="B51">
+        <v>1.65598</v>
+      </c>
+      <c r="C51">
+        <v>1.485306</v>
+      </c>
+      <c r="D51">
+        <v>61.517935000000001</v>
+      </c>
+      <c r="E51">
+        <v>64.365433999999993</v>
+      </c>
+      <c r="F51">
+        <v>86.174665000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>0.01</v>
+      </c>
+      <c r="B52">
+        <v>1.6561269999999999</v>
+      </c>
+      <c r="C52">
+        <v>1.4748939999999999</v>
+      </c>
+      <c r="D52">
+        <v>61.500019000000002</v>
+      </c>
+      <c r="E52">
+        <v>65.018028999999999</v>
+      </c>
+      <c r="F52">
+        <v>86.187900999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>0.01</v>
+      </c>
+      <c r="B53">
+        <v>1.652109</v>
+      </c>
+      <c r="C53">
+        <v>1.4751590000000001</v>
+      </c>
+      <c r="D53">
+        <v>61.522696000000003</v>
+      </c>
+      <c r="E53">
+        <v>64.697515999999993</v>
+      </c>
+      <c r="F53">
+        <v>86.183893999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>0.01</v>
+      </c>
+      <c r="B54">
+        <v>1.652836</v>
+      </c>
+      <c r="C54">
+        <v>1.4705429999999999</v>
+      </c>
+      <c r="D54">
+        <v>61.539752999999997</v>
+      </c>
+      <c r="E54">
+        <v>64.714206000000004</v>
+      </c>
+      <c r="F54">
+        <v>86.320153000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>0.01</v>
+      </c>
+      <c r="B55">
+        <v>1.6519870000000001</v>
+      </c>
+      <c r="C55">
+        <v>1.4763440000000001</v>
+      </c>
+      <c r="D55">
+        <v>61.558598000000003</v>
+      </c>
+      <c r="E55">
+        <v>64.679486999999995</v>
+      </c>
+      <c r="F55">
+        <v>86.169871999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>0.01</v>
+      </c>
+      <c r="B56">
+        <v>1.6505069999999999</v>
+      </c>
+      <c r="C56">
+        <v>1.4683809999999999</v>
+      </c>
+      <c r="D56">
+        <v>61.599001999999999</v>
+      </c>
+      <c r="E56">
+        <v>64.777643999999995</v>
+      </c>
+      <c r="F56">
+        <v>86.290064000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>0.01</v>
+      </c>
+      <c r="B57">
+        <v>1.6491290000000001</v>
+      </c>
+      <c r="C57">
+        <v>1.4740439999999999</v>
+      </c>
+      <c r="D57">
+        <v>61.626888999999998</v>
+      </c>
+      <c r="E57">
+        <v>64.534836999999996</v>
+      </c>
+      <c r="F57">
+        <v>86.198581000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>0.01</v>
+      </c>
+      <c r="B58">
+        <v>1.648215</v>
+      </c>
+      <c r="C58">
+        <v>1.480502</v>
+      </c>
+      <c r="D58">
+        <v>61.657159</v>
+      </c>
+      <c r="E58">
+        <v>64.527243999999996</v>
+      </c>
+      <c r="F58">
+        <v>86.077724000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>0.01</v>
+      </c>
+      <c r="B59">
+        <v>1.6457470000000001</v>
+      </c>
+      <c r="C59">
+        <v>1.4599839999999999</v>
+      </c>
+      <c r="D59">
+        <v>61.720233</v>
+      </c>
+      <c r="E59">
+        <v>64.985978000000003</v>
+      </c>
+      <c r="F59">
+        <v>86.474359000000007</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>0.01</v>
+      </c>
+      <c r="B60">
+        <v>1.6431990000000001</v>
+      </c>
+      <c r="C60">
+        <v>1.5331220000000001</v>
+      </c>
+      <c r="D60">
+        <v>61.785102999999999</v>
+      </c>
+      <c r="E60">
+        <v>63.677854000000004</v>
+      </c>
+      <c r="F60">
+        <v>85.678411999999994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>0.01</v>
+      </c>
+      <c r="B61">
+        <v>1.6441049999999999</v>
+      </c>
+      <c r="C61">
+        <v>1.4794210000000001</v>
+      </c>
+      <c r="D61">
+        <v>61.691746000000002</v>
+      </c>
+      <c r="E61">
+        <v>64.665464999999998</v>
+      </c>
+      <c r="F61">
+        <v>86.061699000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>0.01</v>
+      </c>
+      <c r="B62">
+        <v>1.6369149999999999</v>
+      </c>
+      <c r="C62">
+        <v>1.458145</v>
+      </c>
+      <c r="D62">
+        <v>61.876280000000001</v>
+      </c>
+      <c r="E62">
+        <v>65.076121999999998</v>
+      </c>
+      <c r="F62">
+        <v>86.456329999999994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>1E-3</v>
+      </c>
+      <c r="B63">
+        <v>1.4487350000000001</v>
+      </c>
+      <c r="C63">
+        <v>1.2835760000000001</v>
+      </c>
+      <c r="D63">
+        <v>66.009536999999995</v>
+      </c>
+      <c r="E63">
+        <v>68.781887999999995</v>
+      </c>
+      <c r="F63">
+        <v>88.741629000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>1E-3</v>
+      </c>
+      <c r="B64">
+        <v>1.4027350000000001</v>
+      </c>
+      <c r="C64">
+        <v>1.2671490000000001</v>
+      </c>
+      <c r="D64">
+        <v>67.03801</v>
+      </c>
+      <c r="E64">
+        <v>69.130609000000007</v>
+      </c>
+      <c r="F64">
+        <v>88.912260000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>1E-3</v>
+      </c>
+      <c r="B65">
+        <v>1.3832180000000001</v>
+      </c>
+      <c r="C65">
+        <v>1.260656</v>
+      </c>
+      <c r="D65">
+        <v>67.409231000000005</v>
+      </c>
+      <c r="E65">
+        <v>69.300881000000004</v>
+      </c>
+      <c r="F65">
+        <v>88.942307999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>1E-3</v>
+      </c>
+      <c r="B66">
+        <v>1.3703270000000001</v>
+      </c>
+      <c r="C66">
+        <v>1.2520770000000001</v>
+      </c>
+      <c r="D66">
+        <v>67.670706999999993</v>
+      </c>
+      <c r="E66">
+        <v>69.615385000000003</v>
+      </c>
+      <c r="F66">
+        <v>89.084535000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>1E-3</v>
+      </c>
+      <c r="B67">
+        <v>1.3595060000000001</v>
+      </c>
+      <c r="C67">
+        <v>1.2442899999999999</v>
+      </c>
+      <c r="D67">
+        <v>67.929180000000002</v>
+      </c>
+      <c r="E67">
+        <v>69.752471</v>
+      </c>
+      <c r="F67">
+        <v>89.156170000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>1E-3</v>
+      </c>
+      <c r="B68">
+        <v>1.3514280000000001</v>
+      </c>
+      <c r="C68">
+        <v>1.243258</v>
+      </c>
+      <c r="D68">
+        <v>68.139048000000003</v>
+      </c>
+      <c r="E68">
+        <v>69.837739999999997</v>
+      </c>
+      <c r="F68">
+        <v>89.200721000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>1E-3</v>
+      </c>
+      <c r="B69">
+        <v>1.3436170000000001</v>
+      </c>
+      <c r="C69">
+        <v>1.238713</v>
+      </c>
+      <c r="D69">
+        <v>68.263748000000007</v>
+      </c>
+      <c r="E69">
+        <v>69.833734000000007</v>
+      </c>
+      <c r="F69">
+        <v>89.324920000000006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>1E-3</v>
+      </c>
+      <c r="B70">
+        <v>1.3351679999999999</v>
+      </c>
+      <c r="C70">
+        <v>1.231824</v>
+      </c>
+      <c r="D70">
+        <v>68.471684999999994</v>
+      </c>
+      <c r="E70">
+        <v>69.951769999999996</v>
+      </c>
+      <c r="F70">
+        <v>89.449139000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>1E-3</v>
+      </c>
+      <c r="B71">
+        <v>1.3325070000000001</v>
+      </c>
+      <c r="C71">
+        <v>1.2357860000000001</v>
+      </c>
+      <c r="D71">
+        <v>68.480840000000001</v>
+      </c>
+      <c r="E71">
+        <v>70.040064000000001</v>
+      </c>
+      <c r="F71">
+        <v>89.358974000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>1E-3</v>
+      </c>
+      <c r="B72">
+        <v>1.326384</v>
+      </c>
+      <c r="C72">
+        <v>1.2314430000000001</v>
+      </c>
+      <c r="D72">
+        <v>68.629885999999999</v>
+      </c>
+      <c r="E72">
+        <v>70</v>
+      </c>
+      <c r="F72">
+        <v>89.230768999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>1E-3</v>
+      </c>
+      <c r="B73">
+        <v>1.32463</v>
+      </c>
+      <c r="C73">
+        <v>1.229609</v>
+      </c>
+      <c r="D73">
+        <v>68.639540999999994</v>
+      </c>
+      <c r="E73">
+        <v>70.083307000000005</v>
+      </c>
+      <c r="F73">
+        <v>89.399314000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>1E-3</v>
+      </c>
+      <c r="B74">
+        <v>1.3189960000000001</v>
+      </c>
+      <c r="C74">
+        <v>1.2286619999999999</v>
+      </c>
+      <c r="D74">
+        <v>68.748361000000003</v>
+      </c>
+      <c r="E74">
+        <v>70.248396999999997</v>
+      </c>
+      <c r="F74">
+        <v>89.342949000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>1E-3</v>
+      </c>
+      <c r="B75">
+        <v>1.3138719999999999</v>
+      </c>
+      <c r="C75">
+        <v>1.227582</v>
+      </c>
+      <c r="D75">
+        <v>68.870372000000003</v>
+      </c>
+      <c r="E75">
+        <v>70.142228000000003</v>
+      </c>
+      <c r="F75">
+        <v>89.375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>1E-3</v>
+      </c>
+      <c r="B76">
+        <v>1.310548</v>
+      </c>
+      <c r="C76">
+        <v>1.2275149999999999</v>
+      </c>
+      <c r="D76">
+        <v>68.898757000000003</v>
+      </c>
+      <c r="E76">
+        <v>70.097257999999997</v>
+      </c>
+      <c r="F76">
+        <v>89.417250999999993</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>1E-3</v>
+      </c>
+      <c r="B77">
+        <v>1.304211</v>
+      </c>
+      <c r="C77">
+        <v>1.2278</v>
+      </c>
+      <c r="D77">
+        <v>69.07638</v>
+      </c>
+      <c r="E77">
+        <v>70.070111999999995</v>
+      </c>
+      <c r="F77">
+        <v>89.368989999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>1E-3</v>
+      </c>
+      <c r="B78">
+        <v>1.3023119999999999</v>
+      </c>
+      <c r="C78">
+        <v>1.22373</v>
+      </c>
+      <c r="D78">
+        <v>69.096215999999998</v>
+      </c>
+      <c r="E78">
+        <v>70.276442000000003</v>
+      </c>
+      <c r="F78">
+        <v>89.395032</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>1E-3</v>
+      </c>
+      <c r="B79">
+        <v>1.300084</v>
+      </c>
+      <c r="C79">
+        <v>1.223217</v>
+      </c>
+      <c r="D79">
+        <v>69.117127999999994</v>
+      </c>
+      <c r="E79">
+        <v>70.296555999999995</v>
+      </c>
+      <c r="F79">
+        <v>89.433194999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>1E-3</v>
+      </c>
+      <c r="B80">
+        <v>1.2962100000000001</v>
+      </c>
+      <c r="C80">
+        <v>1.2193510000000001</v>
+      </c>
+      <c r="D80">
+        <v>69.201580000000007</v>
+      </c>
+      <c r="E80">
+        <v>70.366586999999996</v>
+      </c>
+      <c r="F80">
+        <v>89.463140999999993</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>1E-3</v>
+      </c>
+      <c r="B81">
+        <v>1.291995</v>
+      </c>
+      <c r="C81">
+        <v>1.2252419999999999</v>
+      </c>
+      <c r="D81">
+        <v>69.308694000000003</v>
+      </c>
+      <c r="E81">
+        <v>70.172275999999997</v>
+      </c>
+      <c r="F81">
+        <v>89.391025999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>1E-3</v>
+      </c>
+      <c r="B82">
+        <v>1.2889999999999999</v>
+      </c>
+      <c r="C82">
+        <v>1.222359</v>
+      </c>
+      <c r="D82">
+        <v>69.356190999999995</v>
+      </c>
+      <c r="E82">
+        <v>70.252403999999999</v>
+      </c>
+      <c r="F82">
+        <v>89.469150999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>1E-3</v>
+      </c>
+      <c r="B83">
+        <v>1.2877909999999999</v>
+      </c>
+      <c r="C83">
+        <v>1.2244200000000001</v>
+      </c>
+      <c r="D83">
+        <v>69.384522000000004</v>
+      </c>
+      <c r="E83">
+        <v>70.322464999999994</v>
+      </c>
+      <c r="F83">
+        <v>89.443160000000006</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>1E-3</v>
+      </c>
+      <c r="B84">
+        <v>1.283606</v>
+      </c>
+      <c r="C84">
+        <v>1.22479</v>
+      </c>
+      <c r="D84">
+        <v>69.467862999999994</v>
+      </c>
+      <c r="E84">
+        <v>70.222356000000005</v>
+      </c>
+      <c r="F84">
+        <v>89.439103000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>1E-3</v>
+      </c>
+      <c r="B85">
+        <v>1.282591</v>
+      </c>
+      <c r="C85">
+        <v>1.2207570000000001</v>
+      </c>
+      <c r="D85">
+        <v>69.528830999999997</v>
+      </c>
+      <c r="E85">
+        <v>70.292468</v>
+      </c>
+      <c r="F85">
+        <v>89.497196000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>1E-3</v>
+      </c>
+      <c r="B86">
+        <v>1.2826569999999999</v>
+      </c>
+      <c r="C86">
+        <v>1.2194879999999999</v>
+      </c>
+      <c r="D86">
+        <v>69.546941000000004</v>
+      </c>
+      <c r="E86">
+        <v>70.210858000000002</v>
+      </c>
+      <c r="F86">
+        <v>89.427216000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>1E-3</v>
+      </c>
+      <c r="B87">
+        <v>1.2811049999999999</v>
+      </c>
+      <c r="C87">
+        <v>1.2249540000000001</v>
+      </c>
+      <c r="D87">
+        <v>69.532420999999999</v>
+      </c>
+      <c r="E87">
+        <v>70.392628000000002</v>
+      </c>
+      <c r="F87">
+        <v>89.415064000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>1E-3</v>
+      </c>
+      <c r="B88">
+        <v>1.2778510000000001</v>
+      </c>
+      <c r="C88">
+        <v>1.2230570000000001</v>
+      </c>
+      <c r="D88">
+        <v>69.602520999999996</v>
+      </c>
+      <c r="E88">
+        <v>70.210336999999996</v>
+      </c>
+      <c r="F88">
+        <v>89.441106000000005</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>1E-3</v>
+      </c>
+      <c r="B89">
+        <v>1.2730140000000001</v>
+      </c>
+      <c r="C89">
+        <v>1.220151</v>
+      </c>
+      <c r="D89">
+        <v>69.723167000000004</v>
+      </c>
+      <c r="E89">
+        <v>70.461973999999998</v>
+      </c>
+      <c r="F89">
+        <v>89.471062000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>1E-3</v>
+      </c>
+      <c r="B90">
+        <v>1.27403</v>
+      </c>
+      <c r="C90">
+        <v>1.220823</v>
+      </c>
+      <c r="D90">
+        <v>69.652325000000005</v>
+      </c>
+      <c r="E90">
+        <v>70.3125</v>
+      </c>
+      <c r="F90">
+        <v>89.411057999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>1E-3</v>
+      </c>
+      <c r="B91">
+        <v>1.27162</v>
+      </c>
+      <c r="C91">
+        <v>1.221131</v>
+      </c>
+      <c r="D91">
+        <v>69.717001999999994</v>
+      </c>
+      <c r="E91">
+        <v>70.310496999999998</v>
+      </c>
+      <c r="F91">
+        <v>89.425079999999994</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>1E-3</v>
+      </c>
+      <c r="B92">
+        <v>1.2672760000000001</v>
+      </c>
+      <c r="C92">
+        <v>1.2137579999999999</v>
+      </c>
+      <c r="D92">
+        <v>69.801190000000005</v>
+      </c>
+      <c r="E92">
+        <v>70.537706999999997</v>
+      </c>
+      <c r="F92">
+        <v>89.630500999999995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>1E-4</v>
+      </c>
+      <c r="B93">
+        <v>1.238199</v>
+      </c>
+      <c r="C93">
+        <v>1.1981790000000001</v>
+      </c>
+      <c r="D93">
+        <v>70.438935999999998</v>
+      </c>
+      <c r="E93">
+        <v>70.947515999999993</v>
+      </c>
+      <c r="F93">
+        <v>89.779646999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>1E-4</v>
+      </c>
+      <c r="B94">
+        <v>1.231484</v>
+      </c>
+      <c r="C94">
+        <v>1.2005509999999999</v>
+      </c>
+      <c r="D94">
+        <v>70.617177999999996</v>
+      </c>
+      <c r="E94">
+        <v>70.903446000000002</v>
+      </c>
+      <c r="F94">
+        <v>89.693510000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>1E-4</v>
+      </c>
+      <c r="B95">
+        <v>1.2263189999999999</v>
+      </c>
+      <c r="C95">
+        <v>1.1943459999999999</v>
+      </c>
+      <c r="D95">
+        <v>70.729270999999997</v>
+      </c>
+      <c r="E95">
+        <v>70.986129000000005</v>
+      </c>
+      <c r="F95">
+        <v>89.789939000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>1E-4</v>
+      </c>
+      <c r="B96">
+        <v>1.226712</v>
+      </c>
+      <c r="C96">
+        <v>1.1954130000000001</v>
+      </c>
+      <c r="D96">
+        <v>70.714054000000004</v>
+      </c>
+      <c r="E96">
+        <v>70.885417000000004</v>
+      </c>
+      <c r="F96">
+        <v>89.721553999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>1E-4</v>
+      </c>
+      <c r="B97">
+        <v>1.2246060000000001</v>
+      </c>
+      <c r="C97">
+        <v>1.194251</v>
+      </c>
+      <c r="D97">
+        <v>70.796312999999998</v>
+      </c>
+      <c r="E97">
+        <v>70.913461999999996</v>
+      </c>
+      <c r="F97">
+        <v>89.811699000000004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>1E-4</v>
+      </c>
+      <c r="B98">
+        <v>1.2225839999999999</v>
+      </c>
+      <c r="C98">
+        <v>1.19536</v>
+      </c>
+      <c r="D98">
+        <v>70.856127999999998</v>
+      </c>
+      <c r="E98">
+        <v>70.947515999999993</v>
+      </c>
+      <c r="F98">
+        <v>89.767628000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>1E-4</v>
+      </c>
+      <c r="B99">
+        <v>1.2229570000000001</v>
+      </c>
+      <c r="C99">
+        <v>1.1908369999999999</v>
+      </c>
+      <c r="D99">
+        <v>70.845169999999996</v>
+      </c>
+      <c r="E99">
+        <v>70.950254999999999</v>
+      </c>
+      <c r="F99">
+        <v>89.845742999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>1E-4</v>
+      </c>
+      <c r="B100">
+        <v>1.2209239999999999</v>
+      </c>
+      <c r="C100">
+        <v>1.192526</v>
+      </c>
+      <c r="D100">
+        <v>70.876778999999999</v>
+      </c>
+      <c r="E100">
+        <v>70.941506000000004</v>
+      </c>
+      <c r="F100">
+        <v>89.757611999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>1E-4</v>
+      </c>
+      <c r="B101">
+        <v>1.220542</v>
+      </c>
+      <c r="C101">
+        <v>1.190901</v>
+      </c>
+      <c r="D101">
+        <v>70.853472999999994</v>
+      </c>
+      <c r="E101">
+        <v>70.953525999999997</v>
+      </c>
+      <c r="F101">
+        <v>89.787660000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>1E-4</v>
+      </c>
+      <c r="B102">
+        <v>1.219257</v>
+      </c>
+      <c r="C102">
+        <v>1.193551</v>
+      </c>
+      <c r="D102">
+        <v>70.918847</v>
+      </c>
+      <c r="E102">
+        <v>70.874521999999999</v>
+      </c>
+      <c r="F102">
+        <v>89.791932000000003</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA96B2B8-7555-2849-937F-4828819D35E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7752255-A523-4841-B142-42A86E58B46A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" activeTab="4" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
+    <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="138">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -3438,6 +3438,2559 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0937869284286432E-2"/>
+          <c:y val="4.0136723435565617E-2"/>
+          <c:w val="0.86479252652633776"/>
+          <c:h val="0.81973755696929529"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ResNet18(train)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>loss!$W$3:$W$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>loss!$Q$3:$Q$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>5.0920480000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.718175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1786850000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8759160000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6822840000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5517180000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.452674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3776609999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3196889999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2680280000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2310249999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.193057</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1686730000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.141181</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1196809999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0990820000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0849769999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0687570000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.055342</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0421800000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0306030000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0193219999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0098889999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9978089999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.99211</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.98302</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9747300000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.9682109999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.3282470000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.261136</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.819412</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.7196229999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6798519999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.651999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.630781</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.6164270000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.60205</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5979589999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.587024</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.580867</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.57376</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.5673729999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5666519999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.5634699999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.562384</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5591140000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.558368</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.5562549999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.5584389999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5545119999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.554087</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.552422</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.5533490000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.555666</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.5527470000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.5521290000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.5501769999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.55203</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.5494399999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.5483150000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.418118</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.382841</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.371777</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.364439</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.358001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.350948</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.347369</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.3439779999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.3411900000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.3372660000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.334859</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.3317099999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.3285279999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.3259590000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.323712</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.321609</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.3180229999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.3156939999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.314595</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.3136399999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.3108150000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.307509</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.307914</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.3065549999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.306343</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.3012570000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.300756</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.2994680000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.3002899999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.2964439999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.2798830000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.2755240000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.276149</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.274281</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.271952</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.2707470000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.2671410000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.2721070000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.2707390000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.268383</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D9B1-CD42-96F6-6303CFAF82A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ResNet18(val)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>loss!$W$3:$W$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>loss!$R$3:$R$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>4.3881300000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3723299999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6451229999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4812289999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3352240000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3485930000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2590910000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.297526</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.236577</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1076350000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.131383</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0806979999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9804459999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0340639999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1396099999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.02976</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.007279</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0154339999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.90943</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9700230000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9682729999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.926933</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8965730000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.968879</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.915009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.919694</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.946075</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.223646</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.1472910000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5176940000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.4657020000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.4514800000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.448482</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.4342969999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4193150000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.4381090000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.4265049999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.424477</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.425543</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.427224</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.4042650000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.41791</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.4134040000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.4235690000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4136580000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.422218</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.410069</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.429937</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.44068</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.4284809999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.4297310000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.4277230000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.438293</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4349780000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.428045</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.463106</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4409689999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4394260000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.432769</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.291137</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.284063</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.284273</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.277884</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2686470000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.2748250000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.2678940000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.268591</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.270349</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.2642040000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.2610650000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2657350000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.26275</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.2607699999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.2643</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.261218</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.257989</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.261199</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.256877</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.2590790000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.260186</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.258429</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.2614300000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.264419</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.2582580000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.257452</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.26057</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.257342</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.2547489999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.257822</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.2460009999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.246407</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.241201</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.241001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.2458880000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.2396739999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.2397739999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.2428889999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.237317</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.2391209999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D9B1-CD42-96F6-6303CFAF82A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>PD-A-ResNet18(train)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>loss!$W$3:$W$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>loss!$B$3:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>4.9973380000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4533390000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0381109999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8585310000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7514989999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.678938</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6311260000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.593499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.567615</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5427050000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.524661</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.506475</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.494275</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4877750000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4748860000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4666809999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4589789999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4474689999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4436879999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4403260000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4336570000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4306380000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.424614</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4191389999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4175019999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4143129999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.412309</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4061370000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.4060969999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4022640000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8977349999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.781048</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7359230000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7060709999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.6873819999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.6748829999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6714910000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.6628160000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.660077</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.65808</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.659025</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.6577919999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.6577740000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.6589989999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.661178</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.6585920000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.657618</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.6571979999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.65598</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.6561269999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.652109</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.652836</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.6519870000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.6505069999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.6491290000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.648215</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.6457470000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.6431990000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.6441049999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.6369149999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.4487350000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.4027350000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.3832180000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.3703270000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.3595060000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.3514280000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.3436170000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.3351679999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.3325070000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.326384</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.32463</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.3189960000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.3138719999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.310548</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.304211</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.3023119999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.300084</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.2962100000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.291995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.2889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.2877909999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.283606</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.282591</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.2826569999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.2811049999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.2778510000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.2730140000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.27403</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.27162</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.2672760000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.238199</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.231484</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.2263189999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.226712</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.2246060000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.2225839999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.2229570000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.2209239999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.220542</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.219257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9B1-CD42-96F6-6303CFAF82A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>PD-A-ResNet18(val)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>loss!$W$3:$W$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>loss!$C$3:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>3.7546249999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0117970000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7417379999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6935310000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4842339999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4683570000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4095559999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4281480000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6350199999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4348559999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3896000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.344195</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3020209999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.308557</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.292802</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3451569999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.203201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3378739999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2430140000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2071179999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.252996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2227760000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2568380000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2073900000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.2877019999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.234753</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2097579999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2485819999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.183106</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2835489999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.541739</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.499722</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.4679059999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.458105</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.4455260000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.435927</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.4445600000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.4500189999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.456078</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.4433480000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.45903</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.4528669999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4649369999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.473184</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.4572830000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.466869</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.474739</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.478699</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.485306</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.4748939999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.4751590000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.4705429999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.4763440000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4683809999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4740439999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.480502</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4599839999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.5331220000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4794210000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.458145</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.2835760000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.2671490000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.260656</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.2520770000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2442899999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.243258</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.238713</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.231824</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.2357860000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.2314430000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.229609</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2286619999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.227582</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.2275149999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.2278</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.22373</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.223217</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.2193510000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.2252419999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.222359</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.2244200000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.22479</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.2207570000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.2194879999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.2249540000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.2230570000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.220151</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.220823</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.221131</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.2137579999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.1981790000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.2005509999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.1943459999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.1954130000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.194251</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.19536</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.1908369999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.192526</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.190901</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.193551</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D9B1-CD42-96F6-6303CFAF82A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>PD-B-ResNet18(train)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>loss!$W$3:$W$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>loss!$I$3:$I$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>4.6869430000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3394560000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9562210000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7811979999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6775730000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6074570000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5596589999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5231490000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4954290000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4684149999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.449716</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4300480000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4178769999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4097219999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3977029999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3886080000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3811800000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3710580000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.365653</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3600379999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3541210000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.349736</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.3433630000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3378209999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3358940000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.3365109999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.330667</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.3279329999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.3249780000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.3234659999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8204579999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.698863</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6491960000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6144780000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5884370000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5713010000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.564557</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5517510000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.54447</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.537433</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.5351349999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.5312129999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.52677</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.525674</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5254239999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5224690000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.5174339999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.5143489999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.511736</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5116229999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.5059439999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.503574</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.502712</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.501965</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.497436</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.49586</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4917339999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.489412</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4887999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.482974</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.301728</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.2527109999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2335339999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.2200439999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.208853</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.199479</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.191425</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.1835629999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.1795899999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.1733070000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.169867</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.1634180000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.157953</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.1543129999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.1474530000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.1447579999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.1419029999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.137148</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.1337440000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.1296250000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.128377</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.1233070000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.121259</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.1213089999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.1184499999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.114463</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.1093170000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.1101719999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.1076090000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.102001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.0742069999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.0682430000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.061925</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.0622119999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.0601240000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.058011</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.058327</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.0558050000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.0555760000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.054322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D9B1-CD42-96F6-6303CFAF82A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>PD-B-ResNet18(val)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>loss!$J$3:$J$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>3.6780110000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.86693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6469839999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6185450000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5181830000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.488531</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4756800000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3868800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2490570000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.310594</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2316829999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4371049999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4003920000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1897519999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1768730000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.275811</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2141540000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2028400000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1681339999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1884990000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1503700000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2515450000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1347420000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2079740000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1210140000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.3519760000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.1192920000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2294870000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.3508619999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.1695389999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4886159999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.4453450000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.4066669999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3958390000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.38914</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.385915</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3961650000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.369893</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.3768149999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.3650869999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.3843350000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.3899889999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.3825460000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.418045</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.4005840000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.436253</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.3969959999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.401894</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.3989640000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.4242809999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.4252880000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.3953</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.3962289999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.395988</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4019200000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4105730000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.420207</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4254739999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.39055</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4102779999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.2250650000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.2183139999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2111430000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.205301</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2012750000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.1996530000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.1966829999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.1927760000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.194593</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.189981</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.194186</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.1909209999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.1922330000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.1942470000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.18828</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.186412</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.189908</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.1895039999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.1908890000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.192863</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.1886730000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.188323</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.1889380000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.1870860000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.1906680000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.1955690000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.185487</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.1874579999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.1951929999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.189208</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.1748780000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.175978</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.1704619999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.171098</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.169835</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.1748689999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.1659889999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.169284</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.1676420000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.169602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D9B1-CD42-96F6-6303CFAF82A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="823151135"/>
+        <c:axId val="778737823"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="823151135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Epoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="778737823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="778737823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.5"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="823151135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.49650264036036751"/>
+          <c:y val="4.3326687933096651E-2"/>
+          <c:w val="0.48842480600384314"/>
+          <c:h val="0.3788378048286461"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3559,6 +6112,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5623,6 +8216,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5776,6 +8885,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>565149</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>481724</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E531AD-EA05-9D43-B1CA-B4C402DB026D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6083,8 +9233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
   <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="D47" zoomScale="97" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7140,23 +10290,35 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="8:9">
+    <row r="65" spans="8:11">
       <c r="H65" t="s">
         <v>12</v>
       </c>
       <c r="I65" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="66" spans="8:9">
+      <c r="J65">
+        <v>70.183000000000007</v>
+      </c>
+      <c r="K65">
+        <v>89.413300000000007</v>
+      </c>
+    </row>
+    <row r="66" spans="8:11">
       <c r="H66" t="s">
         <v>13</v>
       </c>
       <c r="I66" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="67" spans="8:9">
+      <c r="J66">
+        <v>70.047399999999996</v>
+      </c>
+      <c r="K66">
+        <v>89.315600000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="8:11">
       <c r="H67" t="s">
         <v>10</v>
       </c>
@@ -7164,15 +10326,21 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="8:9">
+    <row r="68" spans="8:11">
       <c r="H68" t="s">
         <v>126</v>
       </c>
       <c r="I68" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="69" spans="8:9">
+      <c r="J68">
+        <v>71.179900000000004</v>
+      </c>
+      <c r="K68">
+        <v>89.827799999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="8:11">
       <c r="H69" t="s">
         <v>128</v>
       </c>
@@ -9145,15 +12313,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F9EC6D-3C70-6249-9C3D-64477FEC609B}">
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="C88" zoomScale="87" workbookViewId="0">
+      <selection activeCell="N109" sqref="N109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>136</v>
       </c>
@@ -9166,14 +12334,14 @@
       <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>137</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -9192,8 +12360,44 @@
       <c r="F2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="H2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>131</v>
+      </c>
+      <c r="R2" t="s">
+        <v>132</v>
+      </c>
+      <c r="S2" t="s">
+        <v>133</v>
+      </c>
+      <c r="T2" t="s">
+        <v>134</v>
+      </c>
+      <c r="U2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -9212,8 +12416,47 @@
       <c r="F3">
         <v>47.498804</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+      <c r="I3">
+        <v>4.6869430000000003</v>
+      </c>
+      <c r="J3">
+        <v>3.6780110000000001</v>
+      </c>
+      <c r="K3">
+        <v>14.061719999999999</v>
+      </c>
+      <c r="L3">
+        <v>24.491789000000001</v>
+      </c>
+      <c r="M3">
+        <v>48.592953000000001</v>
+      </c>
+      <c r="P3">
+        <v>0.1</v>
+      </c>
+      <c r="Q3">
+        <v>5.0920480000000001</v>
+      </c>
+      <c r="R3">
+        <v>4.3881300000000003</v>
+      </c>
+      <c r="S3">
+        <v>9.7742830000000005</v>
+      </c>
+      <c r="T3">
+        <v>15.447623999999999</v>
+      </c>
+      <c r="U3">
+        <v>35.827885999999999</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>0.1</v>
       </c>
@@ -9232,8 +12475,44 @@
       <c r="F4">
         <v>61.584535000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+      <c r="I4">
+        <v>3.3394560000000002</v>
+      </c>
+      <c r="J4">
+        <v>2.86693</v>
+      </c>
+      <c r="K4">
+        <v>30.680491</v>
+      </c>
+      <c r="L4">
+        <v>37.395833000000003</v>
+      </c>
+      <c r="M4">
+        <v>63.874198999999997</v>
+      </c>
+      <c r="P4">
+        <v>0.1</v>
+      </c>
+      <c r="Q4">
+        <v>3.718175</v>
+      </c>
+      <c r="R4">
+        <v>3.3723299999999998</v>
+      </c>
+      <c r="S4">
+        <v>24.933959000000002</v>
+      </c>
+      <c r="T4">
+        <v>28.916215000000001</v>
+      </c>
+      <c r="U4">
+        <v>54.472257999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>0.1</v>
       </c>
@@ -9252,8 +12531,44 @@
       <c r="F5">
         <v>66.167868999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="H5">
+        <v>0.1</v>
+      </c>
+      <c r="I5">
+        <v>2.9562210000000002</v>
+      </c>
+      <c r="J5">
+        <v>2.6469839999999998</v>
+      </c>
+      <c r="K5">
+        <v>36.982992000000003</v>
+      </c>
+      <c r="L5">
+        <v>41.614583000000003</v>
+      </c>
+      <c r="M5">
+        <v>67.752403999999999</v>
+      </c>
+      <c r="P5">
+        <v>0.1</v>
+      </c>
+      <c r="Q5">
+        <v>3.1786850000000002</v>
+      </c>
+      <c r="R5">
+        <v>2.8519999999999999</v>
+      </c>
+      <c r="S5">
+        <v>33.297815</v>
+      </c>
+      <c r="T5">
+        <v>37.326610000000002</v>
+      </c>
+      <c r="U5">
+        <v>63.897081999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>0.1</v>
       </c>
@@ -9272,8 +12587,44 @@
       <c r="F6">
         <v>67.578125</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="H6">
+        <v>0.1</v>
+      </c>
+      <c r="I6">
+        <v>2.7811979999999998</v>
+      </c>
+      <c r="J6">
+        <v>2.6185450000000001</v>
+      </c>
+      <c r="K6">
+        <v>40.104427000000001</v>
+      </c>
+      <c r="L6">
+        <v>42.203443999999998</v>
+      </c>
+      <c r="M6">
+        <v>68.554687999999999</v>
+      </c>
+      <c r="P6">
+        <v>0.1</v>
+      </c>
+      <c r="Q6">
+        <v>2.8759160000000001</v>
+      </c>
+      <c r="R6">
+        <v>2.6451229999999999</v>
+      </c>
+      <c r="S6">
+        <v>38.338313999999997</v>
+      </c>
+      <c r="T6">
+        <v>41.653379999999999</v>
+      </c>
+      <c r="U6">
+        <v>67.354911000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>0.1</v>
       </c>
@@ -9292,8 +12643,44 @@
       <c r="F7">
         <v>70.825321000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="H7">
+        <v>0.1</v>
+      </c>
+      <c r="I7">
+        <v>2.6775730000000002</v>
+      </c>
+      <c r="J7">
+        <v>2.5181830000000001</v>
+      </c>
+      <c r="K7">
+        <v>41.902102999999997</v>
+      </c>
+      <c r="L7">
+        <v>44.250801000000003</v>
+      </c>
+      <c r="M7">
+        <v>70.536859000000007</v>
+      </c>
+      <c r="P7">
+        <v>0.1</v>
+      </c>
+      <c r="Q7">
+        <v>2.6822840000000001</v>
+      </c>
+      <c r="R7">
+        <v>2.4812289999999999</v>
+      </c>
+      <c r="S7">
+        <v>41.734034999999999</v>
+      </c>
+      <c r="T7">
+        <v>43.959263</v>
+      </c>
+      <c r="U7">
+        <v>70.344387999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>0.1</v>
       </c>
@@ -9312,8 +12699,44 @@
       <c r="F8">
         <v>71.169871999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="H8">
+        <v>0.1</v>
+      </c>
+      <c r="I8">
+        <v>2.6074570000000001</v>
+      </c>
+      <c r="J8">
+        <v>2.488531</v>
+      </c>
+      <c r="K8">
+        <v>43.19173</v>
+      </c>
+      <c r="L8">
+        <v>44.393028999999999</v>
+      </c>
+      <c r="M8">
+        <v>70.843349000000003</v>
+      </c>
+      <c r="P8">
+        <v>0.1</v>
+      </c>
+      <c r="Q8">
+        <v>2.5517180000000002</v>
+      </c>
+      <c r="R8">
+        <v>2.3352240000000002</v>
+      </c>
+      <c r="S8">
+        <v>44.144528000000001</v>
+      </c>
+      <c r="T8">
+        <v>46.771239999999999</v>
+      </c>
+      <c r="U8">
+        <v>72.837321000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>0.1</v>
       </c>
@@ -9332,8 +12755,44 @@
       <c r="F9">
         <v>72.120137</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="H9">
+        <v>0.1</v>
+      </c>
+      <c r="I9">
+        <v>2.5596589999999999</v>
+      </c>
+      <c r="J9">
+        <v>2.4756800000000001</v>
+      </c>
+      <c r="K9">
+        <v>44.010962999999997</v>
+      </c>
+      <c r="L9">
+        <v>45.041454000000002</v>
+      </c>
+      <c r="M9">
+        <v>70.920360000000002</v>
+      </c>
+      <c r="P9">
+        <v>0.1</v>
+      </c>
+      <c r="Q9">
+        <v>2.452674</v>
+      </c>
+      <c r="R9">
+        <v>2.3485930000000002</v>
+      </c>
+      <c r="S9">
+        <v>45.970177</v>
+      </c>
+      <c r="T9">
+        <v>46.669722999999998</v>
+      </c>
+      <c r="U9">
+        <v>72.733975999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>0.1</v>
       </c>
@@ -9352,8 +12811,44 @@
       <c r="F10">
         <v>72.105368999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="H10">
+        <v>0.1</v>
+      </c>
+      <c r="I10">
+        <v>2.5231490000000001</v>
+      </c>
+      <c r="J10">
+        <v>2.3868800000000001</v>
+      </c>
+      <c r="K10">
+        <v>44.653236999999997</v>
+      </c>
+      <c r="L10">
+        <v>46.330128000000002</v>
+      </c>
+      <c r="M10">
+        <v>72.762420000000006</v>
+      </c>
+      <c r="P10">
+        <v>0.1</v>
+      </c>
+      <c r="Q10">
+        <v>2.3776609999999998</v>
+      </c>
+      <c r="R10">
+        <v>2.2590910000000002</v>
+      </c>
+      <c r="S10">
+        <v>47.258682999999998</v>
+      </c>
+      <c r="T10">
+        <v>48.254145000000001</v>
+      </c>
+      <c r="U10">
+        <v>74.041374000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>0.1</v>
       </c>
@@ -9372,8 +12867,44 @@
       <c r="F11">
         <v>68.806089999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="H11">
+        <v>0.1</v>
+      </c>
+      <c r="I11">
+        <v>2.4954290000000001</v>
+      </c>
+      <c r="J11">
+        <v>2.2490570000000001</v>
+      </c>
+      <c r="K11">
+        <v>45.187365999999997</v>
+      </c>
+      <c r="L11">
+        <v>49.002403999999999</v>
+      </c>
+      <c r="M11">
+        <v>74.607371999999998</v>
+      </c>
+      <c r="P11">
+        <v>0.1</v>
+      </c>
+      <c r="Q11">
+        <v>2.3196889999999999</v>
+      </c>
+      <c r="R11">
+        <v>2.297526</v>
+      </c>
+      <c r="S11">
+        <v>48.363497000000002</v>
+      </c>
+      <c r="T11">
+        <v>47.640306000000002</v>
+      </c>
+      <c r="U11">
+        <v>73.236209000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>0.1</v>
       </c>
@@ -9392,8 +12923,47 @@
       <c r="F12">
         <v>71.815209999999993</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="H12">
+        <v>0.1</v>
+      </c>
+      <c r="I12">
+        <v>2.4684149999999998</v>
+      </c>
+      <c r="J12">
+        <v>2.310594</v>
+      </c>
+      <c r="K12">
+        <v>45.714441999999998</v>
+      </c>
+      <c r="L12">
+        <v>47.745933999999998</v>
+      </c>
+      <c r="M12">
+        <v>73.919802000000004</v>
+      </c>
+      <c r="P12">
+        <v>0.1</v>
+      </c>
+      <c r="Q12">
+        <v>2.2680280000000002</v>
+      </c>
+      <c r="R12">
+        <v>2.236577</v>
+      </c>
+      <c r="S12">
+        <v>49.314141999999997</v>
+      </c>
+      <c r="T12">
+        <v>48.712532000000003</v>
+      </c>
+      <c r="U12">
+        <v>74.443956999999997</v>
+      </c>
+      <c r="W12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>0.1</v>
       </c>
@@ -9412,8 +12982,44 @@
       <c r="F13">
         <v>72.574118999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="H13">
+        <v>0.1</v>
+      </c>
+      <c r="I13">
+        <v>2.449716</v>
+      </c>
+      <c r="J13">
+        <v>2.2316829999999999</v>
+      </c>
+      <c r="K13">
+        <v>46.000855999999999</v>
+      </c>
+      <c r="L13">
+        <v>49.383012999999998</v>
+      </c>
+      <c r="M13">
+        <v>75.074118999999996</v>
+      </c>
+      <c r="P13">
+        <v>0.1</v>
+      </c>
+      <c r="Q13">
+        <v>2.2310249999999998</v>
+      </c>
+      <c r="R13">
+        <v>2.1076350000000001</v>
+      </c>
+      <c r="S13">
+        <v>50.075955</v>
+      </c>
+      <c r="T13">
+        <v>51.307397999999999</v>
+      </c>
+      <c r="U13">
+        <v>76.464843999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>0.1</v>
       </c>
@@ -9432,8 +13038,44 @@
       <c r="F14">
         <v>73.221153999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="H14">
+        <v>0.1</v>
+      </c>
+      <c r="I14">
+        <v>2.4300480000000002</v>
+      </c>
+      <c r="J14">
+        <v>2.4371049999999999</v>
+      </c>
+      <c r="K14">
+        <v>46.387675000000002</v>
+      </c>
+      <c r="L14">
+        <v>45.524839999999998</v>
+      </c>
+      <c r="M14">
+        <v>71.828925999999996</v>
+      </c>
+      <c r="P14">
+        <v>0.1</v>
+      </c>
+      <c r="Q14">
+        <v>2.193057</v>
+      </c>
+      <c r="R14">
+        <v>2.131383</v>
+      </c>
+      <c r="S14">
+        <v>50.750259</v>
+      </c>
+      <c r="T14">
+        <v>50.718179999999997</v>
+      </c>
+      <c r="U14">
+        <v>76.236979000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>0.1</v>
       </c>
@@ -9452,8 +13094,44 @@
       <c r="F15">
         <v>74.101163999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="H15">
+        <v>0.1</v>
+      </c>
+      <c r="I15">
+        <v>2.4178769999999998</v>
+      </c>
+      <c r="J15">
+        <v>2.4003920000000001</v>
+      </c>
+      <c r="K15">
+        <v>46.605449999999998</v>
+      </c>
+      <c r="L15">
+        <v>46.546157999999998</v>
+      </c>
+      <c r="M15">
+        <v>72.692124000000007</v>
+      </c>
+      <c r="P15">
+        <v>0.1</v>
+      </c>
+      <c r="Q15">
+        <v>2.1686730000000001</v>
+      </c>
+      <c r="R15">
+        <v>2.0806979999999999</v>
+      </c>
+      <c r="S15">
+        <v>51.253059999999998</v>
+      </c>
+      <c r="T15">
+        <v>51.829560000000001</v>
+      </c>
+      <c r="U15">
+        <v>76.713966999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16">
         <v>0.1</v>
       </c>
@@ -9472,8 +13150,44 @@
       <c r="F16">
         <v>73.876202000000006</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="H16">
+        <v>0.1</v>
+      </c>
+      <c r="I16">
+        <v>2.4097219999999999</v>
+      </c>
+      <c r="J16">
+        <v>2.1897519999999999</v>
+      </c>
+      <c r="K16">
+        <v>46.778924000000004</v>
+      </c>
+      <c r="L16">
+        <v>49.861778999999999</v>
+      </c>
+      <c r="M16">
+        <v>75.614984000000007</v>
+      </c>
+      <c r="P16">
+        <v>0.1</v>
+      </c>
+      <c r="Q16">
+        <v>2.141181</v>
+      </c>
+      <c r="R16">
+        <v>1.9804459999999999</v>
+      </c>
+      <c r="S16">
+        <v>51.767491999999997</v>
+      </c>
+      <c r="T16">
+        <v>53.872368999999999</v>
+      </c>
+      <c r="U16">
+        <v>78.334263000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17">
         <v>0.1</v>
       </c>
@@ -9492,8 +13206,44 @@
       <c r="F17">
         <v>74.294871999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="H17">
+        <v>0.1</v>
+      </c>
+      <c r="I17">
+        <v>2.3977029999999999</v>
+      </c>
+      <c r="J17">
+        <v>2.1768730000000001</v>
+      </c>
+      <c r="K17">
+        <v>46.940885000000002</v>
+      </c>
+      <c r="L17">
+        <v>50.825321000000002</v>
+      </c>
+      <c r="M17">
+        <v>76.159856000000005</v>
+      </c>
+      <c r="P17">
+        <v>0.1</v>
+      </c>
+      <c r="Q17">
+        <v>2.1196809999999999</v>
+      </c>
+      <c r="R17">
+        <v>2.0340639999999999</v>
+      </c>
+      <c r="S17">
+        <v>52.168422</v>
+      </c>
+      <c r="T17">
+        <v>52.841996000000002</v>
+      </c>
+      <c r="U17">
+        <v>77.732382000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18">
         <v>0.1</v>
       </c>
@@ -9512,8 +13262,44 @@
       <c r="F18">
         <v>73.483574000000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="H18">
+        <v>0.1</v>
+      </c>
+      <c r="I18">
+        <v>2.3886080000000001</v>
+      </c>
+      <c r="J18">
+        <v>2.275811</v>
+      </c>
+      <c r="K18">
+        <v>47.150661999999997</v>
+      </c>
+      <c r="L18">
+        <v>48.972355999999998</v>
+      </c>
+      <c r="M18">
+        <v>74.829728000000003</v>
+      </c>
+      <c r="P18">
+        <v>0.1</v>
+      </c>
+      <c r="Q18">
+        <v>2.0990820000000001</v>
+      </c>
+      <c r="R18">
+        <v>2.1396099999999998</v>
+      </c>
+      <c r="S18">
+        <v>52.583523</v>
+      </c>
+      <c r="T18">
+        <v>50.791215000000001</v>
+      </c>
+      <c r="U18">
+        <v>75.819117000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19">
         <v>0.1</v>
       </c>
@@ -9532,8 +13318,44 @@
       <c r="F19">
         <v>75.805166</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="H19">
+        <v>0.1</v>
+      </c>
+      <c r="I19">
+        <v>2.3811800000000001</v>
+      </c>
+      <c r="J19">
+        <v>2.2141540000000002</v>
+      </c>
+      <c r="K19">
+        <v>47.311203999999996</v>
+      </c>
+      <c r="L19">
+        <v>49.711016999999998</v>
+      </c>
+      <c r="M19">
+        <v>75.273038999999997</v>
+      </c>
+      <c r="P19">
+        <v>0.1</v>
+      </c>
+      <c r="Q19">
+        <v>2.0849769999999999</v>
+      </c>
+      <c r="R19">
+        <v>2.02976</v>
+      </c>
+      <c r="S19">
+        <v>52.865130000000001</v>
+      </c>
+      <c r="T19">
+        <v>52.612803</v>
+      </c>
+      <c r="U19">
+        <v>77.680564000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20">
         <v>0.1</v>
       </c>
@@ -9552,8 +13374,44 @@
       <c r="F20">
         <v>73.415464999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="H20">
+        <v>0.1</v>
+      </c>
+      <c r="I20">
+        <v>2.3710580000000001</v>
+      </c>
+      <c r="J20">
+        <v>2.2028400000000001</v>
+      </c>
+      <c r="K20">
+        <v>47.403562000000001</v>
+      </c>
+      <c r="L20">
+        <v>50.248396999999997</v>
+      </c>
+      <c r="M20">
+        <v>75.637018999999995</v>
+      </c>
+      <c r="P20">
+        <v>0.1</v>
+      </c>
+      <c r="Q20">
+        <v>2.0687570000000002</v>
+      </c>
+      <c r="R20">
+        <v>2.007279</v>
+      </c>
+      <c r="S20">
+        <v>53.129292999999997</v>
+      </c>
+      <c r="T20">
+        <v>53.385416999999997</v>
+      </c>
+      <c r="U20">
+        <v>78.265381000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21">
         <v>0.1</v>
       </c>
@@ -9572,8 +13430,44 @@
       <c r="F21">
         <v>75.158253000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="H21">
+        <v>0.1</v>
+      </c>
+      <c r="I21">
+        <v>2.365653</v>
+      </c>
+      <c r="J21">
+        <v>2.1681339999999998</v>
+      </c>
+      <c r="K21">
+        <v>47.543550000000003</v>
+      </c>
+      <c r="L21">
+        <v>50.767228000000003</v>
+      </c>
+      <c r="M21">
+        <v>76.358172999999994</v>
+      </c>
+      <c r="P21">
+        <v>0.1</v>
+      </c>
+      <c r="Q21">
+        <v>2.055342</v>
+      </c>
+      <c r="R21">
+        <v>2.0154339999999999</v>
+      </c>
+      <c r="S21">
+        <v>53.448881999999998</v>
+      </c>
+      <c r="T21">
+        <v>53.246572</v>
+      </c>
+      <c r="U21">
+        <v>78.021365000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22">
         <v>0.1</v>
       </c>
@@ -9592,8 +13486,47 @@
       <c r="F22">
         <v>75.829082</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="H22">
+        <v>0.1</v>
+      </c>
+      <c r="I22">
+        <v>2.3600379999999999</v>
+      </c>
+      <c r="J22">
+        <v>2.1884990000000002</v>
+      </c>
+      <c r="K22">
+        <v>47.695906000000001</v>
+      </c>
+      <c r="L22">
+        <v>50.679608000000002</v>
+      </c>
+      <c r="M22">
+        <v>75.956632999999997</v>
+      </c>
+      <c r="P22">
+        <v>0.1</v>
+      </c>
+      <c r="Q22">
+        <v>2.0421800000000001</v>
+      </c>
+      <c r="R22">
+        <v>1.90943</v>
+      </c>
+      <c r="S22">
+        <v>53.627476999999999</v>
+      </c>
+      <c r="T22">
+        <v>55.112006000000001</v>
+      </c>
+      <c r="U22">
+        <v>79.729353000000003</v>
+      </c>
+      <c r="W22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23">
         <v>0.1</v>
       </c>
@@ -9612,8 +13545,44 @@
       <c r="F23">
         <v>74.841746999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="H23">
+        <v>0.1</v>
+      </c>
+      <c r="I23">
+        <v>2.3541210000000001</v>
+      </c>
+      <c r="J23">
+        <v>2.1503700000000001</v>
+      </c>
+      <c r="K23">
+        <v>47.835914000000002</v>
+      </c>
+      <c r="L23">
+        <v>50.817307999999997</v>
+      </c>
+      <c r="M23">
+        <v>76.40625</v>
+      </c>
+      <c r="P23">
+        <v>0.1</v>
+      </c>
+      <c r="Q23">
+        <v>2.0306030000000002</v>
+      </c>
+      <c r="R23">
+        <v>1.9700230000000001</v>
+      </c>
+      <c r="S23">
+        <v>53.892667000000003</v>
+      </c>
+      <c r="T23">
+        <v>54.193240000000003</v>
+      </c>
+      <c r="U23">
+        <v>78.675064000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24">
         <v>0.1</v>
       </c>
@@ -9632,8 +13601,44 @@
       <c r="F24">
         <v>75.116185999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="H24">
+        <v>0.1</v>
+      </c>
+      <c r="I24">
+        <v>2.349736</v>
+      </c>
+      <c r="J24">
+        <v>2.2515450000000001</v>
+      </c>
+      <c r="K24">
+        <v>47.893872000000002</v>
+      </c>
+      <c r="L24">
+        <v>49.529246999999998</v>
+      </c>
+      <c r="M24">
+        <v>75</v>
+      </c>
+      <c r="P24">
+        <v>0.1</v>
+      </c>
+      <c r="Q24">
+        <v>2.0193219999999998</v>
+      </c>
+      <c r="R24">
+        <v>1.9682729999999999</v>
+      </c>
+      <c r="S24">
+        <v>54.096254000000002</v>
+      </c>
+      <c r="T24">
+        <v>53.983975999999998</v>
+      </c>
+      <c r="U24">
+        <v>78.463807000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25">
         <v>0.1</v>
       </c>
@@ -9652,8 +13657,44 @@
       <c r="F25">
         <v>74.876435000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="H25">
+        <v>0.1</v>
+      </c>
+      <c r="I25">
+        <v>2.3433630000000001</v>
+      </c>
+      <c r="J25">
+        <v>2.1347420000000001</v>
+      </c>
+      <c r="K25">
+        <v>47.987481000000002</v>
+      </c>
+      <c r="L25">
+        <v>51.558514000000002</v>
+      </c>
+      <c r="M25">
+        <v>76.959103999999996</v>
+      </c>
+      <c r="P25">
+        <v>0.1</v>
+      </c>
+      <c r="Q25">
+        <v>2.0098889999999998</v>
+      </c>
+      <c r="R25">
+        <v>1.926933</v>
+      </c>
+      <c r="S25">
+        <v>54.300387999999998</v>
+      </c>
+      <c r="T25">
+        <v>54.898755999999999</v>
+      </c>
+      <c r="U25">
+        <v>79.410475000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26">
         <v>0.1</v>
       </c>
@@ -9672,8 +13713,44 @@
       <c r="F26">
         <v>75.687099000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="H26">
+        <v>0.1</v>
+      </c>
+      <c r="I26">
+        <v>2.3378209999999999</v>
+      </c>
+      <c r="J26">
+        <v>2.2079740000000001</v>
+      </c>
+      <c r="K26">
+        <v>48.068185999999997</v>
+      </c>
+      <c r="L26">
+        <v>49.677484</v>
+      </c>
+      <c r="M26">
+        <v>75.296474000000003</v>
+      </c>
+      <c r="P26">
+        <v>0.1</v>
+      </c>
+      <c r="Q26">
+        <v>1.9978089999999999</v>
+      </c>
+      <c r="R26">
+        <v>1.8965730000000001</v>
+      </c>
+      <c r="S26">
+        <v>54.505068000000001</v>
+      </c>
+      <c r="T26">
+        <v>55.355150000000002</v>
+      </c>
+      <c r="U26">
+        <v>79.739317999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27">
         <v>0.1</v>
       </c>
@@ -9692,8 +13769,44 @@
       <c r="F27">
         <v>74.671474000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="H27">
+        <v>0.1</v>
+      </c>
+      <c r="I27">
+        <v>2.3358940000000001</v>
+      </c>
+      <c r="J27">
+        <v>2.1210140000000002</v>
+      </c>
+      <c r="K27">
+        <v>48.14537</v>
+      </c>
+      <c r="L27">
+        <v>51.546474000000003</v>
+      </c>
+      <c r="M27">
+        <v>77.027243999999996</v>
+      </c>
+      <c r="P27">
+        <v>0.1</v>
+      </c>
+      <c r="Q27">
+        <v>1.99211</v>
+      </c>
+      <c r="R27">
+        <v>1.968879</v>
+      </c>
+      <c r="S27">
+        <v>54.668686999999998</v>
+      </c>
+      <c r="T27">
+        <v>54.191080999999997</v>
+      </c>
+      <c r="U27">
+        <v>78.649901999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28">
         <v>0.1</v>
       </c>
@@ -9712,8 +13825,44 @@
       <c r="F28">
         <v>75.290976000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="H28">
+        <v>0.1</v>
+      </c>
+      <c r="I28">
+        <v>2.3365109999999998</v>
+      </c>
+      <c r="J28">
+        <v>2.3519760000000001</v>
+      </c>
+      <c r="K28">
+        <v>48.118771000000002</v>
+      </c>
+      <c r="L28">
+        <v>47.737962000000003</v>
+      </c>
+      <c r="M28">
+        <v>73.204320999999993</v>
+      </c>
+      <c r="P28">
+        <v>0.1</v>
+      </c>
+      <c r="Q28">
+        <v>1.98302</v>
+      </c>
+      <c r="R28">
+        <v>1.915009</v>
+      </c>
+      <c r="S28">
+        <v>54.830511000000001</v>
+      </c>
+      <c r="T28">
+        <v>55.446826999999999</v>
+      </c>
+      <c r="U28">
+        <v>79.821029999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29">
         <v>0.1</v>
       </c>
@@ -9732,8 +13881,44 @@
       <c r="F29">
         <v>75.829327000000006</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="H29">
+        <v>0.1</v>
+      </c>
+      <c r="I29">
+        <v>2.330667</v>
+      </c>
+      <c r="J29">
+        <v>2.1192920000000002</v>
+      </c>
+      <c r="K29">
+        <v>48.219358999999997</v>
+      </c>
+      <c r="L29">
+        <v>51.644630999999997</v>
+      </c>
+      <c r="M29">
+        <v>76.866986999999995</v>
+      </c>
+      <c r="P29">
+        <v>0.1</v>
+      </c>
+      <c r="Q29">
+        <v>1.9747300000000001</v>
+      </c>
+      <c r="R29">
+        <v>1.919694</v>
+      </c>
+      <c r="S29">
+        <v>54.956600999999999</v>
+      </c>
+      <c r="T29">
+        <v>54.990434</v>
+      </c>
+      <c r="U29">
+        <v>79.528060999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30">
         <v>0.1</v>
       </c>
@@ -9752,8 +13937,44 @@
       <c r="F30">
         <v>74.947917000000004</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="H30">
+        <v>0.1</v>
+      </c>
+      <c r="I30">
+        <v>2.3279329999999998</v>
+      </c>
+      <c r="J30">
+        <v>2.2294870000000002</v>
+      </c>
+      <c r="K30">
+        <v>48.238284</v>
+      </c>
+      <c r="L30">
+        <v>49.256810999999999</v>
+      </c>
+      <c r="M30">
+        <v>74.777643999999995</v>
+      </c>
+      <c r="P30">
+        <v>0.1</v>
+      </c>
+      <c r="Q30">
+        <v>1.9682109999999999</v>
+      </c>
+      <c r="R30">
+        <v>1.946075</v>
+      </c>
+      <c r="S30">
+        <v>55.152361999999997</v>
+      </c>
+      <c r="T30">
+        <v>54.344707</v>
+      </c>
+      <c r="U30">
+        <v>78.981983</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31">
         <v>0.1</v>
       </c>
@@ -9772,8 +13993,44 @@
       <c r="F31">
         <v>76.293447</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="H31">
+        <v>0.1</v>
+      </c>
+      <c r="I31">
+        <v>2.3249780000000002</v>
+      </c>
+      <c r="J31">
+        <v>2.3508619999999998</v>
+      </c>
+      <c r="K31">
+        <v>48.340566000000003</v>
+      </c>
+      <c r="L31">
+        <v>47.090242000000003</v>
+      </c>
+      <c r="M31">
+        <v>72.945233000000002</v>
+      </c>
+      <c r="P31">
+        <v>0.1</v>
+      </c>
+      <c r="Q31">
+        <v>2.3282470000000002</v>
+      </c>
+      <c r="R31">
+        <v>2.223646</v>
+      </c>
+      <c r="S31">
+        <v>48.165405</v>
+      </c>
+      <c r="T31">
+        <v>49.141024000000002</v>
+      </c>
+      <c r="U31">
+        <v>74.818638000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32">
         <v>0.1</v>
       </c>
@@ -9792,8 +14049,47 @@
       <c r="F32">
         <v>74.407050999999996</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="H32">
+        <v>0.1</v>
+      </c>
+      <c r="I32">
+        <v>2.3234659999999998</v>
+      </c>
+      <c r="J32">
+        <v>2.1695389999999999</v>
+      </c>
+      <c r="K32">
+        <v>48.402293999999998</v>
+      </c>
+      <c r="L32">
+        <v>50.414662999999997</v>
+      </c>
+      <c r="M32">
+        <v>76.137821000000002</v>
+      </c>
+      <c r="P32">
+        <v>0.1</v>
+      </c>
+      <c r="Q32">
+        <v>2.261136</v>
+      </c>
+      <c r="R32">
+        <v>2.1472910000000001</v>
+      </c>
+      <c r="S32">
+        <v>49.455981999999999</v>
+      </c>
+      <c r="T32">
+        <v>50.719467000000002</v>
+      </c>
+      <c r="U32">
+        <v>76.008449999999996</v>
+      </c>
+      <c r="W32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33">
         <v>0.01</v>
       </c>
@@ -9812,8 +14108,44 @@
       <c r="F33">
         <v>85.250400999999997</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="H33">
+        <v>0.01</v>
+      </c>
+      <c r="I33">
+        <v>1.8204579999999999</v>
+      </c>
+      <c r="J33">
+        <v>1.4886159999999999</v>
+      </c>
+      <c r="K33">
+        <v>58.466143000000002</v>
+      </c>
+      <c r="L33">
+        <v>64.362981000000005</v>
+      </c>
+      <c r="M33">
+        <v>86.051682999999997</v>
+      </c>
+      <c r="P33">
+        <v>0.01</v>
+      </c>
+      <c r="Q33">
+        <v>1.819412</v>
+      </c>
+      <c r="R33">
+        <v>1.5176940000000001</v>
+      </c>
+      <c r="S33">
+        <v>58.488678</v>
+      </c>
+      <c r="T33">
+        <v>63.543008999999998</v>
+      </c>
+      <c r="U33">
+        <v>85.15625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34">
         <v>0.01</v>
       </c>
@@ -9832,8 +14164,44 @@
       <c r="F34">
         <v>85.935496999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="H34">
+        <v>0.01</v>
+      </c>
+      <c r="I34">
+        <v>1.698863</v>
+      </c>
+      <c r="J34">
+        <v>1.4453450000000001</v>
+      </c>
+      <c r="K34">
+        <v>60.864355000000003</v>
+      </c>
+      <c r="L34">
+        <v>65.418670000000006</v>
+      </c>
+      <c r="M34">
+        <v>86.570513000000005</v>
+      </c>
+      <c r="P34">
+        <v>0.01</v>
+      </c>
+      <c r="Q34">
+        <v>1.7196229999999999</v>
+      </c>
+      <c r="R34">
+        <v>1.4657020000000001</v>
+      </c>
+      <c r="S34">
+        <v>60.436227000000002</v>
+      </c>
+      <c r="T34">
+        <v>64.588648000000006</v>
+      </c>
+      <c r="U34">
+        <v>86.009247000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35">
         <v>0.01</v>
       </c>
@@ -9852,8 +14220,44 @@
       <c r="F35">
         <v>86.202567000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="H35">
+        <v>0.01</v>
+      </c>
+      <c r="I35">
+        <v>1.6491960000000001</v>
+      </c>
+      <c r="J35">
+        <v>1.4066669999999999</v>
+      </c>
+      <c r="K35">
+        <v>61.836990999999998</v>
+      </c>
+      <c r="L35">
+        <v>66.187021999999999</v>
+      </c>
+      <c r="M35">
+        <v>86.997767999999994</v>
+      </c>
+      <c r="P35">
+        <v>0.01</v>
+      </c>
+      <c r="Q35">
+        <v>1.6798519999999999</v>
+      </c>
+      <c r="R35">
+        <v>1.4514800000000001</v>
+      </c>
+      <c r="S35">
+        <v>61.200648999999999</v>
+      </c>
+      <c r="T35">
+        <v>64.805882999999994</v>
+      </c>
+      <c r="U35">
+        <v>86.168685999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36">
         <v>0.01</v>
       </c>
@@ -9872,8 +14276,44 @@
       <c r="F36">
         <v>86.356170000000006</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="H36">
+        <v>0.01</v>
+      </c>
+      <c r="I36">
+        <v>1.6144780000000001</v>
+      </c>
+      <c r="J36">
+        <v>1.3958390000000001</v>
+      </c>
+      <c r="K36">
+        <v>62.571179000000001</v>
+      </c>
+      <c r="L36">
+        <v>66.420271999999997</v>
+      </c>
+      <c r="M36">
+        <v>87.055288000000004</v>
+      </c>
+      <c r="P36">
+        <v>0.01</v>
+      </c>
+      <c r="Q36">
+        <v>1.651999</v>
+      </c>
+      <c r="R36">
+        <v>1.448482</v>
+      </c>
+      <c r="S36">
+        <v>61.814219999999999</v>
+      </c>
+      <c r="T36">
+        <v>64.827641999999997</v>
+      </c>
+      <c r="U36">
+        <v>86.181137000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37">
         <v>0.01</v>
       </c>
@@ -9892,8 +14332,44 @@
       <c r="F37">
         <v>86.344150999999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="H37">
+        <v>0.01</v>
+      </c>
+      <c r="I37">
+        <v>1.5884370000000001</v>
+      </c>
+      <c r="J37">
+        <v>1.38914</v>
+      </c>
+      <c r="K37">
+        <v>63.073135000000001</v>
+      </c>
+      <c r="L37">
+        <v>66.696714999999998</v>
+      </c>
+      <c r="M37">
+        <v>87.277643999999995</v>
+      </c>
+      <c r="P37">
+        <v>0.01</v>
+      </c>
+      <c r="Q37">
+        <v>1.630781</v>
+      </c>
+      <c r="R37">
+        <v>1.4342969999999999</v>
+      </c>
+      <c r="S37">
+        <v>62.193370000000002</v>
+      </c>
+      <c r="T37">
+        <v>65.330038000000002</v>
+      </c>
+      <c r="U37">
+        <v>86.280293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38">
         <v>0.01</v>
       </c>
@@ -9912,8 +14388,44 @@
       <c r="F38">
         <v>86.722735999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="H38">
+        <v>0.01</v>
+      </c>
+      <c r="I38">
+        <v>1.5713010000000001</v>
+      </c>
+      <c r="J38">
+        <v>1.385915</v>
+      </c>
+      <c r="K38">
+        <v>63.432426999999997</v>
+      </c>
+      <c r="L38">
+        <v>66.673310000000001</v>
+      </c>
+      <c r="M38">
+        <v>87.260841999999997</v>
+      </c>
+      <c r="P38">
+        <v>0.01</v>
+      </c>
+      <c r="Q38">
+        <v>1.6164270000000001</v>
+      </c>
+      <c r="R38">
+        <v>1.4193150000000001</v>
+      </c>
+      <c r="S38">
+        <v>62.511549000000002</v>
+      </c>
+      <c r="T38">
+        <v>65.557238999999996</v>
+      </c>
+      <c r="U38">
+        <v>86.521445</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39">
         <v>0.01</v>
       </c>
@@ -9932,8 +14444,44 @@
       <c r="F39">
         <v>86.714743999999996</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="H39">
+        <v>0.01</v>
+      </c>
+      <c r="I39">
+        <v>1.564557</v>
+      </c>
+      <c r="J39">
+        <v>1.3961650000000001</v>
+      </c>
+      <c r="K39">
+        <v>63.576405000000001</v>
+      </c>
+      <c r="L39">
+        <v>66.588542000000004</v>
+      </c>
+      <c r="M39">
+        <v>87.163461999999996</v>
+      </c>
+      <c r="P39">
+        <v>0.01</v>
+      </c>
+      <c r="Q39">
+        <v>1.60205</v>
+      </c>
+      <c r="R39">
+        <v>1.4381090000000001</v>
+      </c>
+      <c r="S39">
+        <v>62.772047999999998</v>
+      </c>
+      <c r="T39">
+        <v>65.331023999999999</v>
+      </c>
+      <c r="U39">
+        <v>86.378462999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40">
         <v>0.01</v>
       </c>
@@ -9952,8 +14500,44 @@
       <c r="F40">
         <v>86.532452000000006</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="H40">
+        <v>0.01</v>
+      </c>
+      <c r="I40">
+        <v>1.5517510000000001</v>
+      </c>
+      <c r="J40">
+        <v>1.369893</v>
+      </c>
+      <c r="K40">
+        <v>63.791832999999997</v>
+      </c>
+      <c r="L40">
+        <v>66.915064000000001</v>
+      </c>
+      <c r="M40">
+        <v>87.546074000000004</v>
+      </c>
+      <c r="P40">
+        <v>0.01</v>
+      </c>
+      <c r="Q40">
+        <v>1.5979589999999999</v>
+      </c>
+      <c r="R40">
+        <v>1.4265049999999999</v>
+      </c>
+      <c r="S40">
+        <v>62.893591000000001</v>
+      </c>
+      <c r="T40">
+        <v>65.312100999999998</v>
+      </c>
+      <c r="U40">
+        <v>86.573262</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41">
         <v>0.01</v>
       </c>
@@ -9972,8 +14556,44 @@
       <c r="F41">
         <v>86.413822999999994</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="H41">
+        <v>0.01</v>
+      </c>
+      <c r="I41">
+        <v>1.54447</v>
+      </c>
+      <c r="J41">
+        <v>1.3768149999999999</v>
+      </c>
+      <c r="K41">
+        <v>63.964452999999999</v>
+      </c>
+      <c r="L41">
+        <v>67.014110000000002</v>
+      </c>
+      <c r="M41">
+        <v>87.396365000000003</v>
+      </c>
+      <c r="P41">
+        <v>0.01</v>
+      </c>
+      <c r="Q41">
+        <v>1.587024</v>
+      </c>
+      <c r="R41">
+        <v>1.424477</v>
+      </c>
+      <c r="S41">
+        <v>63.054555999999998</v>
+      </c>
+      <c r="T41">
+        <v>65.561223999999996</v>
+      </c>
+      <c r="U41">
+        <v>86.625079999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42">
         <v>0.01</v>
       </c>
@@ -9992,8 +14612,47 @@
       <c r="F42">
         <v>86.706731000000005</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="H42">
+        <v>0.01</v>
+      </c>
+      <c r="I42">
+        <v>1.537433</v>
+      </c>
+      <c r="J42">
+        <v>1.3650869999999999</v>
+      </c>
+      <c r="K42">
+        <v>64.089191999999997</v>
+      </c>
+      <c r="L42">
+        <v>67.133413000000004</v>
+      </c>
+      <c r="M42">
+        <v>87.600160000000002</v>
+      </c>
+      <c r="P42">
+        <v>0.01</v>
+      </c>
+      <c r="Q42">
+        <v>1.580867</v>
+      </c>
+      <c r="R42">
+        <v>1.425543</v>
+      </c>
+      <c r="S42">
+        <v>63.217185999999998</v>
+      </c>
+      <c r="T42">
+        <v>65.467945</v>
+      </c>
+      <c r="U42">
+        <v>86.583843000000002</v>
+      </c>
+      <c r="W42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43">
         <v>0.01</v>
       </c>
@@ -10012,8 +14671,44 @@
       <c r="F43">
         <v>86.5625</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="H43">
+        <v>0.01</v>
+      </c>
+      <c r="I43">
+        <v>1.5351349999999999</v>
+      </c>
+      <c r="J43">
+        <v>1.3843350000000001</v>
+      </c>
+      <c r="K43">
+        <v>64.116910000000004</v>
+      </c>
+      <c r="L43">
+        <v>66.686699000000004</v>
+      </c>
+      <c r="M43">
+        <v>87.331731000000005</v>
+      </c>
+      <c r="P43">
+        <v>0.01</v>
+      </c>
+      <c r="Q43">
+        <v>1.57376</v>
+      </c>
+      <c r="R43">
+        <v>1.427224</v>
+      </c>
+      <c r="S43">
+        <v>63.303185999999997</v>
+      </c>
+      <c r="T43">
+        <v>65.270249000000007</v>
+      </c>
+      <c r="U43">
+        <v>86.403858</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44">
         <v>0.01</v>
       </c>
@@ -10032,8 +14727,44 @@
       <c r="F44">
         <v>86.573262</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="H44">
+        <v>0.01</v>
+      </c>
+      <c r="I44">
+        <v>1.5312129999999999</v>
+      </c>
+      <c r="J44">
+        <v>1.3899889999999999</v>
+      </c>
+      <c r="K44">
+        <v>64.152721999999997</v>
+      </c>
+      <c r="L44">
+        <v>66.816805000000002</v>
+      </c>
+      <c r="M44">
+        <v>87.408322999999996</v>
+      </c>
+      <c r="P44">
+        <v>0.01</v>
+      </c>
+      <c r="Q44">
+        <v>1.5673729999999999</v>
+      </c>
+      <c r="R44">
+        <v>1.4042650000000001</v>
+      </c>
+      <c r="S44">
+        <v>63.463994</v>
+      </c>
+      <c r="T44">
+        <v>65.983737000000005</v>
+      </c>
+      <c r="U44">
+        <v>86.856266000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45">
         <v>0.01</v>
       </c>
@@ -10052,8 +14783,44 @@
       <c r="F45">
         <v>86.352163000000004</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="H45">
+        <v>0.01</v>
+      </c>
+      <c r="I45">
+        <v>1.52677</v>
+      </c>
+      <c r="J45">
+        <v>1.3825460000000001</v>
+      </c>
+      <c r="K45">
+        <v>64.230880999999997</v>
+      </c>
+      <c r="L45">
+        <v>67.057292000000004</v>
+      </c>
+      <c r="M45">
+        <v>87.443910000000002</v>
+      </c>
+      <c r="P45">
+        <v>0.01</v>
+      </c>
+      <c r="Q45">
+        <v>1.5666519999999999</v>
+      </c>
+      <c r="R45">
+        <v>1.41791</v>
+      </c>
+      <c r="S45">
+        <v>63.427539000000003</v>
+      </c>
+      <c r="T45">
+        <v>65.637080999999995</v>
+      </c>
+      <c r="U45">
+        <v>86.587869999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46">
         <v>0.01</v>
       </c>
@@ -10072,8 +14839,44 @@
       <c r="F46">
         <v>86.324118999999996</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="H46">
+        <v>0.01</v>
+      </c>
+      <c r="I46">
+        <v>1.525674</v>
+      </c>
+      <c r="J46">
+        <v>1.418045</v>
+      </c>
+      <c r="K46">
+        <v>64.269245999999995</v>
+      </c>
+      <c r="L46">
+        <v>66.113782</v>
+      </c>
+      <c r="M46">
+        <v>86.919071000000002</v>
+      </c>
+      <c r="P46">
+        <v>0.01</v>
+      </c>
+      <c r="Q46">
+        <v>1.5634699999999999</v>
+      </c>
+      <c r="R46">
+        <v>1.4134040000000001</v>
+      </c>
+      <c r="S46">
+        <v>63.537348999999999</v>
+      </c>
+      <c r="T46">
+        <v>65.732620999999995</v>
+      </c>
+      <c r="U46">
+        <v>86.611129000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47">
         <v>0.01</v>
       </c>
@@ -10092,8 +14895,44 @@
       <c r="F47">
         <v>86.571269000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="H47">
+        <v>0.01</v>
+      </c>
+      <c r="I47">
+        <v>1.5254239999999999</v>
+      </c>
+      <c r="J47">
+        <v>1.4005840000000001</v>
+      </c>
+      <c r="K47">
+        <v>64.282011999999995</v>
+      </c>
+      <c r="L47">
+        <v>66.402264000000002</v>
+      </c>
+      <c r="M47">
+        <v>87.161192999999997</v>
+      </c>
+      <c r="P47">
+        <v>0.01</v>
+      </c>
+      <c r="Q47">
+        <v>1.562384</v>
+      </c>
+      <c r="R47">
+        <v>1.4235690000000001</v>
+      </c>
+      <c r="S47">
+        <v>63.544944999999998</v>
+      </c>
+      <c r="T47">
+        <v>65.493463000000006</v>
+      </c>
+      <c r="U47">
+        <v>86.503507999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48">
         <v>0.01</v>
       </c>
@@ -10112,8 +14951,44 @@
       <c r="F48">
         <v>86.292067000000003</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="H48">
+        <v>0.01</v>
+      </c>
+      <c r="I48">
+        <v>1.5224690000000001</v>
+      </c>
+      <c r="J48">
+        <v>1.436253</v>
+      </c>
+      <c r="K48">
+        <v>64.303431000000003</v>
+      </c>
+      <c r="L48">
+        <v>65.699118999999996</v>
+      </c>
+      <c r="M48">
+        <v>86.840946000000002</v>
+      </c>
+      <c r="P48">
+        <v>0.01</v>
+      </c>
+      <c r="Q48">
+        <v>1.5591140000000001</v>
+      </c>
+      <c r="R48">
+        <v>1.4136580000000001</v>
+      </c>
+      <c r="S48">
+        <v>63.584991000000002</v>
+      </c>
+      <c r="T48">
+        <v>65.780041999999995</v>
+      </c>
+      <c r="U48">
+        <v>86.603978999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49">
         <v>0.01</v>
       </c>
@@ -10132,8 +15007,44 @@
       <c r="F49">
         <v>86.440303999999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="H49">
+        <v>0.01</v>
+      </c>
+      <c r="I49">
+        <v>1.5174339999999999</v>
+      </c>
+      <c r="J49">
+        <v>1.3969959999999999</v>
+      </c>
+      <c r="K49">
+        <v>64.450939000000005</v>
+      </c>
+      <c r="L49">
+        <v>66.608574000000004</v>
+      </c>
+      <c r="M49">
+        <v>87.415864999999997</v>
+      </c>
+      <c r="P49">
+        <v>0.01</v>
+      </c>
+      <c r="Q49">
+        <v>1.558368</v>
+      </c>
+      <c r="R49">
+        <v>1.422218</v>
+      </c>
+      <c r="S49">
+        <v>63.600866000000003</v>
+      </c>
+      <c r="T49">
+        <v>65.497449000000003</v>
+      </c>
+      <c r="U49">
+        <v>86.471620000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50">
         <v>0.01</v>
       </c>
@@ -10152,8 +15063,44 @@
       <c r="F50">
         <v>86.252003000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="H50">
+        <v>0.01</v>
+      </c>
+      <c r="I50">
+        <v>1.5143489999999999</v>
+      </c>
+      <c r="J50">
+        <v>1.401894</v>
+      </c>
+      <c r="K50">
+        <v>64.478489999999994</v>
+      </c>
+      <c r="L50">
+        <v>66.470353000000003</v>
+      </c>
+      <c r="M50">
+        <v>87.245593</v>
+      </c>
+      <c r="P50">
+        <v>0.01</v>
+      </c>
+      <c r="Q50">
+        <v>1.5562549999999999</v>
+      </c>
+      <c r="R50">
+        <v>1.410069</v>
+      </c>
+      <c r="S50">
+        <v>63.666254000000002</v>
+      </c>
+      <c r="T50">
+        <v>65.888074000000003</v>
+      </c>
+      <c r="U50">
+        <v>86.734694000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51">
         <v>0.01</v>
       </c>
@@ -10172,8 +15119,44 @@
       <c r="F51">
         <v>86.174665000000005</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="H51">
+        <v>0.01</v>
+      </c>
+      <c r="I51">
+        <v>1.511736</v>
+      </c>
+      <c r="J51">
+        <v>1.3989640000000001</v>
+      </c>
+      <c r="K51">
+        <v>64.541786000000002</v>
+      </c>
+      <c r="L51">
+        <v>66.398278000000005</v>
+      </c>
+      <c r="M51">
+        <v>87.234932999999998</v>
+      </c>
+      <c r="P51">
+        <v>0.01</v>
+      </c>
+      <c r="Q51">
+        <v>1.5584389999999999</v>
+      </c>
+      <c r="R51">
+        <v>1.429937</v>
+      </c>
+      <c r="S51">
+        <v>63.585068999999997</v>
+      </c>
+      <c r="T51">
+        <v>65.461904000000004</v>
+      </c>
+      <c r="U51">
+        <v>86.475112999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52">
         <v>0.01</v>
       </c>
@@ -10192,8 +15175,47 @@
       <c r="F52">
         <v>86.187900999999997</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="H52">
+        <v>0.01</v>
+      </c>
+      <c r="I52">
+        <v>1.5116229999999999</v>
+      </c>
+      <c r="J52">
+        <v>1.4242809999999999</v>
+      </c>
+      <c r="K52">
+        <v>64.501913999999999</v>
+      </c>
+      <c r="L52">
+        <v>66.241986999999995</v>
+      </c>
+      <c r="M52">
+        <v>87.065303999999998</v>
+      </c>
+      <c r="P52">
+        <v>0.01</v>
+      </c>
+      <c r="Q52">
+        <v>1.5545119999999999</v>
+      </c>
+      <c r="R52">
+        <v>1.44068</v>
+      </c>
+      <c r="S52">
+        <v>63.692639999999997</v>
+      </c>
+      <c r="T52">
+        <v>65.102838000000006</v>
+      </c>
+      <c r="U52">
+        <v>86.290257999999994</v>
+      </c>
+      <c r="W52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53">
         <v>0.01</v>
       </c>
@@ -10212,8 +15234,44 @@
       <c r="F53">
         <v>86.183893999999995</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="H53">
+        <v>0.01</v>
+      </c>
+      <c r="I53">
+        <v>1.5059439999999999</v>
+      </c>
+      <c r="J53">
+        <v>1.4252880000000001</v>
+      </c>
+      <c r="K53">
+        <v>64.616477000000003</v>
+      </c>
+      <c r="L53">
+        <v>65.999599000000003</v>
+      </c>
+      <c r="M53">
+        <v>86.943109000000007</v>
+      </c>
+      <c r="P53">
+        <v>0.01</v>
+      </c>
+      <c r="Q53">
+        <v>1.554087</v>
+      </c>
+      <c r="R53">
+        <v>1.4284809999999999</v>
+      </c>
+      <c r="S53">
+        <v>63.714089999999999</v>
+      </c>
+      <c r="T53">
+        <v>65.351961000000003</v>
+      </c>
+      <c r="U53">
+        <v>86.561304000000007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54">
         <v>0.01</v>
       </c>
@@ -10232,8 +15290,44 @@
       <c r="F54">
         <v>86.320153000000005</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="H54">
+        <v>0.01</v>
+      </c>
+      <c r="I54">
+        <v>1.503574</v>
+      </c>
+      <c r="J54">
+        <v>1.3953</v>
+      </c>
+      <c r="K54">
+        <v>64.669514000000007</v>
+      </c>
+      <c r="L54">
+        <v>66.747050000000002</v>
+      </c>
+      <c r="M54">
+        <v>87.422274000000002</v>
+      </c>
+      <c r="P54">
+        <v>0.01</v>
+      </c>
+      <c r="Q54">
+        <v>1.552422</v>
+      </c>
+      <c r="R54">
+        <v>1.4297310000000001</v>
+      </c>
+      <c r="S54">
+        <v>63.736277000000001</v>
+      </c>
+      <c r="T54">
+        <v>65.457876999999996</v>
+      </c>
+      <c r="U54">
+        <v>86.469071999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55">
         <v>0.01</v>
       </c>
@@ -10252,8 +15346,44 @@
       <c r="F55">
         <v>86.169871999999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="H55">
+        <v>0.01</v>
+      </c>
+      <c r="I55">
+        <v>1.502712</v>
+      </c>
+      <c r="J55">
+        <v>1.3962289999999999</v>
+      </c>
+      <c r="K55">
+        <v>64.650583999999995</v>
+      </c>
+      <c r="L55">
+        <v>66.734775999999997</v>
+      </c>
+      <c r="M55">
+        <v>87.327724000000003</v>
+      </c>
+      <c r="P55">
+        <v>0.01</v>
+      </c>
+      <c r="Q55">
+        <v>1.5533490000000001</v>
+      </c>
+      <c r="R55">
+        <v>1.4277230000000001</v>
+      </c>
+      <c r="S55">
+        <v>63.671250000000001</v>
+      </c>
+      <c r="T55">
+        <v>65.527343999999999</v>
+      </c>
+      <c r="U55">
+        <v>86.545360000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56">
         <v>0.01</v>
       </c>
@@ -10272,8 +15402,44 @@
       <c r="F56">
         <v>86.290064000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="H56">
+        <v>0.01</v>
+      </c>
+      <c r="I56">
+        <v>1.501965</v>
+      </c>
+      <c r="J56">
+        <v>1.395988</v>
+      </c>
+      <c r="K56">
+        <v>64.717211000000006</v>
+      </c>
+      <c r="L56">
+        <v>66.470353000000003</v>
+      </c>
+      <c r="M56">
+        <v>87.285657</v>
+      </c>
+      <c r="P56">
+        <v>0.01</v>
+      </c>
+      <c r="Q56">
+        <v>1.555666</v>
+      </c>
+      <c r="R56">
+        <v>1.438293</v>
+      </c>
+      <c r="S56">
+        <v>63.640338</v>
+      </c>
+      <c r="T56">
+        <v>65.357939999999999</v>
+      </c>
+      <c r="U56">
+        <v>86.405850999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57">
         <v>0.01</v>
       </c>
@@ -10292,8 +15458,44 @@
       <c r="F57">
         <v>86.198581000000004</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="H57">
+        <v>0.01</v>
+      </c>
+      <c r="I57">
+        <v>1.497436</v>
+      </c>
+      <c r="J57">
+        <v>1.4019200000000001</v>
+      </c>
+      <c r="K57">
+        <v>64.834384</v>
+      </c>
+      <c r="L57">
+        <v>66.661351999999994</v>
+      </c>
+      <c r="M57">
+        <v>87.179129000000003</v>
+      </c>
+      <c r="P57">
+        <v>0.01</v>
+      </c>
+      <c r="Q57">
+        <v>1.5527470000000001</v>
+      </c>
+      <c r="R57">
+        <v>1.4349780000000001</v>
+      </c>
+      <c r="S57">
+        <v>63.694192000000001</v>
+      </c>
+      <c r="T57">
+        <v>65.173969</v>
+      </c>
+      <c r="U57">
+        <v>86.420747000000006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58">
         <v>0.01</v>
       </c>
@@ -10312,8 +15514,44 @@
       <c r="F58">
         <v>86.077724000000003</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="H58">
+        <v>0.01</v>
+      </c>
+      <c r="I58">
+        <v>1.49586</v>
+      </c>
+      <c r="J58">
+        <v>1.4105730000000001</v>
+      </c>
+      <c r="K58">
+        <v>64.864279999999994</v>
+      </c>
+      <c r="L58">
+        <v>66.300079999999994</v>
+      </c>
+      <c r="M58">
+        <v>87.243589999999998</v>
+      </c>
+      <c r="P58">
+        <v>0.01</v>
+      </c>
+      <c r="Q58">
+        <v>1.5521290000000001</v>
+      </c>
+      <c r="R58">
+        <v>1.428045</v>
+      </c>
+      <c r="S58">
+        <v>63.670158000000001</v>
+      </c>
+      <c r="T58">
+        <v>65.343988999999993</v>
+      </c>
+      <c r="U58">
+        <v>86.639031000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59">
         <v>0.01</v>
       </c>
@@ -10332,8 +15570,44 @@
       <c r="F59">
         <v>86.474359000000007</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="H59">
+        <v>0.01</v>
+      </c>
+      <c r="I59">
+        <v>1.4917339999999999</v>
+      </c>
+      <c r="J59">
+        <v>1.420207</v>
+      </c>
+      <c r="K59">
+        <v>64.930226000000005</v>
+      </c>
+      <c r="L59">
+        <v>66.241986999999995</v>
+      </c>
+      <c r="M59">
+        <v>87.083332999999996</v>
+      </c>
+      <c r="P59">
+        <v>0.01</v>
+      </c>
+      <c r="Q59">
+        <v>1.5501769999999999</v>
+      </c>
+      <c r="R59">
+        <v>1.463106</v>
+      </c>
+      <c r="S59">
+        <v>63.765003999999998</v>
+      </c>
+      <c r="T59">
+        <v>64.662388000000007</v>
+      </c>
+      <c r="U59">
+        <v>86.075016000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60">
         <v>0.01</v>
       </c>
@@ -10352,8 +15626,44 @@
       <c r="F60">
         <v>85.678411999999994</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="H60">
+        <v>0.01</v>
+      </c>
+      <c r="I60">
+        <v>1.489412</v>
+      </c>
+      <c r="J60">
+        <v>1.4254739999999999</v>
+      </c>
+      <c r="K60">
+        <v>64.979422999999997</v>
+      </c>
+      <c r="L60">
+        <v>66.202966000000004</v>
+      </c>
+      <c r="M60">
+        <v>87.019690999999995</v>
+      </c>
+      <c r="P60">
+        <v>0.01</v>
+      </c>
+      <c r="Q60">
+        <v>1.55203</v>
+      </c>
+      <c r="R60">
+        <v>1.4409689999999999</v>
+      </c>
+      <c r="S60">
+        <v>63.717776000000001</v>
+      </c>
+      <c r="T60">
+        <v>65.135711999999998</v>
+      </c>
+      <c r="U60">
+        <v>86.378462999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61">
         <v>0.01</v>
       </c>
@@ -10372,8 +15682,44 @@
       <c r="F61">
         <v>86.061699000000004</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="H61">
+        <v>0.01</v>
+      </c>
+      <c r="I61">
+        <v>1.4887999999999999</v>
+      </c>
+      <c r="J61">
+        <v>1.39055</v>
+      </c>
+      <c r="K61">
+        <v>64.995317</v>
+      </c>
+      <c r="L61">
+        <v>66.836939000000001</v>
+      </c>
+      <c r="M61">
+        <v>87.461939000000001</v>
+      </c>
+      <c r="P61">
+        <v>0.01</v>
+      </c>
+      <c r="Q61">
+        <v>1.5494399999999999</v>
+      </c>
+      <c r="R61">
+        <v>1.4394260000000001</v>
+      </c>
+      <c r="S61">
+        <v>63.748345999999998</v>
+      </c>
+      <c r="T61">
+        <v>65.218430999999995</v>
+      </c>
+      <c r="U61">
+        <v>86.461654999999993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62">
         <v>0.01</v>
       </c>
@@ -10392,8 +15738,47 @@
       <c r="F62">
         <v>86.456329999999994</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="H62">
+        <v>0.01</v>
+      </c>
+      <c r="I62">
+        <v>1.482974</v>
+      </c>
+      <c r="J62">
+        <v>1.4102779999999999</v>
+      </c>
+      <c r="K62">
+        <v>65.079187000000005</v>
+      </c>
+      <c r="L62">
+        <v>66.266025999999997</v>
+      </c>
+      <c r="M62">
+        <v>87.169471000000001</v>
+      </c>
+      <c r="P62">
+        <v>0.01</v>
+      </c>
+      <c r="Q62">
+        <v>1.5483150000000001</v>
+      </c>
+      <c r="R62">
+        <v>1.432769</v>
+      </c>
+      <c r="S62">
+        <v>63.763052000000002</v>
+      </c>
+      <c r="T62">
+        <v>65.300821999999997</v>
+      </c>
+      <c r="U62">
+        <v>86.537531999999999</v>
+      </c>
+      <c r="W62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63">
         <v>1E-3</v>
       </c>
@@ -10412,8 +15797,44 @@
       <c r="F63">
         <v>88.741629000000003</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="H63">
+        <v>1E-3</v>
+      </c>
+      <c r="I63">
+        <v>1.301728</v>
+      </c>
+      <c r="J63">
+        <v>1.2250650000000001</v>
+      </c>
+      <c r="K63">
+        <v>69.213521</v>
+      </c>
+      <c r="L63">
+        <v>70.406170000000003</v>
+      </c>
+      <c r="M63">
+        <v>89.574697</v>
+      </c>
+      <c r="P63">
+        <v>1E-3</v>
+      </c>
+      <c r="Q63">
+        <v>1.418118</v>
+      </c>
+      <c r="R63">
+        <v>1.291137</v>
+      </c>
+      <c r="S63">
+        <v>66.655816000000002</v>
+      </c>
+      <c r="T63">
+        <v>68.459023999999999</v>
+      </c>
+      <c r="U63">
+        <v>88.241389999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64">
         <v>1E-3</v>
       </c>
@@ -10432,8 +15853,44 @@
       <c r="F64">
         <v>88.912260000000003</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="H64">
+        <v>1E-3</v>
+      </c>
+      <c r="I64">
+        <v>1.2527109999999999</v>
+      </c>
+      <c r="J64">
+        <v>1.2183139999999999</v>
+      </c>
+      <c r="K64">
+        <v>70.299698000000006</v>
+      </c>
+      <c r="L64">
+        <v>70.627003000000002</v>
+      </c>
+      <c r="M64">
+        <v>89.633413000000004</v>
+      </c>
+      <c r="P64">
+        <v>1E-3</v>
+      </c>
+      <c r="Q64">
+        <v>1.382841</v>
+      </c>
+      <c r="R64">
+        <v>1.284063</v>
+      </c>
+      <c r="S64">
+        <v>67.453275000000005</v>
+      </c>
+      <c r="T64">
+        <v>68.636399999999995</v>
+      </c>
+      <c r="U64">
+        <v>88.339046999999994</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65">
         <v>1E-3</v>
       </c>
@@ -10452,8 +15909,44 @@
       <c r="F65">
         <v>88.942307999999997</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="H65">
+        <v>1E-3</v>
+      </c>
+      <c r="I65">
+        <v>1.2335339999999999</v>
+      </c>
+      <c r="J65">
+        <v>1.2111430000000001</v>
+      </c>
+      <c r="K65">
+        <v>70.696959000000007</v>
+      </c>
+      <c r="L65">
+        <v>70.859375</v>
+      </c>
+      <c r="M65">
+        <v>89.737579999999994</v>
+      </c>
+      <c r="P65">
+        <v>1E-3</v>
+      </c>
+      <c r="Q65">
+        <v>1.371777</v>
+      </c>
+      <c r="R65">
+        <v>1.284273</v>
+      </c>
+      <c r="S65">
+        <v>67.680464999999998</v>
+      </c>
+      <c r="T65">
+        <v>68.667445000000001</v>
+      </c>
+      <c r="U65">
+        <v>88.440319000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66">
         <v>1E-3</v>
       </c>
@@ -10472,8 +15965,44 @@
       <c r="F66">
         <v>89.084535000000002</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="H66">
+        <v>1E-3</v>
+      </c>
+      <c r="I66">
+        <v>1.2200439999999999</v>
+      </c>
+      <c r="J66">
+        <v>1.205301</v>
+      </c>
+      <c r="K66">
+        <v>71.009911000000002</v>
+      </c>
+      <c r="L66">
+        <v>70.841346000000001</v>
+      </c>
+      <c r="M66">
+        <v>89.747596000000001</v>
+      </c>
+      <c r="P66">
+        <v>1E-3</v>
+      </c>
+      <c r="Q66">
+        <v>1.364439</v>
+      </c>
+      <c r="R66">
+        <v>1.277884</v>
+      </c>
+      <c r="S66">
+        <v>67.892015000000001</v>
+      </c>
+      <c r="T66">
+        <v>68.853634999999997</v>
+      </c>
+      <c r="U66">
+        <v>88.480547999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67">
         <v>1E-3</v>
       </c>
@@ -10492,8 +16021,44 @@
       <c r="F67">
         <v>89.156170000000003</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="H67">
+        <v>1E-3</v>
+      </c>
+      <c r="I67">
+        <v>1.208853</v>
+      </c>
+      <c r="J67">
+        <v>1.2012750000000001</v>
+      </c>
+      <c r="K67">
+        <v>71.264829000000006</v>
+      </c>
+      <c r="L67">
+        <v>71.069834</v>
+      </c>
+      <c r="M67">
+        <v>89.803889999999996</v>
+      </c>
+      <c r="P67">
+        <v>1E-3</v>
+      </c>
+      <c r="Q67">
+        <v>1.358001</v>
+      </c>
+      <c r="R67">
+        <v>1.2686470000000001</v>
+      </c>
+      <c r="S67">
+        <v>68.015978000000004</v>
+      </c>
+      <c r="T67">
+        <v>68.915418000000003</v>
+      </c>
+      <c r="U67">
+        <v>88.610091999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68">
         <v>1E-3</v>
       </c>
@@ -10512,8 +16077,44 @@
       <c r="F68">
         <v>89.200721000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="H68">
+        <v>1E-3</v>
+      </c>
+      <c r="I68">
+        <v>1.199479</v>
+      </c>
+      <c r="J68">
+        <v>1.1996530000000001</v>
+      </c>
+      <c r="K68">
+        <v>71.474697000000006</v>
+      </c>
+      <c r="L68">
+        <v>71.029646999999997</v>
+      </c>
+      <c r="M68">
+        <v>89.879807999999997</v>
+      </c>
+      <c r="P68">
+        <v>1E-3</v>
+      </c>
+      <c r="Q68">
+        <v>1.350948</v>
+      </c>
+      <c r="R68">
+        <v>1.2748250000000001</v>
+      </c>
+      <c r="S68">
+        <v>68.121690999999998</v>
+      </c>
+      <c r="T68">
+        <v>68.816446999999997</v>
+      </c>
+      <c r="U68">
+        <v>88.569185000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69">
         <v>1E-3</v>
       </c>
@@ -10532,8 +16133,44 @@
       <c r="F69">
         <v>89.324920000000006</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="H69">
+        <v>1E-3</v>
+      </c>
+      <c r="I69">
+        <v>1.191425</v>
+      </c>
+      <c r="J69">
+        <v>1.1966829999999999</v>
+      </c>
+      <c r="K69">
+        <v>71.686401000000004</v>
+      </c>
+      <c r="L69">
+        <v>71.045672999999994</v>
+      </c>
+      <c r="M69">
+        <v>89.879807999999997</v>
+      </c>
+      <c r="P69">
+        <v>1E-3</v>
+      </c>
+      <c r="Q69">
+        <v>1.347369</v>
+      </c>
+      <c r="R69">
+        <v>1.2678940000000001</v>
+      </c>
+      <c r="S69">
+        <v>68.198176000000004</v>
+      </c>
+      <c r="T69">
+        <v>68.935348000000005</v>
+      </c>
+      <c r="U69">
+        <v>88.620057000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70">
         <v>1E-3</v>
       </c>
@@ -10552,8 +16189,44 @@
       <c r="F70">
         <v>89.449139000000002</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="H70">
+        <v>1E-3</v>
+      </c>
+      <c r="I70">
+        <v>1.1835629999999999</v>
+      </c>
+      <c r="J70">
+        <v>1.1927760000000001</v>
+      </c>
+      <c r="K70">
+        <v>71.815293999999994</v>
+      </c>
+      <c r="L70">
+        <v>71.253189000000006</v>
+      </c>
+      <c r="M70">
+        <v>90.049026999999995</v>
+      </c>
+      <c r="P70">
+        <v>1E-3</v>
+      </c>
+      <c r="Q70">
+        <v>1.3439779999999999</v>
+      </c>
+      <c r="R70">
+        <v>1.268591</v>
+      </c>
+      <c r="S70">
+        <v>68.285527999999999</v>
+      </c>
+      <c r="T70">
+        <v>68.927375999999995</v>
+      </c>
+      <c r="U70">
+        <v>88.659916999999993</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71">
         <v>1E-3</v>
       </c>
@@ -10572,8 +16245,44 @@
       <c r="F71">
         <v>89.358974000000003</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="H71">
+        <v>1E-3</v>
+      </c>
+      <c r="I71">
+        <v>1.1795899999999999</v>
+      </c>
+      <c r="J71">
+        <v>1.194593</v>
+      </c>
+      <c r="K71">
+        <v>71.889050999999995</v>
+      </c>
+      <c r="L71">
+        <v>71.270032</v>
+      </c>
+      <c r="M71">
+        <v>89.979968</v>
+      </c>
+      <c r="P71">
+        <v>1E-3</v>
+      </c>
+      <c r="Q71">
+        <v>1.3411900000000001</v>
+      </c>
+      <c r="R71">
+        <v>1.270349</v>
+      </c>
+      <c r="S71">
+        <v>68.327681999999996</v>
+      </c>
+      <c r="T71">
+        <v>68.923164</v>
+      </c>
+      <c r="U71">
+        <v>88.561131000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72">
         <v>1E-3</v>
       </c>
@@ -10592,8 +16301,47 @@
       <c r="F72">
         <v>89.230768999999995</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="H72">
+        <v>1E-3</v>
+      </c>
+      <c r="I72">
+        <v>1.1733070000000001</v>
+      </c>
+      <c r="J72">
+        <v>1.189981</v>
+      </c>
+      <c r="K72">
+        <v>72.067074000000005</v>
+      </c>
+      <c r="L72">
+        <v>71.334135000000003</v>
+      </c>
+      <c r="M72">
+        <v>90.002003000000002</v>
+      </c>
+      <c r="P72">
+        <v>1E-3</v>
+      </c>
+      <c r="Q72">
+        <v>1.3372660000000001</v>
+      </c>
+      <c r="R72">
+        <v>1.2642040000000001</v>
+      </c>
+      <c r="S72">
+        <v>68.477124000000003</v>
+      </c>
+      <c r="T72">
+        <v>69.102757999999994</v>
+      </c>
+      <c r="U72">
+        <v>88.657923999999994</v>
+      </c>
+      <c r="W72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73">
         <v>1E-3</v>
       </c>
@@ -10612,8 +16360,44 @@
       <c r="F73">
         <v>89.399314000000004</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="H73">
+        <v>1E-3</v>
+      </c>
+      <c r="I73">
+        <v>1.169867</v>
+      </c>
+      <c r="J73">
+        <v>1.194186</v>
+      </c>
+      <c r="K73">
+        <v>72.153917000000007</v>
+      </c>
+      <c r="L73">
+        <v>71.213329000000002</v>
+      </c>
+      <c r="M73">
+        <v>89.977279999999993</v>
+      </c>
+      <c r="P73">
+        <v>1E-3</v>
+      </c>
+      <c r="Q73">
+        <v>1.334859</v>
+      </c>
+      <c r="R73">
+        <v>1.2610650000000001</v>
+      </c>
+      <c r="S73">
+        <v>68.455235999999999</v>
+      </c>
+      <c r="T73">
+        <v>69.094785999999999</v>
+      </c>
+      <c r="U73">
+        <v>88.721699999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74">
         <v>1E-3</v>
       </c>
@@ -10632,8 +16416,44 @@
       <c r="F74">
         <v>89.342949000000004</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="H74">
+        <v>1E-3</v>
+      </c>
+      <c r="I74">
+        <v>1.1634180000000001</v>
+      </c>
+      <c r="J74">
+        <v>1.1909209999999999</v>
+      </c>
+      <c r="K74">
+        <v>72.214426000000003</v>
+      </c>
+      <c r="L74">
+        <v>71.296074000000004</v>
+      </c>
+      <c r="M74">
+        <v>89.929888000000005</v>
+      </c>
+      <c r="P74">
+        <v>1E-3</v>
+      </c>
+      <c r="Q74">
+        <v>1.3317099999999999</v>
+      </c>
+      <c r="R74">
+        <v>1.2657350000000001</v>
+      </c>
+      <c r="S74">
+        <v>68.534234999999995</v>
+      </c>
+      <c r="T74">
+        <v>69.041961999999998</v>
+      </c>
+      <c r="U74">
+        <v>88.792687000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75">
         <v>1E-3</v>
       </c>
@@ -10652,8 +16472,44 @@
       <c r="F75">
         <v>89.375</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="H75">
+        <v>1E-3</v>
+      </c>
+      <c r="I75">
+        <v>1.157953</v>
+      </c>
+      <c r="J75">
+        <v>1.1922330000000001</v>
+      </c>
+      <c r="K75">
+        <v>72.442280999999994</v>
+      </c>
+      <c r="L75">
+        <v>71.219952000000006</v>
+      </c>
+      <c r="M75">
+        <v>89.955928999999998</v>
+      </c>
+      <c r="P75">
+        <v>1E-3</v>
+      </c>
+      <c r="Q75">
+        <v>1.3285279999999999</v>
+      </c>
+      <c r="R75">
+        <v>1.26275</v>
+      </c>
+      <c r="S75">
+        <v>68.651016999999996</v>
+      </c>
+      <c r="T75">
+        <v>69.152583000000007</v>
+      </c>
+      <c r="U75">
+        <v>88.797432999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76">
         <v>1E-3</v>
       </c>
@@ -10672,8 +16528,44 @@
       <c r="F76">
         <v>89.417250999999993</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="H76">
+        <v>1E-3</v>
+      </c>
+      <c r="I76">
+        <v>1.1543129999999999</v>
+      </c>
+      <c r="J76">
+        <v>1.1942470000000001</v>
+      </c>
+      <c r="K76">
+        <v>72.486108000000002</v>
+      </c>
+      <c r="L76">
+        <v>71.346858999999995</v>
+      </c>
+      <c r="M76">
+        <v>89.967314999999999</v>
+      </c>
+      <c r="P76">
+        <v>1E-3</v>
+      </c>
+      <c r="Q76">
+        <v>1.3259590000000001</v>
+      </c>
+      <c r="R76">
+        <v>1.2607699999999999</v>
+      </c>
+      <c r="S76">
+        <v>68.681488000000002</v>
+      </c>
+      <c r="T76">
+        <v>69.086814000000004</v>
+      </c>
+      <c r="U76">
+        <v>88.741629000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77">
         <v>1E-3</v>
       </c>
@@ -10692,8 +16584,44 @@
       <c r="F77">
         <v>89.368989999999997</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="H77">
+        <v>1E-3</v>
+      </c>
+      <c r="I77">
+        <v>1.1474530000000001</v>
+      </c>
+      <c r="J77">
+        <v>1.18828</v>
+      </c>
+      <c r="K77">
+        <v>72.608475999999996</v>
+      </c>
+      <c r="L77">
+        <v>71.372196000000002</v>
+      </c>
+      <c r="M77">
+        <v>90.048077000000006</v>
+      </c>
+      <c r="P77">
+        <v>1E-3</v>
+      </c>
+      <c r="Q77">
+        <v>1.323712</v>
+      </c>
+      <c r="R77">
+        <v>1.2643</v>
+      </c>
+      <c r="S77">
+        <v>68.712608000000003</v>
+      </c>
+      <c r="T77">
+        <v>69.136598000000006</v>
+      </c>
+      <c r="U77">
+        <v>88.675901999999994</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78">
         <v>1E-3</v>
       </c>
@@ -10712,8 +16640,44 @@
       <c r="F78">
         <v>89.395032</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="H78">
+        <v>1E-3</v>
+      </c>
+      <c r="I78">
+        <v>1.1447579999999999</v>
+      </c>
+      <c r="J78">
+        <v>1.186412</v>
+      </c>
+      <c r="K78">
+        <v>72.660308000000001</v>
+      </c>
+      <c r="L78">
+        <v>71.382211999999996</v>
+      </c>
+      <c r="M78">
+        <v>90.134214999999998</v>
+      </c>
+      <c r="P78">
+        <v>1E-3</v>
+      </c>
+      <c r="Q78">
+        <v>1.321609</v>
+      </c>
+      <c r="R78">
+        <v>1.261218</v>
+      </c>
+      <c r="S78">
+        <v>68.822676000000001</v>
+      </c>
+      <c r="T78">
+        <v>69.170519999999996</v>
+      </c>
+      <c r="U78">
+        <v>88.797432999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79">
         <v>1E-3</v>
       </c>
@@ -10732,8 +16696,44 @@
       <c r="F79">
         <v>89.433194999999998</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="H79">
+        <v>1E-3</v>
+      </c>
+      <c r="I79">
+        <v>1.1419029999999999</v>
+      </c>
+      <c r="J79">
+        <v>1.189908</v>
+      </c>
+      <c r="K79">
+        <v>72.740010999999996</v>
+      </c>
+      <c r="L79">
+        <v>71.376754000000005</v>
+      </c>
+      <c r="M79">
+        <v>89.923468999999997</v>
+      </c>
+      <c r="P79">
+        <v>1E-3</v>
+      </c>
+      <c r="Q79">
+        <v>1.3180229999999999</v>
+      </c>
+      <c r="R79">
+        <v>1.257989</v>
+      </c>
+      <c r="S79">
+        <v>68.865564000000006</v>
+      </c>
+      <c r="T79">
+        <v>69.190449999999998</v>
+      </c>
+      <c r="U79">
+        <v>88.769531000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80">
         <v>1E-3</v>
       </c>
@@ -10752,8 +16752,44 @@
       <c r="F80">
         <v>89.463140999999993</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="H80">
+        <v>1E-3</v>
+      </c>
+      <c r="I80">
+        <v>1.137148</v>
+      </c>
+      <c r="J80">
+        <v>1.1895039999999999</v>
+      </c>
+      <c r="K80">
+        <v>72.827173000000002</v>
+      </c>
+      <c r="L80">
+        <v>71.280047999999994</v>
+      </c>
+      <c r="M80">
+        <v>90.020032</v>
+      </c>
+      <c r="P80">
+        <v>1E-3</v>
+      </c>
+      <c r="Q80">
+        <v>1.3156939999999999</v>
+      </c>
+      <c r="R80">
+        <v>1.261199</v>
+      </c>
+      <c r="S80">
+        <v>68.897537999999997</v>
+      </c>
+      <c r="T80">
+        <v>69.060084000000003</v>
+      </c>
+      <c r="U80">
+        <v>88.768523999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81">
         <v>1E-3</v>
       </c>
@@ -10772,8 +16808,44 @@
       <c r="F81">
         <v>89.391025999999997</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="H81">
+        <v>1E-3</v>
+      </c>
+      <c r="I81">
+        <v>1.1337440000000001</v>
+      </c>
+      <c r="J81">
+        <v>1.1908890000000001</v>
+      </c>
+      <c r="K81">
+        <v>72.908079999999998</v>
+      </c>
+      <c r="L81">
+        <v>71.215946000000002</v>
+      </c>
+      <c r="M81">
+        <v>89.923878000000002</v>
+      </c>
+      <c r="P81">
+        <v>1E-3</v>
+      </c>
+      <c r="Q81">
+        <v>1.314595</v>
+      </c>
+      <c r="R81">
+        <v>1.256877</v>
+      </c>
+      <c r="S81">
+        <v>68.889809999999997</v>
+      </c>
+      <c r="T81">
+        <v>69.170519999999996</v>
+      </c>
+      <c r="U81">
+        <v>88.775509999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82">
         <v>1E-3</v>
       </c>
@@ -10792,8 +16864,47 @@
       <c r="F82">
         <v>89.469150999999997</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="H82">
+        <v>1E-3</v>
+      </c>
+      <c r="I82">
+        <v>1.1296250000000001</v>
+      </c>
+      <c r="J82">
+        <v>1.192863</v>
+      </c>
+      <c r="K82">
+        <v>73.004807999999997</v>
+      </c>
+      <c r="L82">
+        <v>71.410256000000004</v>
+      </c>
+      <c r="M82">
+        <v>90.008013000000005</v>
+      </c>
+      <c r="P82">
+        <v>1E-3</v>
+      </c>
+      <c r="Q82">
+        <v>1.3136399999999999</v>
+      </c>
+      <c r="R82">
+        <v>1.2590790000000001</v>
+      </c>
+      <c r="S82">
+        <v>68.971853999999993</v>
+      </c>
+      <c r="T82">
+        <v>69.162548000000001</v>
+      </c>
+      <c r="U82">
+        <v>88.749600999999998</v>
+      </c>
+      <c r="W82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83">
         <v>1E-3</v>
       </c>
@@ -10812,8 +16923,44 @@
       <c r="F83">
         <v>89.443160000000006</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="H83">
+        <v>1E-3</v>
+      </c>
+      <c r="I83">
+        <v>1.128377</v>
+      </c>
+      <c r="J83">
+        <v>1.1886730000000001</v>
+      </c>
+      <c r="K83">
+        <v>73.003949000000006</v>
+      </c>
+      <c r="L83">
+        <v>71.430564000000004</v>
+      </c>
+      <c r="M83">
+        <v>90.064971</v>
+      </c>
+      <c r="P83">
+        <v>1E-3</v>
+      </c>
+      <c r="Q83">
+        <v>1.3108150000000001</v>
+      </c>
+      <c r="R83">
+        <v>1.260186</v>
+      </c>
+      <c r="S83">
+        <v>68.981674999999996</v>
+      </c>
+      <c r="T83">
+        <v>69.239288000000002</v>
+      </c>
+      <c r="U83">
+        <v>88.732281</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84">
         <v>1E-3</v>
       </c>
@@ -10832,8 +16979,44 @@
       <c r="F84">
         <v>89.439103000000003</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="H84">
+        <v>1E-3</v>
+      </c>
+      <c r="I84">
+        <v>1.1233070000000001</v>
+      </c>
+      <c r="J84">
+        <v>1.188323</v>
+      </c>
+      <c r="K84">
+        <v>73.134304999999998</v>
+      </c>
+      <c r="L84">
+        <v>71.384214999999998</v>
+      </c>
+      <c r="M84">
+        <v>90.024038000000004</v>
+      </c>
+      <c r="P84">
+        <v>1E-3</v>
+      </c>
+      <c r="Q84">
+        <v>1.307509</v>
+      </c>
+      <c r="R84">
+        <v>1.258429</v>
+      </c>
+      <c r="S84">
+        <v>69.063968000000003</v>
+      </c>
+      <c r="T84">
+        <v>69.192442999999997</v>
+      </c>
+      <c r="U84">
+        <v>88.825334999999995</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
       <c r="A85">
         <v>1E-3</v>
       </c>
@@ -10852,8 +17035,44 @@
       <c r="F85">
         <v>89.497196000000002</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="H85">
+        <v>1E-3</v>
+      </c>
+      <c r="I85">
+        <v>1.121259</v>
+      </c>
+      <c r="J85">
+        <v>1.1889380000000001</v>
+      </c>
+      <c r="K85">
+        <v>73.169798999999998</v>
+      </c>
+      <c r="L85">
+        <v>71.380207999999996</v>
+      </c>
+      <c r="M85">
+        <v>90.080128000000002</v>
+      </c>
+      <c r="P85">
+        <v>1E-3</v>
+      </c>
+      <c r="Q85">
+        <v>1.307914</v>
+      </c>
+      <c r="R85">
+        <v>1.2614300000000001</v>
+      </c>
+      <c r="S85">
+        <v>69.040938999999995</v>
+      </c>
+      <c r="T85">
+        <v>69.068877999999998</v>
+      </c>
+      <c r="U85">
+        <v>88.821348999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
       <c r="A86">
         <v>1E-3</v>
       </c>
@@ -10872,8 +17091,44 @@
       <c r="F86">
         <v>89.427216000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="H86">
+        <v>1E-3</v>
+      </c>
+      <c r="I86">
+        <v>1.1213089999999999</v>
+      </c>
+      <c r="J86">
+        <v>1.1870860000000001</v>
+      </c>
+      <c r="K86">
+        <v>73.192306000000002</v>
+      </c>
+      <c r="L86">
+        <v>71.544165000000007</v>
+      </c>
+      <c r="M86">
+        <v>90.134726000000001</v>
+      </c>
+      <c r="P86">
+        <v>1E-3</v>
+      </c>
+      <c r="Q86">
+        <v>1.3065549999999999</v>
+      </c>
+      <c r="R86">
+        <v>1.264419</v>
+      </c>
+      <c r="S86">
+        <v>69.107760999999996</v>
+      </c>
+      <c r="T86">
+        <v>69.104381000000004</v>
+      </c>
+      <c r="U86">
+        <v>88.778592000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87">
         <v>1E-3</v>
       </c>
@@ -10892,8 +17147,44 @@
       <c r="F87">
         <v>89.415064000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="H87">
+        <v>1E-3</v>
+      </c>
+      <c r="I87">
+        <v>1.1184499999999999</v>
+      </c>
+      <c r="J87">
+        <v>1.1906680000000001</v>
+      </c>
+      <c r="K87">
+        <v>73.271727999999996</v>
+      </c>
+      <c r="L87">
+        <v>71.558493999999996</v>
+      </c>
+      <c r="M87">
+        <v>90.032050999999996</v>
+      </c>
+      <c r="P87">
+        <v>1E-3</v>
+      </c>
+      <c r="Q87">
+        <v>1.306343</v>
+      </c>
+      <c r="R87">
+        <v>1.2582580000000001</v>
+      </c>
+      <c r="S87">
+        <v>69.111362999999997</v>
+      </c>
+      <c r="T87">
+        <v>69.230309000000005</v>
+      </c>
+      <c r="U87">
+        <v>88.733658000000005</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
       <c r="A88">
         <v>1E-3</v>
       </c>
@@ -10912,8 +17203,44 @@
       <c r="F88">
         <v>89.441106000000005</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="H88">
+        <v>1E-3</v>
+      </c>
+      <c r="I88">
+        <v>1.114463</v>
+      </c>
+      <c r="J88">
+        <v>1.1955690000000001</v>
+      </c>
+      <c r="K88">
+        <v>73.348742999999999</v>
+      </c>
+      <c r="L88">
+        <v>71.344150999999997</v>
+      </c>
+      <c r="M88">
+        <v>89.953925999999996</v>
+      </c>
+      <c r="P88">
+        <v>1E-3</v>
+      </c>
+      <c r="Q88">
+        <v>1.3012570000000001</v>
+      </c>
+      <c r="R88">
+        <v>1.257452</v>
+      </c>
+      <c r="S88">
+        <v>69.198234999999997</v>
+      </c>
+      <c r="T88">
+        <v>69.288105999999999</v>
+      </c>
+      <c r="U88">
+        <v>88.841279</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
       <c r="A89">
         <v>1E-3</v>
       </c>
@@ -10932,8 +17259,44 @@
       <c r="F89">
         <v>89.471062000000003</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="H89">
+        <v>1E-3</v>
+      </c>
+      <c r="I89">
+        <v>1.1093170000000001</v>
+      </c>
+      <c r="J89">
+        <v>1.185487</v>
+      </c>
+      <c r="K89">
+        <v>73.470045999999996</v>
+      </c>
+      <c r="L89">
+        <v>71.572066000000007</v>
+      </c>
+      <c r="M89">
+        <v>90.198500999999993</v>
+      </c>
+      <c r="P89">
+        <v>1E-3</v>
+      </c>
+      <c r="Q89">
+        <v>1.300756</v>
+      </c>
+      <c r="R89">
+        <v>1.26057</v>
+      </c>
+      <c r="S89">
+        <v>69.206744</v>
+      </c>
+      <c r="T89">
+        <v>69.120490000000004</v>
+      </c>
+      <c r="U89">
+        <v>88.760469999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90">
         <v>1E-3</v>
       </c>
@@ -10952,8 +17315,44 @@
       <c r="F90">
         <v>89.411057999999997</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="H90">
+        <v>1E-3</v>
+      </c>
+      <c r="I90">
+        <v>1.1101719999999999</v>
+      </c>
+      <c r="J90">
+        <v>1.1874579999999999</v>
+      </c>
+      <c r="K90">
+        <v>73.431723000000005</v>
+      </c>
+      <c r="L90">
+        <v>71.644631000000004</v>
+      </c>
+      <c r="M90">
+        <v>90.024038000000004</v>
+      </c>
+      <c r="P90">
+        <v>1E-3</v>
+      </c>
+      <c r="Q90">
+        <v>1.2994680000000001</v>
+      </c>
+      <c r="R90">
+        <v>1.257342</v>
+      </c>
+      <c r="S90">
+        <v>69.255065000000002</v>
+      </c>
+      <c r="T90">
+        <v>69.180485000000004</v>
+      </c>
+      <c r="U90">
+        <v>88.833307000000005</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
       <c r="A91">
         <v>1E-3</v>
       </c>
@@ -10972,8 +17371,44 @@
       <c r="F91">
         <v>89.425079999999994</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="H91">
+        <v>1E-3</v>
+      </c>
+      <c r="I91">
+        <v>1.1076090000000001</v>
+      </c>
+      <c r="J91">
+        <v>1.1951929999999999</v>
+      </c>
+      <c r="K91">
+        <v>73.498455000000007</v>
+      </c>
+      <c r="L91">
+        <v>71.380207999999996</v>
+      </c>
+      <c r="M91">
+        <v>90.012018999999995</v>
+      </c>
+      <c r="P91">
+        <v>1E-3</v>
+      </c>
+      <c r="Q91">
+        <v>1.3002899999999999</v>
+      </c>
+      <c r="R91">
+        <v>1.2547489999999999</v>
+      </c>
+      <c r="S91">
+        <v>69.207185999999993</v>
+      </c>
+      <c r="T91">
+        <v>69.226322999999994</v>
+      </c>
+      <c r="U91">
+        <v>88.713728000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
       <c r="A92">
         <v>1E-3</v>
       </c>
@@ -10992,8 +17427,47 @@
       <c r="F92">
         <v>89.630500999999995</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="H92">
+        <v>1E-3</v>
+      </c>
+      <c r="I92">
+        <v>1.102001</v>
+      </c>
+      <c r="J92">
+        <v>1.189208</v>
+      </c>
+      <c r="K92">
+        <v>73.608067000000005</v>
+      </c>
+      <c r="L92">
+        <v>71.578045000000003</v>
+      </c>
+      <c r="M92">
+        <v>90.088887</v>
+      </c>
+      <c r="P92">
+        <v>1E-3</v>
+      </c>
+      <c r="Q92">
+        <v>1.2964439999999999</v>
+      </c>
+      <c r="R92">
+        <v>1.257822</v>
+      </c>
+      <c r="S92">
+        <v>69.277859000000007</v>
+      </c>
+      <c r="T92">
+        <v>69.219153000000006</v>
+      </c>
+      <c r="U92">
+        <v>88.796713999999994</v>
+      </c>
+      <c r="W92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
       <c r="A93">
         <v>1E-4</v>
       </c>
@@ -11012,8 +17486,44 @@
       <c r="F93">
         <v>89.779646999999997</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="H93">
+        <v>1E-4</v>
+      </c>
+      <c r="I93">
+        <v>1.0742069999999999</v>
+      </c>
+      <c r="J93">
+        <v>1.1748780000000001</v>
+      </c>
+      <c r="K93">
+        <v>74.294455999999997</v>
+      </c>
+      <c r="L93">
+        <v>71.862981000000005</v>
+      </c>
+      <c r="M93">
+        <v>90.218349000000003</v>
+      </c>
+      <c r="P93">
+        <v>1E-4</v>
+      </c>
+      <c r="Q93">
+        <v>1.2798830000000001</v>
+      </c>
+      <c r="R93">
+        <v>1.2460009999999999</v>
+      </c>
+      <c r="S93">
+        <v>69.671372000000005</v>
+      </c>
+      <c r="T93">
+        <v>69.459502999999998</v>
+      </c>
+      <c r="U93">
+        <v>88.837293000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
       <c r="A94">
         <v>1E-4</v>
       </c>
@@ -11032,8 +17542,44 @@
       <c r="F94">
         <v>89.693510000000003</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="H94">
+        <v>1E-4</v>
+      </c>
+      <c r="I94">
+        <v>1.0682430000000001</v>
+      </c>
+      <c r="J94">
+        <v>1.175978</v>
+      </c>
+      <c r="K94">
+        <v>74.466910999999996</v>
+      </c>
+      <c r="L94">
+        <v>71.854968</v>
+      </c>
+      <c r="M94">
+        <v>90.282452000000006</v>
+      </c>
+      <c r="P94">
+        <v>1E-4</v>
+      </c>
+      <c r="Q94">
+        <v>1.2755240000000001</v>
+      </c>
+      <c r="R94">
+        <v>1.246407</v>
+      </c>
+      <c r="S94">
+        <v>69.796818999999999</v>
+      </c>
+      <c r="T94">
+        <v>69.557426000000007</v>
+      </c>
+      <c r="U94">
+        <v>88.855106000000006</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
       <c r="A95">
         <v>1E-4</v>
       </c>
@@ -11052,8 +17598,44 @@
       <c r="F95">
         <v>89.789939000000004</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="H95">
+        <v>1E-4</v>
+      </c>
+      <c r="I95">
+        <v>1.061925</v>
+      </c>
+      <c r="J95">
+        <v>1.1704619999999999</v>
+      </c>
+      <c r="K95">
+        <v>74.570898</v>
+      </c>
+      <c r="L95">
+        <v>71.976641999999998</v>
+      </c>
+      <c r="M95">
+        <v>90.270249000000007</v>
+      </c>
+      <c r="P95">
+        <v>1E-4</v>
+      </c>
+      <c r="Q95">
+        <v>1.276149</v>
+      </c>
+      <c r="R95">
+        <v>1.241201</v>
+      </c>
+      <c r="S95">
+        <v>69.774162000000004</v>
+      </c>
+      <c r="T95">
+        <v>69.577089000000001</v>
+      </c>
+      <c r="U95">
+        <v>88.895088999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
       <c r="A96">
         <v>1E-4</v>
       </c>
@@ -11072,8 +17654,44 @@
       <c r="F96">
         <v>89.721553999999998</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="H96">
+        <v>1E-4</v>
+      </c>
+      <c r="I96">
+        <v>1.0622119999999999</v>
+      </c>
+      <c r="J96">
+        <v>1.171098</v>
+      </c>
+      <c r="K96">
+        <v>74.563395999999997</v>
+      </c>
+      <c r="L96">
+        <v>72.015224000000003</v>
+      </c>
+      <c r="M96">
+        <v>90.334535000000002</v>
+      </c>
+      <c r="P96">
+        <v>1E-4</v>
+      </c>
+      <c r="Q96">
+        <v>1.274281</v>
+      </c>
+      <c r="R96">
+        <v>1.241001</v>
+      </c>
+      <c r="S96">
+        <v>69.728201999999996</v>
+      </c>
+      <c r="T96">
+        <v>69.634884999999997</v>
+      </c>
+      <c r="U96">
+        <v>88.928970000000007</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21">
       <c r="A97">
         <v>1E-4</v>
       </c>
@@ -11092,8 +17710,44 @@
       <c r="F97">
         <v>89.811699000000004</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="H97">
+        <v>1E-4</v>
+      </c>
+      <c r="I97">
+        <v>1.0601240000000001</v>
+      </c>
+      <c r="J97">
+        <v>1.169835</v>
+      </c>
+      <c r="K97">
+        <v>74.583932000000004</v>
+      </c>
+      <c r="L97">
+        <v>72.001202000000006</v>
+      </c>
+      <c r="M97">
+        <v>90.342547999999994</v>
+      </c>
+      <c r="P97">
+        <v>1E-4</v>
+      </c>
+      <c r="Q97">
+        <v>1.271952</v>
+      </c>
+      <c r="R97">
+        <v>1.2458880000000001</v>
+      </c>
+      <c r="S97">
+        <v>69.844280999999995</v>
+      </c>
+      <c r="T97">
+        <v>69.539304000000001</v>
+      </c>
+      <c r="U97">
+        <v>88.893362999999994</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21">
       <c r="A98">
         <v>1E-4</v>
       </c>
@@ -11112,8 +17766,44 @@
       <c r="F98">
         <v>89.767628000000002</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="H98">
+        <v>1E-4</v>
+      </c>
+      <c r="I98">
+        <v>1.058011</v>
+      </c>
+      <c r="J98">
+        <v>1.1748689999999999</v>
+      </c>
+      <c r="K98">
+        <v>74.656914999999998</v>
+      </c>
+      <c r="L98">
+        <v>71.981170000000006</v>
+      </c>
+      <c r="M98">
+        <v>90.266425999999996</v>
+      </c>
+      <c r="P98">
+        <v>1E-4</v>
+      </c>
+      <c r="Q98">
+        <v>1.2707470000000001</v>
+      </c>
+      <c r="R98">
+        <v>1.2396739999999999</v>
+      </c>
+      <c r="S98">
+        <v>69.884420000000006</v>
+      </c>
+      <c r="T98">
+        <v>69.579082</v>
+      </c>
+      <c r="U98">
+        <v>88.964843999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21">
       <c r="A99">
         <v>1E-4</v>
       </c>
@@ -11132,8 +17822,44 @@
       <c r="F99">
         <v>89.845742999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="H99">
+        <v>1E-4</v>
+      </c>
+      <c r="I99">
+        <v>1.058327</v>
+      </c>
+      <c r="J99">
+        <v>1.1659889999999999</v>
+      </c>
+      <c r="K99">
+        <v>74.656983999999994</v>
+      </c>
+      <c r="L99">
+        <v>72.052375999999995</v>
+      </c>
+      <c r="M99">
+        <v>90.417730000000006</v>
+      </c>
+      <c r="P99">
+        <v>1E-4</v>
+      </c>
+      <c r="Q99">
+        <v>1.2671410000000001</v>
+      </c>
+      <c r="R99">
+        <v>1.2397739999999999</v>
+      </c>
+      <c r="S99">
+        <v>69.939594999999997</v>
+      </c>
+      <c r="T99">
+        <v>69.561144999999996</v>
+      </c>
+      <c r="U99">
+        <v>88.940928</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21">
       <c r="A100">
         <v>1E-4</v>
       </c>
@@ -11152,8 +17878,44 @@
       <c r="F100">
         <v>89.757611999999995</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="H100">
+        <v>1E-4</v>
+      </c>
+      <c r="I100">
+        <v>1.0558050000000001</v>
+      </c>
+      <c r="J100">
+        <v>1.169284</v>
+      </c>
+      <c r="K100">
+        <v>74.755401000000006</v>
+      </c>
+      <c r="L100">
+        <v>72.087339999999998</v>
+      </c>
+      <c r="M100">
+        <v>90.354567000000003</v>
+      </c>
+      <c r="P100">
+        <v>1E-4</v>
+      </c>
+      <c r="Q100">
+        <v>1.2721070000000001</v>
+      </c>
+      <c r="R100">
+        <v>1.2428889999999999</v>
+      </c>
+      <c r="S100">
+        <v>69.807356999999996</v>
+      </c>
+      <c r="T100">
+        <v>69.476884999999996</v>
+      </c>
+      <c r="U100">
+        <v>88.937661000000006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21">
       <c r="A101">
         <v>1E-4</v>
       </c>
@@ -11172,8 +17934,44 @@
       <c r="F101">
         <v>89.787660000000002</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="H101">
+        <v>1E-4</v>
+      </c>
+      <c r="I101">
+        <v>1.0555760000000001</v>
+      </c>
+      <c r="J101">
+        <v>1.1676420000000001</v>
+      </c>
+      <c r="K101">
+        <v>74.704299000000006</v>
+      </c>
+      <c r="L101">
+        <v>71.943109000000007</v>
+      </c>
+      <c r="M101">
+        <v>90.330528999999999</v>
+      </c>
+      <c r="P101">
+        <v>1E-4</v>
+      </c>
+      <c r="Q101">
+        <v>1.2707390000000001</v>
+      </c>
+      <c r="R101">
+        <v>1.237317</v>
+      </c>
+      <c r="S101">
+        <v>69.875817999999995</v>
+      </c>
+      <c r="T101">
+        <v>69.624920000000003</v>
+      </c>
+      <c r="U101">
+        <v>89.004703000000006</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21">
       <c r="A102">
         <v>1E-4</v>
       </c>
@@ -11192,8 +17990,46 @@
       <c r="F102">
         <v>89.791932000000003</v>
       </c>
+      <c r="H102">
+        <v>1E-4</v>
+      </c>
+      <c r="I102">
+        <v>1.054322</v>
+      </c>
+      <c r="J102">
+        <v>1.169602</v>
+      </c>
+      <c r="K102">
+        <v>74.753684000000007</v>
+      </c>
+      <c r="L102">
+        <v>72.000557999999998</v>
+      </c>
+      <c r="M102">
+        <v>90.336016999999998</v>
+      </c>
+      <c r="P102">
+        <v>1E-4</v>
+      </c>
+      <c r="Q102">
+        <v>1.268383</v>
+      </c>
+      <c r="R102">
+        <v>1.2391209999999999</v>
+      </c>
+      <c r="S102">
+        <v>69.883093000000002</v>
+      </c>
+      <c r="T102">
+        <v>69.614954999999995</v>
+      </c>
+      <c r="U102">
+        <v>89.004703000000006</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7752255-A523-4841-B142-42A86E58B46A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F56C223-BB34-5345-A455-ED2CE96F51E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="139">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>old_R18</t>
+  </si>
+  <si>
+    <t>&amp;90.3739</t>
   </si>
 </sst>
 </file>
@@ -9233,8 +9236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
   <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D47" zoomScale="97" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" topLeftCell="B56" zoomScale="97" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10289,6 +10292,12 @@
       <c r="I64" t="s">
         <v>122</v>
       </c>
+      <c r="J64">
+        <v>71.899000000000001</v>
+      </c>
+      <c r="K64" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="65" spans="8:11">
       <c r="H65" t="s">
@@ -10325,6 +10334,12 @@
       <c r="I67" t="s">
         <v>125</v>
       </c>
+      <c r="J67">
+        <v>71.987200000000001</v>
+      </c>
+      <c r="K67">
+        <v>90.415700000000001</v>
+      </c>
     </row>
     <row r="68" spans="8:11">
       <c r="H68" t="s">
@@ -10346,6 +10361,12 @@
       </c>
       <c r="I69" t="s">
         <v>129</v>
+      </c>
+      <c r="J69">
+        <v>71.8232</v>
+      </c>
+      <c r="K69">
+        <v>0.25240000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F56C223-BB34-5345-A455-ED2CE96F51E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DDAE45-A4CE-F248-B8B1-77B0997EFE9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="143">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -446,6 +446,18 @@
   </si>
   <si>
     <t>&amp;90.3739</t>
+  </si>
+  <si>
+    <t>128/02</t>
+  </si>
+  <si>
+    <t>new1_mobilenet</t>
+  </si>
+  <si>
+    <t>new3_mobilenet</t>
+  </si>
+  <si>
+    <t>new1_mansnet</t>
   </si>
 </sst>
 </file>
@@ -9234,10 +9246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B56" zoomScale="97" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69"/>
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10299,7 +10311,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="8:11">
+    <row r="65" spans="8:12">
       <c r="H65" t="s">
         <v>12</v>
       </c>
@@ -10313,7 +10325,7 @@
         <v>89.413300000000007</v>
       </c>
     </row>
-    <row r="66" spans="8:11">
+    <row r="66" spans="8:12">
       <c r="H66" t="s">
         <v>13</v>
       </c>
@@ -10327,7 +10339,7 @@
         <v>89.315600000000003</v>
       </c>
     </row>
-    <row r="67" spans="8:11">
+    <row r="67" spans="8:12">
       <c r="H67" t="s">
         <v>10</v>
       </c>
@@ -10341,7 +10353,7 @@
         <v>90.415700000000001</v>
       </c>
     </row>
-    <row r="68" spans="8:11">
+    <row r="68" spans="8:12">
       <c r="H68" t="s">
         <v>126</v>
       </c>
@@ -10355,7 +10367,7 @@
         <v>89.827799999999996</v>
       </c>
     </row>
-    <row r="69" spans="8:11">
+    <row r="69" spans="8:12">
       <c r="H69" t="s">
         <v>128</v>
       </c>
@@ -10367,6 +10379,36 @@
       </c>
       <c r="K69">
         <v>0.25240000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="8:12">
+      <c r="H71" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" t="s">
+        <v>140</v>
+      </c>
+      <c r="L71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="8:12">
+      <c r="H72" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="8:12">
+      <c r="H73" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" t="s">
+        <v>142</v>
+      </c>
+      <c r="L73" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DDAE45-A4CE-F248-B8B1-77B0997EFE9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784A2432-957D-F24D-8109-9FC631E2E6AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
+    <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" activeTab="3" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,13 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
     <sheet name="loss" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet3!$A$21:$T$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet3!$A$22:$T$22</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet3!$A$23:$T$23</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet3!$A$24:$T$24</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet3!$A$25:$T$25</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="150">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -459,6 +466,27 @@
   <si>
     <t>new1_mansnet</t>
   </si>
+  <si>
+    <t>new3_mnasnet</t>
+  </si>
+  <si>
+    <t>64/00</t>
+  </si>
+  <si>
+    <t>retina_new1</t>
+  </si>
+  <si>
+    <t>retina_new3</t>
+  </si>
+  <si>
+    <t>cascade_new1</t>
+  </si>
+  <si>
+    <t>cascade_new3</t>
+  </si>
+  <si>
+    <t>temp7/5</t>
+  </si>
 </sst>
 </file>
 
@@ -2671,10 +2699,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.1412782089290476E-2"/>
+          <c:x val="0.1162219129539827"/>
           <c:y val="5.9134302594078356E-2"/>
-          <c:w val="0.87913879922966154"/>
-          <c:h val="0.7994720665555094"/>
+          <c:w val="0.85432982201944596"/>
+          <c:h val="0.7794999651638076"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3125,7 +3153,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="60"/>
+        <c:gapWidth val="100"/>
         <c:axId val="1356905391"/>
         <c:axId val="1421039487"/>
       </c:barChart>
@@ -3143,7 +3171,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -3153,7 +3181,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1200">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -3163,7 +3191,7 @@
                   <a:t>Spatial</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0">
+                  <a:rPr lang="en-US" sz="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -3173,7 +3201,7 @@
                   <a:t> m</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1200">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -3198,7 +3226,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3235,10 +3263,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3260,6 +3285,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3267,9 +3293,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -3284,7 +3309,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -3294,7 +3319,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1200">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -3319,7 +3344,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3367,6 +3392,7 @@
         <c:crossAx val="1356905391"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3382,10 +3408,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.75125940507436562"/>
-          <c:y val="0.11241993905399508"/>
-          <c:w val="0.1410159448731822"/>
-          <c:h val="0.3411587868197809"/>
+          <c:x val="0.70164138831362344"/>
+          <c:y val="5.8661482150287478E-2"/>
+          <c:w val="0.2180159313550098"/>
+          <c:h val="0.40373876258971869"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3401,7 +3427,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -5813,12 +5839,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5886,7 +5907,11 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -5978,12 +6003,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -8872,15 +8892,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>18612</xdr:colOff>
+      <xdr:colOff>18615</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>100943</xdr:rowOff>
+      <xdr:rowOff>100944</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>164224</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>175172</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>32846</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>109483</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9246,10 +9266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B56" zoomScale="97" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView topLeftCell="B59" zoomScale="97" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78:I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10409,6 +10429,49 @@
       </c>
       <c r="L73" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="8:12">
+      <c r="H74" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" t="s">
+        <v>143</v>
+      </c>
+      <c r="L74" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="8:12">
+      <c r="H75" t="s">
+        <v>126</v>
+      </c>
+      <c r="I75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="8:12">
+      <c r="H76" t="s">
+        <v>128</v>
+      </c>
+      <c r="I76" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="8:12">
+      <c r="H77" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="8:12">
+      <c r="H78" t="s">
+        <v>149</v>
+      </c>
+      <c r="I78" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -11564,7 +11627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BB9E1C-E801-F14C-AA63-9C78D7F98E86}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -11828,8 +11891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0E7CEF-CBAB-0845-BC36-E9885633E33F}">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView topLeftCell="Q14" zoomScale="116" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView tabSelected="1" topLeftCell="Q14" zoomScale="116" workbookViewId="0">
+      <selection activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12378,8 +12441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F9EC6D-3C70-6249-9C3D-64477FEC609B}">
   <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView topLeftCell="C88" zoomScale="87" workbookViewId="0">
-      <selection activeCell="N109" sqref="N109"/>
+    <sheetView topLeftCell="J6" zoomScale="87" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/DistKernel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuma/code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784A2432-957D-F24D-8109-9FC631E2E6AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747FDE11-B26A-9F41-BD9A-B9004AB36B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" activeTab="3" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
+    <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" activeTab="5" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,25 +18,28 @@
     <sheet name="histogram_weight" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
     <sheet name="loss" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet3!$A$21:$T$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet3!$A$22:$T$22</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet3!$A$23:$T$23</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet3!$A$24:$T$24</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet3!$A$25:$T$25</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="153">
   <si>
     <t>old_resnet50</t>
   </si>
@@ -487,12 +490,21 @@
   <si>
     <t>temp7/5</t>
   </si>
+  <si>
+    <t>old_resnet18loss:</t>
+  </si>
+  <si>
+    <t>new1_resnet18loss:</t>
+  </si>
+  <si>
+    <t>new3_resnet18loss:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2699,10 +2711,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1162219129539827"/>
+          <c:x val="0.17115096601594557"/>
           <c:y val="5.9134302594078356E-2"/>
-          <c:w val="0.85432982201944596"/>
-          <c:h val="0.7794999651638076"/>
+          <c:w val="0.79940085267809569"/>
+          <c:h val="0.76733939384654259"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2727,87 +2739,69 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$A$25:$T$25</c:f>
+              <c:f>Sheet3!$D$25:$P$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-0.3</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.2</c:v>
+                <c:pt idx="12">
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$A$21:$T$21</c:f>
+              <c:f>Sheet3!$D$21:$P$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>124</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>127</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2836,87 +2830,69 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$A$25:$T$25</c:f>
+              <c:f>Sheet3!$D$25:$P$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-0.3</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.2</c:v>
+                <c:pt idx="12">
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$A$22:$T$22</c:f>
+              <c:f>Sheet3!$D$22:$P$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>69</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2945,28 +2921,31 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$A$25:$T$25</c:f>
+              <c:f>Sheet3!$D$25:$P$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-0.3</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.2</c:v>
+                <c:pt idx="12">
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$A$23:$T$23</c:f>
+              <c:f>Sheet3!$D$23:$P$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2992,39 +2971,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>370</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3054,87 +3012,69 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$A$25:$T$25</c:f>
+              <c:f>Sheet3!$D$25:$P$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-0.3</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.2</c:v>
+                <c:pt idx="12">
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$A$24:$T$24</c:f>
+              <c:f>Sheet3!$D$24:$P$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3153,7 +3093,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
+        <c:gapWidth val="25"/>
         <c:axId val="1356905391"/>
         <c:axId val="1421039487"/>
       </c:barChart>
@@ -3278,6 +3218,8 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="4"/>
+        <c:tickMarkSkip val="3"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -3408,9 +3350,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.70164138831362344"/>
-          <c:y val="5.8661482150287478E-2"/>
-          <c:w val="0.2180159313550098"/>
+          <c:x val="0.10241534458834867"/>
+          <c:y val="5.2581207940587307E-2"/>
+          <c:w val="0.46769350299868556"/>
           <c:h val="0.40373876258971869"/>
         </c:manualLayout>
       </c:layout>
@@ -6026,6 +5968,1072 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>8.6265557281494107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2385523597717292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8149619819641103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3643655194091799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9039563519287102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4521918653869603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0306469931030202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.64967353668212</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3198465019225996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0511230522155701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8470499497222903</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7140729313659602</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6635221163940397</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.70832147872924</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8514741491699196</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.09826589904785</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.44666697723388</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.88812017288208</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.40698809982299</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.9849896282958897</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.60299227432251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D16B-6649-93D8-98C1ED99CF74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>5.6244940776062</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0417298382568303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5504122589111304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1418953674316397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8059518959045402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5328973840332001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.31554606002807</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1478558657836899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0239074604797298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9381015927124001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.88756864196777</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8710915362548799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.88951729766845</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9447924667358398</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0391745994567798</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1717797351074202</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3451461717224098</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5620781437683098</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8252782298278798</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1375937042236304</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.4992007867431596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D16B-6649-93D8-98C1ED99CF74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>9.6179969685363709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1305323837280206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5665131951904296</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9461187648010201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3068265007019004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6841569889831502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0968242184448203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5577491702270496</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0860713777160598</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7095927398681603</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4646930343627904</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3700614250183101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4117293188476498</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5713114224243103</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8389114294433497</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2027531686401298</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6462433772277798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.1557704158020004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.7116296482849096</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.2947963925170898</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.8899262426757799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D16B-6649-93D8-98C1ED99CF74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="753646223"/>
+        <c:axId val="753675615"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="753646223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="753675615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="753675615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="753646223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>7.4238378741454998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8820311036682096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3469529458618101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.83689288101196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3661072746276801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9468362355041497</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5945442570495603</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3183381860351497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1210362609863198</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9990079995727501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9443516107177699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.95238291061401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0260776737975998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1747101008605902</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.4104523088073702</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7433414285278301</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.1697222720336899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.6808855715942297</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2697088243102996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.9188559844970703</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.60299227432251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E1C8-7545-A755-3C4B48D16755}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>4.6347861511230404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1848109242248501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7911804597473102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.45173209564209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1627573437500001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.92106760742187</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7221102294921802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.56495977050781</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4480885595703099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3688595112609798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3261436143493599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3195162823486299</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.35257946289062</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4311470269775302</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5601169398498498</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7410746763610798</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9763735456848099</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2697706752014102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6225061454772902</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.03323992752075</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.4992007867431596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E1C8-7545-A755-3C4B48D16755}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$2:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>5.8761389205932604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3504416682434002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8780881478881799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4711490480041496</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1371593881988504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8712556021881102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6629142727661099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5114020748138399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4227884891509999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4006407141876198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4462360877227698</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5639480088806099</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7627968128204299</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0509563504028296</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.4309454891967697</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9011470246887203</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.4478534109497003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.0452495748901303</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.6638324494934</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.2830299102783203</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.8899262426757799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E1C8-7545-A755-3C4B48D16755}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="508471808"/>
+        <c:axId val="1034054783"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="508471808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1034054783"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1034054783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508471808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6226,6 +7234,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -8252,6 +9340,1038 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8897,8 +11017,8 @@
       <xdr:rowOff>100944</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>32846</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>109483</xdr:rowOff>
     </xdr:to>
@@ -8961,6 +11081,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B831253B-B4F3-224D-93E8-1F98283AD207}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D708028-CCB9-6347-97EE-64DB2E609EC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9268,11 +11465,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView topLeftCell="B59" zoomScale="97" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="50" workbookViewId="0">
       <selection activeCell="H78" sqref="H78:I78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" customWidth="1"/>
@@ -9281,7 +11478,7 @@
     <col min="13" max="13" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -9307,7 +11504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -9333,7 +11530,7 @@
         <v>1.1439999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -9359,7 +11556,7 @@
         <v>0.62380000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -9385,7 +11582,7 @@
         <v>0.65169999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -9411,7 +11608,7 @@
         <v>0.72740000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -9437,7 +11634,7 @@
         <v>0.50419999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -9463,7 +11660,7 @@
         <v>0.36270000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -9489,7 +11686,7 @@
         <v>0.45440000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H9" s="2" t="s">
         <v>29</v>
       </c>
@@ -9506,7 +11703,7 @@
         <v>0.78120000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="18" t="s">
         <v>9</v>
       </c>
@@ -9522,7 +11719,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H11" s="2" t="s">
         <v>11</v>
       </c>
@@ -9530,7 +11727,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="10" customFormat="1" ht="17" thickBot="1">
+    <row r="12" spans="1:15" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -9553,7 +11750,7 @@
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" spans="1:15" ht="17" thickTop="1">
+    <row r="13" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -9573,7 +11770,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -9602,7 +11799,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -9634,7 +11831,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H16" s="2" t="s">
         <v>13</v>
       </c>
@@ -9651,7 +11848,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H17" s="2" t="s">
         <v>12</v>
       </c>
@@ -9668,7 +11865,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -9694,7 +11891,7 @@
         <v>89.821799999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -9719,7 +11916,7 @@
       </c>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H20" s="2" t="s">
         <v>13</v>
       </c>
@@ -9733,7 +11930,7 @@
         <v>89.748099999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H21" s="2" t="s">
         <v>12</v>
       </c>
@@ -9750,7 +11947,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H23" t="s">
         <v>12</v>
       </c>
@@ -9767,7 +11964,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H24" t="s">
         <v>13</v>
       </c>
@@ -9781,7 +11978,7 @@
         <v>90.696700000000007</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H26" t="s">
         <v>12</v>
       </c>
@@ -9798,7 +11995,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H27" t="s">
         <v>13</v>
       </c>
@@ -9815,7 +12012,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H28" t="s">
         <v>10</v>
       </c>
@@ -9832,7 +12029,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H30" t="s">
         <v>12</v>
       </c>
@@ -9849,7 +12046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H31" t="s">
         <v>13</v>
       </c>
@@ -9866,7 +12063,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H32" t="s">
         <v>12</v>
       </c>
@@ -9883,7 +12080,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="3:14">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.2">
       <c r="H33" t="s">
         <v>13</v>
       </c>
@@ -9898,7 +12095,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="3:14">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.2">
       <c r="H34" t="s">
         <v>12</v>
       </c>
@@ -9915,7 +12112,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="3:14">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.2">
       <c r="H35" t="s">
         <v>13</v>
       </c>
@@ -9932,7 +12129,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="3:14">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.2">
       <c r="H36" t="s">
         <v>12</v>
       </c>
@@ -9949,7 +12146,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="3:14">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.2">
       <c r="H37" t="s">
         <v>12</v>
       </c>
@@ -9966,7 +12163,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="3:14">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.2">
       <c r="H39" t="s">
         <v>12</v>
       </c>
@@ -9983,7 +12180,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="3:14">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.2">
       <c r="H41" t="s">
         <v>12</v>
       </c>
@@ -9997,7 +12194,7 @@
         <v>88.446700000000007</v>
       </c>
     </row>
-    <row r="42" spans="3:14">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.2">
       <c r="H42" t="s">
         <v>11</v>
       </c>
@@ -10017,7 +12214,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="3:14">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.2">
       <c r="H43" t="s">
         <v>13</v>
       </c>
@@ -10034,7 +12231,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="3:14">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.2">
       <c r="H44" t="s">
         <v>10</v>
       </c>
@@ -10048,7 +12245,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="3:14">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.2">
       <c r="H45" t="s">
         <v>13</v>
       </c>
@@ -10065,7 +12262,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="3:14">
+    <row r="48" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>105</v>
       </c>
@@ -10094,7 +12291,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="8:13">
+    <row r="49" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H49" t="s">
         <v>10</v>
       </c>
@@ -10111,7 +12308,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="8:13">
+    <row r="50" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H50" t="s">
         <v>12</v>
       </c>
@@ -10128,7 +12325,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="8:13">
+    <row r="51" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H51" t="s">
         <v>11</v>
       </c>
@@ -10145,7 +12342,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="8:13">
+    <row r="52" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H52" t="s">
         <v>11</v>
       </c>
@@ -10162,7 +12359,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="8:13">
+    <row r="53" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H53" t="s">
         <v>12</v>
       </c>
@@ -10179,7 +12376,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="8:13">
+    <row r="54" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H54" t="s">
         <v>105</v>
       </c>
@@ -10196,7 +12393,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="8:13">
+    <row r="55" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H55" t="s">
         <v>10</v>
       </c>
@@ -10213,7 +12410,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="8:13">
+    <row r="56" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H56" t="s">
         <v>13</v>
       </c>
@@ -10230,7 +12427,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="8:13">
+    <row r="57" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H57" t="s">
         <v>105</v>
       </c>
@@ -10244,7 +12441,7 @@
         <v>93.4876</v>
       </c>
     </row>
-    <row r="58" spans="8:13">
+    <row r="58" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H58" t="s">
         <v>12</v>
       </c>
@@ -10258,7 +12455,7 @@
         <v>90.3065</v>
       </c>
     </row>
-    <row r="59" spans="8:13">
+    <row r="59" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H59" t="s">
         <v>13</v>
       </c>
@@ -10272,7 +12469,7 @@
         <v>90.510800000000003</v>
       </c>
     </row>
-    <row r="60" spans="8:13">
+    <row r="60" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H60" t="s">
         <v>11</v>
       </c>
@@ -10286,7 +12483,7 @@
         <v>88.78</v>
       </c>
     </row>
-    <row r="61" spans="8:13">
+    <row r="61" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H61" t="s">
         <v>12</v>
       </c>
@@ -10303,7 +12500,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="8:13">
+    <row r="62" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H62" t="s">
         <v>105</v>
       </c>
@@ -10317,7 +12514,7 @@
         <v>93.149000000000001</v>
       </c>
     </row>
-    <row r="64" spans="8:13">
+    <row r="64" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H64" t="s">
         <v>11</v>
       </c>
@@ -10331,7 +12528,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="8:12">
+    <row r="65" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H65" t="s">
         <v>12</v>
       </c>
@@ -10345,7 +12542,7 @@
         <v>89.413300000000007</v>
       </c>
     </row>
-    <row r="66" spans="8:12">
+    <row r="66" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H66" t="s">
         <v>13</v>
       </c>
@@ -10359,7 +12556,7 @@
         <v>89.315600000000003</v>
       </c>
     </row>
-    <row r="67" spans="8:12">
+    <row r="67" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H67" t="s">
         <v>10</v>
       </c>
@@ -10373,7 +12570,7 @@
         <v>90.415700000000001</v>
       </c>
     </row>
-    <row r="68" spans="8:12">
+    <row r="68" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H68" t="s">
         <v>126</v>
       </c>
@@ -10387,7 +12584,7 @@
         <v>89.827799999999996</v>
       </c>
     </row>
-    <row r="69" spans="8:12">
+    <row r="69" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H69" t="s">
         <v>128</v>
       </c>
@@ -10401,7 +12598,7 @@
         <v>0.25240000000000001</v>
       </c>
     </row>
-    <row r="71" spans="8:12">
+    <row r="71" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H71" t="s">
         <v>11</v>
       </c>
@@ -10412,7 +12609,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="8:12">
+    <row r="72" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H72" t="s">
         <v>12</v>
       </c>
@@ -10420,7 +12617,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="8:12">
+    <row r="73" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H73" t="s">
         <v>13</v>
       </c>
@@ -10431,7 +12628,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="8:12">
+    <row r="74" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H74" t="s">
         <v>10</v>
       </c>
@@ -10442,7 +12639,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="8:12">
+    <row r="75" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H75" t="s">
         <v>126</v>
       </c>
@@ -10450,7 +12647,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="8:12">
+    <row r="76" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H76" t="s">
         <v>128</v>
       </c>
@@ -10458,7 +12655,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="8:12">
+    <row r="77" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H77" t="s">
         <v>10</v>
       </c>
@@ -10466,7 +12663,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="8:12">
+    <row r="78" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H78" t="s">
         <v>149</v>
       </c>
@@ -10488,13 +12685,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A27A1E-183D-F74B-84E3-4F2A9878A0F1}">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="E45" zoomScale="75" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -10511,7 +12708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -10558,7 +12755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>8.4967310000000004E-4</v>
       </c>
@@ -10603,7 +12800,7 @@
         <v>7.7335200000000005E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>8.3003769999999996E-4</v>
       </c>
@@ -10648,7 +12845,7 @@
         <v>-1.2116678999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.0096659E-3</v>
       </c>
@@ -10692,7 +12889,7 @@
         <v>-8.5703959999999997E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4.9680980000000002E-4</v>
       </c>
@@ -10736,7 +12933,7 @@
         <v>-6.9463043000000003E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3.7389873999999997E-4</v>
       </c>
@@ -10781,7 +12978,7 @@
         <v>-7.1525750000000002E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4.6630806E-4</v>
       </c>
@@ -10825,7 +13022,7 @@
         <v>-1.2978677000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5.0217199999999995E-4</v>
       </c>
@@ -10869,7 +13066,7 @@
         <v>-1.0714142E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3.0146247999999999E-4</v>
       </c>
@@ -10913,7 +13110,7 @@
         <v>-1.39079E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2.2794577E-4</v>
       </c>
@@ -10957,7 +13154,7 @@
         <v>-1.4919238999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2.2511140000000001E-4</v>
       </c>
@@ -11001,7 +13198,7 @@
         <v>-9.281688E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2.2277477999999999E-4</v>
       </c>
@@ -11045,7 +13242,7 @@
         <v>-1.7440042E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2.2118453E-4</v>
       </c>
@@ -11089,7 +13286,7 @@
         <v>-2.0770189999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2.3230487000000001E-4</v>
       </c>
@@ -11133,7 +13330,7 @@
         <v>-1.2334008E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.5761970999999999E-4</v>
       </c>
@@ -11168,7 +13365,7 @@
         <v>-1.5327714E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.5117563999999999E-4</v>
       </c>
@@ -11203,7 +13400,7 @@
         <v>-1.7254150999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.2198850999999999E-4</v>
       </c>
@@ -11238,7 +13435,7 @@
         <v>-1.0392629999999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E19">
         <v>1.7427621000000001E-4</v>
       </c>
@@ -11264,7 +13461,7 @@
         <v>-1.1749784000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I20">
         <v>6.5423939999999996E-4</v>
       </c>
@@ -11281,7 +13478,7 @@
         <v>-6.2279654000000002E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="Q21">
         <v>6.4112927000000005E-4</v>
       </c>
@@ -11289,7 +13486,7 @@
         <v>-1.2814937999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="Q22">
         <v>7.0845212999999995E-4</v>
       </c>
@@ -11297,7 +13494,7 @@
         <v>-1.2737607999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="Q23">
         <v>6.2920949999999999E-4</v>
       </c>
@@ -11305,7 +13502,7 @@
         <v>-1.6074451999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <f>MAX(A3:A18)</f>
         <v>1.0096659E-3</v>
@@ -11329,7 +13526,7 @@
         <v>-1.7587052E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="Q25">
         <v>6.999412E-4</v>
       </c>
@@ -11337,7 +13534,7 @@
         <v>-1.2817556000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="Q26">
         <v>7.3150199999999998E-4</v>
       </c>
@@ -11345,7 +13542,7 @@
         <v>-1.4866292E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="Q27">
         <v>7.5501802999999998E-4</v>
       </c>
@@ -11353,7 +13550,7 @@
         <v>-6.5308955000000001E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="Q28">
         <v>7.0584274000000001E-4</v>
       </c>
@@ -11361,7 +13558,7 @@
         <v>-1.4682568000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="Q29">
         <v>7.2592659999999999E-4</v>
       </c>
@@ -11369,7 +13566,7 @@
         <v>-1.9563762000000002E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="Q30">
         <v>7.0735166000000002E-4</v>
       </c>
@@ -11377,7 +13574,7 @@
         <v>-1.5490785999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="Q31">
         <v>7.5733864999999998E-4</v>
       </c>
@@ -11385,7 +13582,7 @@
         <v>-1.8861371E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="Q32">
         <v>7.1470026000000002E-4</v>
       </c>
@@ -11393,7 +13590,7 @@
         <v>-1.2765802000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="17:19">
+    <row r="33" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q33">
         <v>7.9710974000000003E-4</v>
       </c>
@@ -11401,7 +13598,7 @@
         <v>-1.2455266E-3</v>
       </c>
     </row>
-    <row r="34" spans="17:19">
+    <row r="34" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q34">
         <v>7.3245600000000004E-4</v>
       </c>
@@ -11409,7 +13606,7 @@
         <v>-1.3478247999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="17:19">
+    <row r="35" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q35">
         <v>6.8027970000000002E-4</v>
       </c>
@@ -11417,7 +13614,7 @@
         <v>-1.7971223000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="17:19">
+    <row r="36" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q36">
         <v>5.8331433999999998E-4</v>
       </c>
@@ -11425,7 +13622,7 @@
         <v>-8.6101715E-4</v>
       </c>
     </row>
-    <row r="37" spans="17:19">
+    <row r="37" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q37">
         <v>6.5706209999999996E-4</v>
       </c>
@@ -11433,7 +13630,7 @@
         <v>-1.0836063000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="17:19">
+    <row r="38" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q38">
         <v>6.6743219999999999E-4</v>
       </c>
@@ -11441,7 +13638,7 @@
         <v>-1.8908218000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="17:19">
+    <row r="39" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q39">
         <v>6.5249106000000003E-4</v>
       </c>
@@ -11449,7 +13646,7 @@
         <v>-1.4038453E-3</v>
       </c>
     </row>
-    <row r="40" spans="17:19">
+    <row r="40" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q40">
         <v>5.7810230000000004E-4</v>
       </c>
@@ -11457,7 +13654,7 @@
         <v>-1.6805278000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="17:19">
+    <row r="41" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q41">
         <v>5.9314929999999995E-4</v>
       </c>
@@ -11465,7 +13662,7 @@
         <v>-1.3162362E-3</v>
       </c>
     </row>
-    <row r="42" spans="17:19">
+    <row r="42" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q42">
         <v>6.924915E-4</v>
       </c>
@@ -11473,7 +13670,7 @@
         <v>-9.3705890000000003E-4</v>
       </c>
     </row>
-    <row r="43" spans="17:19">
+    <row r="43" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q43">
         <v>5.4544140000000005E-4</v>
       </c>
@@ -11481,7 +13678,7 @@
         <v>-1.0945086999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="17:19">
+    <row r="44" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q44">
         <v>5.5068830000000002E-4</v>
       </c>
@@ -11489,7 +13686,7 @@
         <v>-7.5031805000000005E-4</v>
       </c>
     </row>
-    <row r="45" spans="17:19">
+    <row r="45" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q45">
         <v>5.7277135999999999E-4</v>
       </c>
@@ -11497,7 +13694,7 @@
         <v>-1.2571286E-4</v>
       </c>
     </row>
-    <row r="46" spans="17:19">
+    <row r="46" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q46">
         <v>4.3469312E-4</v>
       </c>
@@ -11505,7 +13702,7 @@
         <v>9.1438529999999997E-4</v>
       </c>
     </row>
-    <row r="47" spans="17:19">
+    <row r="47" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q47">
         <v>5.4711744000000004E-4</v>
       </c>
@@ -11513,7 +13710,7 @@
         <v>2.9498196E-4</v>
       </c>
     </row>
-    <row r="48" spans="17:19">
+    <row r="48" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q48">
         <v>4.9886334000000005E-4</v>
       </c>
@@ -11521,7 +13718,7 @@
         <v>7.9847670000000003E-4</v>
       </c>
     </row>
-    <row r="49" spans="17:19">
+    <row r="49" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q49">
         <v>3.5010047999999998E-4</v>
       </c>
@@ -11529,7 +13726,7 @@
         <v>1.5617211000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="17:19">
+    <row r="50" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q50">
         <v>4.6661228E-4</v>
       </c>
@@ -11537,7 +13734,7 @@
         <v>1.5436637E-3</v>
       </c>
     </row>
-    <row r="51" spans="17:19">
+    <row r="51" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q51">
         <v>3.4748055999999999E-4</v>
       </c>
@@ -11545,7 +13742,7 @@
         <v>1.4812826E-3</v>
       </c>
     </row>
-    <row r="52" spans="17:19">
+    <row r="52" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q52">
         <v>3.5306005E-4</v>
       </c>
@@ -11553,7 +13750,7 @@
         <v>1.9008626999999999E-3</v>
       </c>
     </row>
-    <row r="53" spans="17:19">
+    <row r="53" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q53">
         <v>3.0541298000000001E-4</v>
       </c>
@@ -11561,7 +13758,7 @@
         <v>1.9872342000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="17:19">
+    <row r="54" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q54">
         <v>3.1683260000000001E-4</v>
       </c>
@@ -11569,7 +13766,7 @@
         <v>1.7806026E-3</v>
       </c>
     </row>
-    <row r="55" spans="17:19">
+    <row r="55" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q55">
         <v>3.1349566000000003E-4</v>
       </c>
@@ -11577,7 +13774,7 @@
         <v>1.928288E-3</v>
       </c>
     </row>
-    <row r="56" spans="17:19">
+    <row r="56" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q56">
         <v>3.2504878000000001E-4</v>
       </c>
@@ -11585,7 +13782,7 @@
         <v>1.7637536000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="17:19">
+    <row r="57" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q57">
         <v>3.2193454999999998E-4</v>
       </c>
@@ -11593,7 +13790,7 @@
         <v>1.6907053999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="17:19">
+    <row r="58" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q58">
         <v>3.2276845999999997E-4</v>
       </c>
@@ -11601,7 +13798,7 @@
         <v>1.8374361000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="17:19">
+    <row r="59" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q59">
         <v>3.2346608000000002E-4</v>
       </c>
@@ -11609,7 +13806,7 @@
         <v>1.8014083999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="17:19">
+    <row r="60" spans="17:19" x14ac:dyDescent="0.2">
       <c r="Q60">
         <v>3.6387885000000001E-4</v>
       </c>
@@ -11627,13 +13824,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BB9E1C-E801-F14C-AA63-9C78D7F98E86}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="8">
         <v>0</v>
       </c>
@@ -11695,7 +13892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -11757,7 +13954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -11819,7 +14016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>19</v>
       </c>
@@ -11891,16 +14088,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0E7CEF-CBAB-0845-BC36-E9885633E33F}">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q14" zoomScale="116" workbookViewId="0">
-      <selection activeCell="AG22" sqref="AG22"/>
+    <sheetView topLeftCell="B1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="40" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
@@ -11965,7 +14162,7 @@
         <v>-0.36</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12030,7 +14227,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -12095,7 +14292,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -12160,7 +14357,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-0.36</v>
       </c>
@@ -12171,7 +14368,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
@@ -12233,7 +14430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -12295,7 +14492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -12357,7 +14554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -12419,12 +14616,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-0.3</v>
       </c>
+      <c r="D25">
+        <v>-0.2</v>
+      </c>
+      <c r="H25">
+        <v>-0.1</v>
+      </c>
       <c r="L25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.1</v>
       </c>
       <c r="T25">
         <v>0.2</v>
@@ -12441,13 +14647,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F9EC6D-3C70-6249-9C3D-64477FEC609B}">
   <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView topLeftCell="J6" zoomScale="87" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView topLeftCell="A83" zoomScale="59" workbookViewId="0">
+      <selection activeCell="Q103" sqref="Q103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>136</v>
       </c>
@@ -12467,7 +14673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -12523,7 +14729,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -12582,7 +14788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.1</v>
       </c>
@@ -12638,7 +14844,7 @@
         <v>54.472257999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.1</v>
       </c>
@@ -12694,7 +14900,7 @@
         <v>63.897081999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.1</v>
       </c>
@@ -12750,7 +14956,7 @@
         <v>67.354911000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.1</v>
       </c>
@@ -12806,7 +15012,7 @@
         <v>70.344387999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.1</v>
       </c>
@@ -12862,7 +15068,7 @@
         <v>72.837321000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.1</v>
       </c>
@@ -12918,7 +15124,7 @@
         <v>72.733975999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.1</v>
       </c>
@@ -12974,7 +15180,7 @@
         <v>74.041374000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.1</v>
       </c>
@@ -13030,7 +15236,7 @@
         <v>73.236209000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.1</v>
       </c>
@@ -13089,7 +15295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.1</v>
       </c>
@@ -13145,7 +15351,7 @@
         <v>76.464843999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.1</v>
       </c>
@@ -13201,7 +15407,7 @@
         <v>76.236979000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.1</v>
       </c>
@@ -13257,7 +15463,7 @@
         <v>76.713966999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.1</v>
       </c>
@@ -13313,7 +15519,7 @@
         <v>78.334263000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.1</v>
       </c>
@@ -13369,7 +15575,7 @@
         <v>77.732382000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.1</v>
       </c>
@@ -13425,7 +15631,7 @@
         <v>75.819117000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.1</v>
       </c>
@@ -13481,7 +15687,7 @@
         <v>77.680564000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.1</v>
       </c>
@@ -13537,7 +15743,7 @@
         <v>78.265381000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.1</v>
       </c>
@@ -13593,7 +15799,7 @@
         <v>78.021365000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.1</v>
       </c>
@@ -13652,7 +15858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.1</v>
       </c>
@@ -13708,7 +15914,7 @@
         <v>78.675064000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.1</v>
       </c>
@@ -13764,7 +15970,7 @@
         <v>78.463807000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.1</v>
       </c>
@@ -13820,7 +16026,7 @@
         <v>79.410475000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.1</v>
       </c>
@@ -13876,7 +16082,7 @@
         <v>79.739317999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.1</v>
       </c>
@@ -13932,7 +16138,7 @@
         <v>78.649901999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.1</v>
       </c>
@@ -13988,7 +16194,7 @@
         <v>79.821029999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.1</v>
       </c>
@@ -14044,7 +16250,7 @@
         <v>79.528060999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.1</v>
       </c>
@@ -14100,7 +16306,7 @@
         <v>78.981983</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.1</v>
       </c>
@@ -14156,7 +16362,7 @@
         <v>74.818638000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.1</v>
       </c>
@@ -14215,7 +16421,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.01</v>
       </c>
@@ -14271,7 +16477,7 @@
         <v>85.15625</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.01</v>
       </c>
@@ -14327,7 +16533,7 @@
         <v>86.009247000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.01</v>
       </c>
@@ -14383,7 +16589,7 @@
         <v>86.168685999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.01</v>
       </c>
@@ -14439,7 +16645,7 @@
         <v>86.181137000000007</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.01</v>
       </c>
@@ -14495,7 +16701,7 @@
         <v>86.280293</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.01</v>
       </c>
@@ -14551,7 +16757,7 @@
         <v>86.521445</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.01</v>
       </c>
@@ -14607,7 +16813,7 @@
         <v>86.378462999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.01</v>
       </c>
@@ -14663,7 +16869,7 @@
         <v>86.573262</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.01</v>
       </c>
@@ -14719,7 +16925,7 @@
         <v>86.625079999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.01</v>
       </c>
@@ -14778,7 +16984,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.01</v>
       </c>
@@ -14834,7 +17040,7 @@
         <v>86.403858</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.01</v>
       </c>
@@ -14890,7 +17096,7 @@
         <v>86.856266000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.01</v>
       </c>
@@ -14946,7 +17152,7 @@
         <v>86.587869999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.01</v>
       </c>
@@ -15002,7 +17208,7 @@
         <v>86.611129000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.01</v>
       </c>
@@ -15058,7 +17264,7 @@
         <v>86.503507999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.01</v>
       </c>
@@ -15114,7 +17320,7 @@
         <v>86.603978999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.01</v>
       </c>
@@ -15170,7 +17376,7 @@
         <v>86.471620000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.01</v>
       </c>
@@ -15226,7 +17432,7 @@
         <v>86.734694000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.01</v>
       </c>
@@ -15282,7 +17488,7 @@
         <v>86.475112999999993</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.01</v>
       </c>
@@ -15341,7 +17547,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.01</v>
       </c>
@@ -15397,7 +17603,7 @@
         <v>86.561304000000007</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.01</v>
       </c>
@@ -15453,7 +17659,7 @@
         <v>86.469071999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.01</v>
       </c>
@@ -15509,7 +17715,7 @@
         <v>86.545360000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.01</v>
       </c>
@@ -15565,7 +17771,7 @@
         <v>86.405850999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.01</v>
       </c>
@@ -15621,7 +17827,7 @@
         <v>86.420747000000006</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.01</v>
       </c>
@@ -15677,7 +17883,7 @@
         <v>86.639031000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.01</v>
       </c>
@@ -15733,7 +17939,7 @@
         <v>86.075016000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.01</v>
       </c>
@@ -15789,7 +17995,7 @@
         <v>86.378462999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.01</v>
       </c>
@@ -15845,7 +18051,7 @@
         <v>86.461654999999993</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.01</v>
       </c>
@@ -15904,7 +18110,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1E-3</v>
       </c>
@@ -15960,7 +18166,7 @@
         <v>88.241389999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1E-3</v>
       </c>
@@ -16016,7 +18222,7 @@
         <v>88.339046999999994</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1E-3</v>
       </c>
@@ -16072,7 +18278,7 @@
         <v>88.440319000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1E-3</v>
       </c>
@@ -16128,7 +18334,7 @@
         <v>88.480547999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1E-3</v>
       </c>
@@ -16184,7 +18390,7 @@
         <v>88.610091999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1E-3</v>
       </c>
@@ -16240,7 +18446,7 @@
         <v>88.569185000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1E-3</v>
       </c>
@@ -16296,7 +18502,7 @@
         <v>88.620057000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1E-3</v>
       </c>
@@ -16352,7 +18558,7 @@
         <v>88.659916999999993</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1E-3</v>
       </c>
@@ -16408,7 +18614,7 @@
         <v>88.561131000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1E-3</v>
       </c>
@@ -16467,7 +18673,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1E-3</v>
       </c>
@@ -16523,7 +18729,7 @@
         <v>88.721699999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1E-3</v>
       </c>
@@ -16579,7 +18785,7 @@
         <v>88.792687000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1E-3</v>
       </c>
@@ -16635,7 +18841,7 @@
         <v>88.797432999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1E-3</v>
       </c>
@@ -16691,7 +18897,7 @@
         <v>88.741629000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1E-3</v>
       </c>
@@ -16747,7 +18953,7 @@
         <v>88.675901999999994</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1E-3</v>
       </c>
@@ -16803,7 +19009,7 @@
         <v>88.797432999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1E-3</v>
       </c>
@@ -16859,7 +19065,7 @@
         <v>88.769531000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1E-3</v>
       </c>
@@ -16915,7 +19121,7 @@
         <v>88.768523999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1E-3</v>
       </c>
@@ -16971,7 +19177,7 @@
         <v>88.775509999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1E-3</v>
       </c>
@@ -17030,7 +19236,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1E-3</v>
       </c>
@@ -17086,7 +19292,7 @@
         <v>88.732281</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1E-3</v>
       </c>
@@ -17142,7 +19348,7 @@
         <v>88.825334999999995</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1E-3</v>
       </c>
@@ -17198,7 +19404,7 @@
         <v>88.821348999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1E-3</v>
       </c>
@@ -17254,7 +19460,7 @@
         <v>88.778592000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1E-3</v>
       </c>
@@ -17310,7 +19516,7 @@
         <v>88.733658000000005</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1E-3</v>
       </c>
@@ -17366,7 +19572,7 @@
         <v>88.841279</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1E-3</v>
       </c>
@@ -17422,7 +19628,7 @@
         <v>88.760469999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1E-3</v>
       </c>
@@ -17478,7 +19684,7 @@
         <v>88.833307000000005</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1E-3</v>
       </c>
@@ -17534,7 +19740,7 @@
         <v>88.713728000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1E-3</v>
       </c>
@@ -17593,7 +19799,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1E-4</v>
       </c>
@@ -17649,7 +19855,7 @@
         <v>88.837293000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1E-4</v>
       </c>
@@ -17705,7 +19911,7 @@
         <v>88.855106000000006</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1E-4</v>
       </c>
@@ -17761,7 +19967,7 @@
         <v>88.895088999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1E-4</v>
       </c>
@@ -17817,7 +20023,7 @@
         <v>88.928970000000007</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1E-4</v>
       </c>
@@ -17873,7 +20079,7 @@
         <v>88.893362999999994</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1E-4</v>
       </c>
@@ -17929,7 +20135,7 @@
         <v>88.964843999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1E-4</v>
       </c>
@@ -17985,7 +20191,7 @@
         <v>88.940928</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1E-4</v>
       </c>
@@ -18041,7 +20247,7 @@
         <v>88.937661000000006</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1E-4</v>
       </c>
@@ -18097,7 +20303,7 @@
         <v>89.004703000000006</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1E-4</v>
       </c>
@@ -18158,4 +20364,460 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5ADDBA-8C8D-D541-815B-79A707DC4E10}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8.6265557281494107</v>
+      </c>
+      <c r="B2">
+        <v>5.6244940776062</v>
+      </c>
+      <c r="C2">
+        <v>9.6179969685363709</v>
+      </c>
+      <c r="F2">
+        <v>7.4238378741454998</v>
+      </c>
+      <c r="G2">
+        <v>4.6347861511230404</v>
+      </c>
+      <c r="H2">
+        <v>5.8761389205932604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8.2385523597717292</v>
+      </c>
+      <c r="B3">
+        <v>5.0417298382568303</v>
+      </c>
+      <c r="C3">
+        <v>9.1305323837280206</v>
+      </c>
+      <c r="F3">
+        <v>6.8820311036682096</v>
+      </c>
+      <c r="G3">
+        <v>4.1848109242248501</v>
+      </c>
+      <c r="H3">
+        <v>5.3504416682434002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7.8149619819641103</v>
+      </c>
+      <c r="B4">
+        <v>4.5504122589111304</v>
+      </c>
+      <c r="C4">
+        <v>8.5665131951904296</v>
+      </c>
+      <c r="F4">
+        <v>6.3469529458618101</v>
+      </c>
+      <c r="G4">
+        <v>3.7911804597473102</v>
+      </c>
+      <c r="H4">
+        <v>4.8780881478881799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.3643655194091799</v>
+      </c>
+      <c r="B5">
+        <v>4.1418953674316397</v>
+      </c>
+      <c r="C5">
+        <v>7.9461187648010201</v>
+      </c>
+      <c r="F5">
+        <v>5.83689288101196</v>
+      </c>
+      <c r="G5">
+        <v>3.45173209564209</v>
+      </c>
+      <c r="H5">
+        <v>4.4711490480041496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.9039563519287102</v>
+      </c>
+      <c r="B6">
+        <v>3.8059518959045402</v>
+      </c>
+      <c r="C6">
+        <v>7.3068265007019004</v>
+      </c>
+      <c r="F6">
+        <v>5.3661072746276801</v>
+      </c>
+      <c r="G6">
+        <v>3.1627573437500001</v>
+      </c>
+      <c r="H6">
+        <v>4.1371593881988504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.4521918653869603</v>
+      </c>
+      <c r="B7">
+        <v>3.5328973840332001</v>
+      </c>
+      <c r="C7">
+        <v>6.6841569889831502</v>
+      </c>
+      <c r="F7">
+        <v>4.9468362355041497</v>
+      </c>
+      <c r="G7">
+        <v>2.92106760742187</v>
+      </c>
+      <c r="H7">
+        <v>3.8712556021881102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6.0306469931030202</v>
+      </c>
+      <c r="B8">
+        <v>3.31554606002807</v>
+      </c>
+      <c r="C8">
+        <v>6.0968242184448203</v>
+      </c>
+      <c r="F8">
+        <v>4.5945442570495603</v>
+      </c>
+      <c r="G8">
+        <v>2.7221102294921802</v>
+      </c>
+      <c r="H8">
+        <v>3.6629142727661099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5.64967353668212</v>
+      </c>
+      <c r="B9">
+        <v>3.1478558657836899</v>
+      </c>
+      <c r="C9">
+        <v>5.5577491702270496</v>
+      </c>
+      <c r="F9">
+        <v>4.3183381860351497</v>
+      </c>
+      <c r="G9">
+        <v>2.56495977050781</v>
+      </c>
+      <c r="H9">
+        <v>3.5114020748138399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5.3198465019225996</v>
+      </c>
+      <c r="B10">
+        <v>3.0239074604797298</v>
+      </c>
+      <c r="C10">
+        <v>5.0860713777160598</v>
+      </c>
+      <c r="F10">
+        <v>4.1210362609863198</v>
+      </c>
+      <c r="G10">
+        <v>2.4480885595703099</v>
+      </c>
+      <c r="H10">
+        <v>3.4227884891509999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5.0511230522155701</v>
+      </c>
+      <c r="B11">
+        <v>2.9381015927124001</v>
+      </c>
+      <c r="C11">
+        <v>4.7095927398681603</v>
+      </c>
+      <c r="F11">
+        <v>3.9990079995727501</v>
+      </c>
+      <c r="G11">
+        <v>2.3688595112609798</v>
+      </c>
+      <c r="H11">
+        <v>3.4006407141876198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4.8470499497222903</v>
+      </c>
+      <c r="B12">
+        <v>2.88756864196777</v>
+      </c>
+      <c r="C12">
+        <v>4.4646930343627904</v>
+      </c>
+      <c r="F12">
+        <v>3.9443516107177699</v>
+      </c>
+      <c r="G12">
+        <v>2.3261436143493599</v>
+      </c>
+      <c r="H12">
+        <v>3.4462360877227698</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4.7140729313659602</v>
+      </c>
+      <c r="B13">
+        <v>2.8710915362548799</v>
+      </c>
+      <c r="C13">
+        <v>4.3700614250183101</v>
+      </c>
+      <c r="F13">
+        <v>3.95238291061401</v>
+      </c>
+      <c r="G13">
+        <v>2.3195162823486299</v>
+      </c>
+      <c r="H13">
+        <v>3.5639480088806099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4.6635221163940397</v>
+      </c>
+      <c r="B14">
+        <v>2.88951729766845</v>
+      </c>
+      <c r="C14">
+        <v>4.4117293188476498</v>
+      </c>
+      <c r="F14">
+        <v>4.0260776737975998</v>
+      </c>
+      <c r="G14">
+        <v>2.35257946289062</v>
+      </c>
+      <c r="H14">
+        <v>3.7627968128204299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4.70832147872924</v>
+      </c>
+      <c r="B15">
+        <v>2.9447924667358398</v>
+      </c>
+      <c r="C15">
+        <v>4.5713114224243103</v>
+      </c>
+      <c r="F15">
+        <v>4.1747101008605902</v>
+      </c>
+      <c r="G15">
+        <v>2.4311470269775302</v>
+      </c>
+      <c r="H15">
+        <v>4.0509563504028296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4.8514741491699196</v>
+      </c>
+      <c r="B16">
+        <v>3.0391745994567798</v>
+      </c>
+      <c r="C16">
+        <v>4.8389114294433497</v>
+      </c>
+      <c r="F16">
+        <v>4.4104523088073702</v>
+      </c>
+      <c r="G16">
+        <v>2.5601169398498498</v>
+      </c>
+      <c r="H16">
+        <v>4.4309454891967697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5.09826589904785</v>
+      </c>
+      <c r="B17">
+        <v>3.1717797351074202</v>
+      </c>
+      <c r="C17">
+        <v>5.2027531686401298</v>
+      </c>
+      <c r="F17">
+        <v>4.7433414285278301</v>
+      </c>
+      <c r="G17">
+        <v>2.7410746763610798</v>
+      </c>
+      <c r="H17">
+        <v>4.9011470246887203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5.44666697723388</v>
+      </c>
+      <c r="B18">
+        <v>3.3451461717224098</v>
+      </c>
+      <c r="C18">
+        <v>5.6462433772277798</v>
+      </c>
+      <c r="F18">
+        <v>5.1697222720336899</v>
+      </c>
+      <c r="G18">
+        <v>2.9763735456848099</v>
+      </c>
+      <c r="H18">
+        <v>5.4478534109497003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5.88812017288208</v>
+      </c>
+      <c r="B19">
+        <v>3.5620781437683098</v>
+      </c>
+      <c r="C19">
+        <v>6.1557704158020004</v>
+      </c>
+      <c r="F19">
+        <v>5.6808855715942297</v>
+      </c>
+      <c r="G19">
+        <v>3.2697706752014102</v>
+      </c>
+      <c r="H19">
+        <v>6.0452495748901303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6.40698809982299</v>
+      </c>
+      <c r="B20">
+        <v>3.8252782298278798</v>
+      </c>
+      <c r="C20">
+        <v>6.7116296482849096</v>
+      </c>
+      <c r="F20">
+        <v>6.2697088243102996</v>
+      </c>
+      <c r="G20">
+        <v>3.6225061454772902</v>
+      </c>
+      <c r="H20">
+        <v>6.6638324494934</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6.9849896282958897</v>
+      </c>
+      <c r="B21">
+        <v>4.1375937042236304</v>
+      </c>
+      <c r="C21">
+        <v>7.2947963925170898</v>
+      </c>
+      <c r="F21">
+        <v>6.9188559844970703</v>
+      </c>
+      <c r="G21">
+        <v>4.03323992752075</v>
+      </c>
+      <c r="H21">
+        <v>7.2830299102783203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7.60299227432251</v>
+      </c>
+      <c r="B22">
+        <v>4.4992007867431596</v>
+      </c>
+      <c r="C22">
+        <v>7.8899262426757799</v>
+      </c>
+      <c r="F22">
+        <v>7.60299227432251</v>
+      </c>
+      <c r="G22">
+        <v>4.4992007867431596</v>
+      </c>
+      <c r="H22">
+        <v>7.8899262426757799</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuma/code/DistKernel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747FDE11-B26A-9F41-BD9A-B9004AB36B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D96723-4B20-3C4E-93AE-BFA3114937E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="580" windowWidth="25040" windowHeight="13940" activeTab="5" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
+    <workbookView xWindow="340" yWindow="580" windowWidth="28460" windowHeight="15860" activeTab="3" xr2:uid="{9B35900A-692F-1247-989F-F2A6759FCF85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2711,10 +2711,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17115096601594557"/>
+          <c:x val="0.10312275335807804"/>
           <c:y val="5.9134302594078356E-2"/>
-          <c:w val="0.79940085267809569"/>
-          <c:h val="0.76733939384654259"/>
+          <c:w val="0.86742904389806808"/>
+          <c:h val="0.79328938872587884"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3226,7 +3226,7 @@
         <c:axId val="1421039487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="250"/>
+          <c:max val="150"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3268,8 +3268,25 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Channel number</a:t>
+                  <a:t>Channel value</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> Histogram</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3334,7 +3351,7 @@
         <c:crossAx val="1356905391"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="100"/>
+        <c:majorUnit val="50"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3350,9 +3367,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10241534458834867"/>
-          <c:y val="5.2581207940587307E-2"/>
-          <c:w val="0.46769350299868556"/>
+          <c:x val="0.75861635479204059"/>
+          <c:y val="4.6334873943586811E-2"/>
+          <c:w val="0.23768493548609332"/>
           <c:h val="0.40373876258971869"/>
         </c:manualLayout>
       </c:layout>
@@ -11012,15 +11029,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>18615</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>100944</xdr:rowOff>
+      <xdr:colOff>423333</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>92030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>349710</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>109483</xdr:rowOff>
+      <xdr:rowOff>109484</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11465,7 +11482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76B3B3-A97F-4D4E-9A0C-4CE57D2939CF}">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="50" workbookViewId="0">
+    <sheetView zoomScale="50" workbookViewId="0">
       <selection activeCell="H78" sqref="H78:I78"/>
     </sheetView>
   </sheetViews>
@@ -12685,7 +12702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A27A1E-183D-F74B-84E3-4F2A9878A0F1}">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView topLeftCell="E45" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="75" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
@@ -14088,8 +14105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0E7CEF-CBAB-0845-BC36-E9885633E33F}">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="AA38" sqref="AA38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14647,8 +14664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F9EC6D-3C70-6249-9C3D-64477FEC609B}">
   <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScale="59" workbookViewId="0">
-      <selection activeCell="Q103" sqref="Q103"/>
+    <sheetView topLeftCell="C86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20370,8 +20387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5ADDBA-8C8D-D541-815B-79A707DC4E10}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
